--- a/VkPicParser/VK_list.xlsx
+++ b/VkPicParser/VK_list.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,2924 +400,3245 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43781.6522800926</v>
+        <v>43740.89585648148</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>485</v>
+        <v>37</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>И ещё конфеты должен</t>
+          <t>Галина Вишневская: 
+"Я и вообразить себе не могла численность господствующего класса в Советском Союзе. Часто, стоя в Георгиевском зале Кремлевского дворца у банкетного стола, заваленного метровыми осетрами, лоснящимися окороками, зернистой икрой, и поднимая со всеми вместе хрустальный бокал за счастливую жизнь советского народа, я с любопытством рассматривала оплывшие, обрюзгшие физиономии самоизбранных руководителей государства, усердно жующих, истово уничтожающих все эти великолепные натюрморты. Я вспоминала свои недавние скитания по огромной стране, с ее чудовищным бытом, непролазной грязью и невообразимо низким, буквально нищенским уровнем жизни народа, и невольно думала, что эти опьяненные властью, самодовольные, отупевшие от еды и питья люди, в сущности, живут в другом государстве, построенном ими для себя, для многотысячной орды, внутри завоеванной России, эксплуатируя на свою потребу ее нищий обозленный народ. У них свои закрытые продовольственные и промтоварные магазины, портняжные и сапожные мастерские, со здоровенными вышибалами-охранниками в дверях, где всё самого высокого качества и по ценам намного ниже официальных цен для народа. Они живут в великолепных бесплатных квартирах и дачах с целым штатом прислуги, у всех машины с шофером, и не только для них, но и для членов семей. К их услугам бывшие царские дворцы в Крыму и на Кавказе, превращенные специально для них в санатории, свои больницы, дома отдыха… В собственном «внутреннем государстве» есть всё. Искренне уверовав в свою божественную исключительность, они надменно, брезгливо не смешиваются с жизнью советских смердов, надежно отгородившись от них высокими непроницаемыми заборами государственных дач. В театрах для них отдельные ложи со специальным выходом на улицу, и даже в антрактах они не выходят в фойе, чтоб не унизиться до общения с рабами".</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>JHRUmr583A8.jpg</t>
+          <t>zlfdCRaTm0Q.jpg</t>
         </is>
       </c>
       <c r="H2">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c855032/v855032707/15cc76/JHRUmr583A8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c7004/v7004024/6a79d/zlfdCRaTm0Q.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43780.81612268519</v>
+        <v>43740.86805555555</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Сколько будет здесь лайков столько и точек:
-.................</t>
+          <t>Как же вы совки примитивны со своим нытьём "а вот раньше было лучше.." Со своими вечными стонаниями как мы якобы плохо живём в наше время и как было якобы хорошо при совке. Да лучше чем сейчас мы никогда не жили! Если начать соображать головой и работать на себя, постоянно повышая свою квалификацию и знания то можно иметь всё, что нужно для комфортной жизни абсолютно каждому! То как вы живёте ответственны исключительно вы сами. Не государство, не чиновники, не депутаты, ни олигархи, ни коммерсанты, ни масоны, никто кроме вас самих не виноват в ваших личных проблемах. Государство после после 1991 года дало главное возможности каждому жить как нравиться и зарабатывать. Никто больше не принуждает и не ограничивает свободного человека в свободной стране. Есть тысяча способов стать успешными по жизни людьми. Знаю достаточно серьезных людей, что начинали свое дело с нуля и сейчас приличные бизнесмены, управляют от торговых точек и автосервисов до риэлторских и строительных компаний. Живут и ни в чём себе не отказывают. Знаю достаточно людей, ставших специалистами в перспективных сферах от сферы продаж до ай-ти технологии. Все эти люди успешны и востребованы в бизнесе или на рынке труда, они хорошо зарабатывают, отдыхают 2 раза в год заграницей, меняют авто каждые 3 года, покупают новую недвижимость, стильно со вкусом одеваются, имеют многие статусные вещи. Они всего добились сами и пришли к успеху сами своим умом и трудом, а не ныли почему государство не дает им на шару вонючую хрущевку, не гарантирует им работу за копейки на государство, не дает халявные путевки в задрыпанные санатории. Они постоянно развиваются как профессионалы в своём деле, осваивают новые навыки и совершенствуются. Я тоже всего достигла сама. Для меня все коммуняги по своей натуре делиться на 3 вида - ностальгирующие по детству и молодости (эти самые безобидные), алкаши (эти потологические хамло, ограниченный словарный запас и ограниченное мышление отсюда и низкое социальное положение) и халявщики (эти во всех своих проблемах винят других, не хотят ничего делать, но при этом хотят хорошо жить). И вот эти алкаши и халявщики пытаются дурить людям головы рассказывая ерунду вроде той, что при совке всё было на шару и все счастливые были, а сейчас работать надо и водка дорогая. А из порочного круга нищеты, куда загнали себя вы сами, не привыкшее соображать своей головой, выход только один - работа над собой. А вы мало получаете сейчас исключительно потому что у вас кпд низкий или вы не тем чем надо занимаетесь. Коммунизм не девал людям быть успешными, он делал всех одинаково нищими, давая пайку чтобы не сдохнуть с голода и убогий барак для существования. Убогое рабское общество совка не давало людям развиваться и политика уравниловки привела коммунячую систему к деградации и краху. Сейчас наша страна уже изжила многие совковые пережитки и общество уже не даст свернуть снова в тупик как в 1917 году, наша молодежь уже почти поголовно мыслит правильно, а вы перестраивайтесь и не нойте, а начинайте перемены со своей головы, а не нойте ежедневно в интернете и всё у вас тоже будет.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>P9T7zjBaZTI.jpg</t>
+          <t>NsdR-hS2DmY.jpg</t>
         </is>
       </c>
       <c r="H3">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c855620/v855620003/15866a/P9T7zjBaZTI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-61.userapi.com/c7004/v7004024/6a785/NsdR-hS2DmY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43780.81758101852</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>43740.85069444445</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>👍</t>
+        </is>
+      </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Я один слово Родина долго искал</t>
+          <t>Не работали, но числились на закрепленных за их клубами рабочих местах зарплату получали и за футбол и за основное место работы. В той стране не было профессиональных спортсменов, все числились любителями. По прихоти начальства получали квартиры и волги. После карьеры становились не кому не нужными, спивались и быстро умирали.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>JEeRnK8WrZc.jpg</t>
+          <t>RmfcU8jccRk.jpg</t>
         </is>
       </c>
       <c r="H4">
-        <f>HYPERLINK("https://sun9-43.userapi.com/c853424/v853424570/160e2e/JEeRnK8WrZc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-31.userapi.com/c7004/v7004024/6a77e/RmfcU8jccRk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43780.76828703703</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>43740.83351851852</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Самый офигенный конструктор!</t>
+        </is>
+      </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Сомной также обращались</t>
+          <t>Лего в сторонке нервно курит</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>_1-nJ8vAsGs.jpg</t>
+          <t>u3q2uJzklwA.jpg</t>
         </is>
       </c>
       <c r="H5">
-        <f>HYPERLINK("https://sun9-11.userapi.com/c854128/v854128468/15f36a/_1-nJ8vAsGs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c7004/v7004822/6f507/u3q2uJzklwA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43779.45113425926</v>
+        <v>43740.76042824074</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>СОЮЗ НЕРУШИМЫЙ</t>
+          <t>В наше время тоже есть стабильность. Цены растут стабильно. ☝</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-s3ZHiqtIKk.jpg</t>
+          <t>Ubl9JHvVR9k.jpg</t>
         </is>
       </c>
       <c r="H6">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c543109/v543109014/64ed8/-s3ZHiqtIKk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c7004/v7004379/6861c/Ubl9JHvVR9k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43781.71321759259</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>43740.73959490741</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>😍</t>
+        </is>
+      </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Сверху горелое, внутри сырое 🤢</t>
+          <t>После демонстрации шли к кому-нибудь в гости,накрывались столы,пели песни,танцевали.Здорово было.В то время действительно было ощущение праздника.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RUy2JnY5ohY.jpg</t>
+          <t>Fpaa6SCIz54.jpg</t>
         </is>
       </c>
       <c r="H7">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c635105/v635105298/301a7/RUy2JnY5ohY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c7004/v7004379/68614/Fpaa6SCIz54.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43781.55138888889</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>43740.61805555555</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Натюрморт эпохи.</t>
+        </is>
+      </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Так это не джинсы</t>
+          <t>Сытостью и благополучием веет от фото.Опять же рупь с мелочью остался.На неделю.....</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>zcVjcQqNM7E.jpg</t>
+          <t>3EoESQlR3VQ.jpg</t>
         </is>
       </c>
       <c r="H8">
-        <f>HYPERLINK("https://sun9-43.userapi.com/c635105/v635105785/39fc5/zcVjcQqNM7E.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c7004/v7004527/6b075/3EoESQlR3VQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43781.51180555556</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>43740.57291666666</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Пионербол — игра, незнакомая детям из других стран</t>
+        </is>
+      </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Я бы не радовалась женщине за рулем такого средства передвижения</t>
+          <t>Все из-за него физру ждали с нетерпением.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>HndugR8jh1w.jpg</t>
+          <t>oY9IENzbFgk.jpg</t>
         </is>
       </c>
       <c r="H9">
-        <f>HYPERLINK("https://sun9-16.userapi.com/c635105/v635105340/56ddd/HndugR8jh1w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c7004/v7004527/6b067/oY9IENzbFgk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43781.41597222222</v>
+        <v>43739.92361111111</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Моей бы девушке такие проблемы...</t>
+          <t>Все помнят)</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Судя по всему , у неё джинсы застегнуты, вот и мучается!!! Поэтому проблема у неё другая))))</t>
+          <t>Бегали по партам, бесились, как-то даже залезли на шкаф.Никто ничего толком не мыл.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>_PZmqmRJK9A.jpg</t>
+          <t>M6Mco6NeEvs.jpg</t>
         </is>
       </c>
       <c r="H10">
-        <f>HYPERLINK("https://sun9-3.userapi.com/c635105/v635105316/3d741/_PZmqmRJK9A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c7004/v7004388/6e695/M6Mco6NeEvs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43779.82083333333</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+        <v>43739.88542824074</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>И все простые...</t>
+        </is>
+      </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>На толчке расслабиться?</t>
+          <t>Что сейчас изменилось? Комментаторы постарели и завидуют молодым!! И всё!!!</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PE8EUXXmvfs.jpg</t>
+          <t>8BVDGORFPgQ.jpg</t>
         </is>
       </c>
       <c r="H11">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c635105/v635105904/2bcdd/PE8EUXXmvfs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c7004/v7004387/6d704/8BVDGORFPgQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43779.61944444444</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+        <v>43739.86805555555</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>😍</t>
+        </is>
+      </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Вам то какое дело, это личная жизнь курильщиков</t>
+          <t>Qazaq Qazaq - известный антисоветчик, провокатор и тролль. Не поддавайтесь на его провокации и не кормите тролля, пусть он сдохнет с голода.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>r7U3UWbmLIA.jpg</t>
+          <t>3qCJIS1le8I.jpg</t>
         </is>
       </c>
       <c r="H12">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c635105/v635105593/3654c/r7U3UWbmLIA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-1.userapi.com/c7004/v7004387/6d6f2/3qCJIS1le8I.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43782.63353009259</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+        <v>43739.85069444445</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хоть ненадолго)</t>
+        </is>
+      </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Мой дядя:</t>
+          <t>Невский конца 70-х, справа Казанский собор.
+Увы, сегодня Петербург превращён в душанбе, сотни тысяч узбеков и таджиков превратили город в Кишлак. Тотальный запах шавермы, наркотиков, преступность зашкаливает...
+Говорят, в зонах Форносово тройка и четвёрка уже каждый третий зэк - это среднеазиат</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>xRfci_WvTwI.jpg</t>
+          <t>8ZOmqBN-cvc.jpg</t>
         </is>
       </c>
       <c r="H13">
-        <f>HYPERLINK("https://sun9-44.userapi.com/c855128/v855128794/15d7a1/xRfci_WvTwI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-34.userapi.com/c7004/v7004387/6d6e9/8ZOmqBN-cvc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43782.62517361111</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+        <v>43739.77430555555</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>😍</t>
+        </is>
+      </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Люди   ,которые принимают горячий душ, по мнению ученых</t>
+          <t>Верните в моду доброту,
+Примите мудрое прощение.
+Жестокость ранит красоту -
+Спасите мир от разрушения!
+Черствеют души от обид,
+У жажды мщения во власти...
+И, прячась в мертвый монолит,
+Крадут у нас возможность счастья.
+Верните в моду доброту -
+Сердца открыть совсем не сложно,
+А завернуться в глухоту
+В любой момент обратно можно...
+Освобождайтесь ото лжи,
+Не стоит чествовать злословие.
+Храните чистоту души,
+Встречая каждый день с любовью!
+Верните в моду доброту...</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>O8mlK1YWEuU.jpg</t>
+          <t>4Qt7kz2ZNas.jpg</t>
         </is>
       </c>
       <c r="H14">
-        <f>HYPERLINK("https://sun9-66.userapi.com/c857520/v857520794/edcf2/O8mlK1YWEuU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-19.userapi.com/c7004/v7004899/728a8/4Qt7kz2ZNas.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43782.31252314815</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+        <v>43739.76042824074</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Действительно)</t>
+        </is>
+      </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Используйте это коммент как дизлайк</t>
+          <t>Первый Гагарин, а второе, что за мудо</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>xu3nIcWOx-8.jpg</t>
+          <t>wXBlF6-kh5I.jpg</t>
         </is>
       </c>
       <c r="H15">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c855616/v855616077/1663a2/xu3nIcWOx-8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c7004/v7004899/728a1/wXBlF6-kh5I.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>43782.27084490741</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
+        <v>43739.68753472222</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Как думаете?</t>
+        </is>
+      </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>*звуки сохранения*</t>
+          <t>Хорошо жили и вкусно ели.Цены не скакали.Можно было свою зарплату распланировать.👍🏻🥰</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>oRbN5eNB-VA.jpg</t>
+          <t>bp-ckEmV96Q.jpg</t>
         </is>
       </c>
       <c r="H16">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c857720/v857720077/e6137/oRbN5eNB-VA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c7004/v7004899/72882/bp-ckEmV96Q.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43781.68753472222</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+        <v>43739.67361111111</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Правильно?</t>
+        </is>
+      </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Эти намёки... ПРОСТО ВЗРЫВНЫЕ</t>
+          <t>Многие страны взяли эту систему для себя(например, Финляндия), и теперь они занимают первые места в рейтинге, а мы - с конца. Зато у нас сейчас передовая западная система образования. Иногда все-таки наши дети занимают призовые места на международных олимпиадах, но этих детей готовят учителя по-старому.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>iEPGdFsWE6g.jpg</t>
+          <t>J-NeeKA8Dj8.jpg</t>
         </is>
       </c>
       <c r="H17">
-        <f>HYPERLINK("https://sun9-51.userapi.com/c854028/v854028613/166095/iEPGdFsWE6g.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-13.userapi.com/c7004/v7004899/7287b/J-NeeKA8Dj8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>43781.35418981482</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
+        <v>43739.61805555555</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Друзья по жизни. Коллеги по театру. Андрей Миронов, Марк Захаров, Александр Ширвиндт.</t>
+        </is>
+      </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Он спасён.</t>
+          <t>Саша, живи! Один остался.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>RWQFrUn4t3U.jpg</t>
+          <t>zuTW5yOedwU.jpg</t>
         </is>
       </c>
       <c r="H18">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c855336/v855336911/1682fd/RWQFrUn4t3U.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-25.userapi.com/c7004/v7004024/6a6a2/zuTW5yOedwU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43781.29174768519</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
+        <v>43739.57291666666</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>У всех были)</t>
+        </is>
+      </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Молоко и колбаса</t>
+          <t>Очень качественная была обувь.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>nJ9xSEBs0hA.jpg</t>
+          <t>FuNCxDWK8A8.jpg</t>
         </is>
       </c>
       <c r="H19">
-        <f>HYPERLINK("https://sun9-60.userapi.com/c855124/v855124911/1644ef/nJ9xSEBs0hA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c7004/v7004262/73e90/FuNCxDWK8A8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43780.89586805556</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
+        <v>43739.54178240741</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Правда ведь?</t>
+        </is>
+      </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Это тип карманный бильярд</t>
+          <t>Стекло что ли особенное? Не капиталистическое,а советское?))))</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9tFkfVGOnHc.jpg</t>
+          <t>Z8CsPyvKHug.jpg</t>
         </is>
       </c>
       <c r="H20">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c857436/v857436239/e5b8a/9tFkfVGOnHc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c7004/v7004262/73e87/Z8CsPyvKHug.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43780.8784837963</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
+        <v>43739.46527777778</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Правда?</t>
+        </is>
+      </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>А что звучит...</t>
+          <t>Самый лучший завтрак, сдобная булочка и пакет молока, позавтракал и на море, и так все лето.Самое лучшее детство было в СССР.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T6HSfTiZt3k.jpg</t>
+          <t>3d0eCBAk1Zs.jpg</t>
         </is>
       </c>
       <c r="H21">
-        <f>HYPERLINK("https://sun9-28.userapi.com/c854120/v854120239/156f56/T6HSfTiZt3k.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c7004/v7004735/6a74b/3d0eCBAk1Zs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43780.79181712963</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
+        <v>43739.38542824074</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>И не терялись)</t>
+        </is>
+      </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>А я бы сказал "наконец-то"</t>
+          <t>Ношу до сих пор.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>KL-_ZzGU1i0.jpg</t>
+          <t>2w7JZ70GTko.jpg</t>
         </is>
       </c>
       <c r="H22">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c855336/v855336992/160615/KL-_ZzGU1i0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-51.userapi.com/c7004/v7004600/6b8b0/2w7JZ70GTko.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43780.72222222222</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
+        <v>43740.93751157408</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Мы веpнyлись домой... СССР. 1943г.</t>
+        </is>
+      </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>инсульт фемки</t>
+          <t>Это ужас такое пережить</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>xS2psLjAjpY.jpg</t>
+          <t>-6rLeQNayfA.jpg</t>
         </is>
       </c>
       <c r="H23">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c857216/v857216268/449bf/xS2psLjAjpY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-61.userapi.com/c635105/v635105512/314ec/-6rLeQNayfA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43780.22916666666</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
+        <v>43740.88888888889</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Двоpовые Pазведчики))</t>
+        </is>
+      </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>хабиб что-то обезьянка тупая, его фанаты овощные салатики</t>
+          <t>и в подвалах боялись только то, что сами напридумываем</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3gG2bqHdh30.jpg</t>
+          <t>irsi_WPIuOU.jpg</t>
         </is>
       </c>
       <c r="H24">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c857536/v857536345/dea17/3gG2bqHdh30.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-65.userapi.com/c635105/v635105956/39035/irsi_WPIuOU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43780.04166666666</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
+        <v>43740.78472222222</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Летчики 102-го гвapдейского истребительного авиаполка в капониpе рядом с «Аэрокоброй» борт 33.
+Вот где по-настоящему крутые ребята!</t>
+        </is>
+      </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Кста, рили крутой канал</t>
+          <t>Господа предлагаю блокировать всех малолеток, грубиянов, врунов и им подобных.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>dbVc2lsnNk0.jpg</t>
+          <t>MI0h4nhUDU8.jpg</t>
         </is>
       </c>
       <c r="H25">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c858428/v858428345/e0196/dbVc2lsnNk0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c635105/v635105457/342f5/MI0h4nhUDU8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43779.91672453703</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
+        <v>43740.49305555555</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Памятник воинам, пoгибшим в Чечне. Волгогpад.</t>
+        </is>
+      </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Когда друга не существует:</t>
+          <t>Пацанам честь и слава. 
+А Борису алкоголику и Пашке мерседесу, гореть в Аду шакалам, за то, что отправляли необстреленных пацанов на убой.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>vkU5ykpyxQM.jpg</t>
+          <t>UJgjBjG0AlY.jpg</t>
         </is>
       </c>
       <c r="H26">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c858528/v858528153/3ff26/vkU5ykpyxQM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c635105/v635105905/2a2c6/UJgjBjG0AlY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43779.89585648148</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
+        <v>43740.35418981482</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Вы xодили за мoлоком и за ягодами с таким бидoном ?</t>
+        </is>
+      </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Я думал я один такой</t>
+          <t>И за квасом)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>lL9R2Qolbds.jpg</t>
+          <t>N35fKMifZGQ.jpg</t>
         </is>
       </c>
       <c r="H27">
-        <f>HYPERLINK("https://sun9-26.userapi.com/c854528/v854528153/15c816/lL9R2Qolbds.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-6.userapi.com/c635105/v635105813/30cc5/N35fKMifZGQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43779.60417824074</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
+        <v>43740.31251157408</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Хороший был чай</t>
+        </is>
+      </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>вода захлебнулась в раковине</t>
+          <t>Скажу я вам, весьма дефецитный товар того времени☝😉</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SsJCjSvpywk.jpg</t>
+          <t>L4wgJc_gLEc.jpg</t>
         </is>
       </c>
       <c r="H28">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c857420/v857420632/df735/SsJCjSvpywk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-28.userapi.com/c635105/v635105120/35bf0/L4wgJc_gLEc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43779.56251157408</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
+        <v>43740.27084490741</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Доброе утро! Добрый кадр из СССР</t>
+        </is>
+      </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Я про шмот подумал</t>
+          <t>И берег чистый. Без пластиковых пакетов, бутылок и прочей гадости.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>nN-pRkeXwLU.jpg</t>
+          <t>Mru7TJamrXo.jpg</t>
         </is>
       </c>
       <c r="H29">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c856136/v856136632/15360a/nN-pRkeXwLU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-48.userapi.com/c635105/v635105032/3a175/Mru7TJamrXo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43779.31251157408</v>
+        <v>43740.22222222222</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Это уже какая-то ловушка джокера получается</t>
+          <t>От газ 21 фары решотка и капот.Таких машин в СССР не выпускали,но переделка очень красива,и в инженерном плане,усилен кузов,очень грамотно сделана!!!</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>mEywkdvdv3o.jpg</t>
+          <t>GHbGfWkr1Oo.jpg</t>
         </is>
       </c>
       <c r="H30">
-        <f>HYPERLINK("https://sun9-33.userapi.com/c858036/v858036070/d3d0a/mEywkdvdv3o.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c635105/v635105395/62e91/GHbGfWkr1Oo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43779.29171296296</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
+        <v>43739.85420138889</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Помните ее вкyс?</t>
+        </is>
+      </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Бллятьь какая же жиза 🤣🤣🤣</t>
+          <t>А вкуснотища то какая!!!!!</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9GCRCk4YuoY.jpg</t>
+          <t>OIBE7hfVBb8.jpg</t>
         </is>
       </c>
       <c r="H31">
-        <f>HYPERLINK("https://sun9-48.userapi.com/c857120/v857120229/3e28d/9GCRCk4YuoY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-3.userapi.com/c635105/v635105736/2749e/OIBE7hfVBb8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43779.22916666666</v>
+        <v>43739.81253472222</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>У египтян были свои мемы</t>
+          <t>Это пост в поддержу путинского правительства? только вот в СССР труд награждался страной ,в России одни копейки и никакого будущего в стране</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>l4hVkEzm9YY.jpg</t>
+          <t>L6efk-e8jSU.jpg</t>
         </is>
       </c>
       <c r="H32">
-        <f>HYPERLINK("https://sun9-65.userapi.com/c858532/v858532070/3e71a/l4hVkEzm9YY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-68.userapi.com/c635105/v635105457/342a6/L6efk-e8jSU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43782.94444444445</v>
+        <v>43739.77086805556</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>мона меньше рекламы?
-а то бесят уже эти мемчики со словами из названия песни</t>
+          <t>Наше Крутое Детство было ))👍👍👍👍</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>UjeD_oXcCs8.jpg</t>
+          <t>6DNZjy6JbC4.jpg</t>
         </is>
       </c>
       <c r="H33">
-        <f>HYPERLINK("https://sun9-49.userapi.com/c855624/v855624563/15ff28/UjeD_oXcCs8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c635105/v635105642/2d9a7/6DNZjy6JbC4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>43782.86805555555</v>
+        <v>43739.74533564815</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Почему никто не говорит об этой богине? Нани - одна из самых крутых телочек Диснея, которая вместо того, чтобы убиваться из-за тупых мужиков, жила своей жизнью, работала как лошадь, и самостоятельно содержала себя, младшую сестренку Лило и её инопланетную зверушку. Нани умная, будь как Нани</t>
+          <t>Заброшенный велосипедный завод в Пензе.</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10 Элвисов Пресли из 10</t>
+          <t>Какие красивые помещения. В СССР и к труду относились, как к искуству.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>712</v>
+        <v>108</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>O4YCLypbFWY.jpg</t>
+          <t>CkUps8pkIk8.jpg</t>
         </is>
       </c>
       <c r="H34">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c853528/v853528638/167ab9/O4YCLypbFWY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c855124/v855124419/106710/CkUps8pkIk8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43782.8125</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
+        <v>43739.44444444445</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Сила и мощь советского автопpома</t>
+        </is>
+      </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Хватит шутить про секс!!
-У многих и 15 секунд нет</t>
+          <t>Еще не скоро создадим что то подобное, если вообще создадим...</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9ca_PY6656M.jpg</t>
+          <t>22dqhopGjaM.jpg</t>
         </is>
       </c>
       <c r="H35">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c854124/v854124782/15f55c/9ca_PY6656M.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-50.userapi.com/c635105/v635105571/33396/22dqhopGjaM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43782.74305555555</v>
+        <v>43739.35420138889</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Когда приползла домой с универа, сняла один носок и сидишь так несколько часов, пытаясь понять, а нужно ли тебе это образование</t>
+          <t>Советский плакат</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Такие мысли обычно перед учебой и работой, когда будильник звонит, и ты пытаешься осознать, так ли нужна тебе эта жизнь и не проще ли стать бомжом</t>
+          <t>Кузмич ты ли это)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>qdob60v3UDo.jpg</t>
+          <t>m0HDzxuV8sA.jpg</t>
         </is>
       </c>
       <c r="H36">
-        <f>HYPERLINK("https://sun9-31.userapi.com/c857020/v857020325/470c0/qdob60v3UDo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-1.userapi.com/c635105/v635105007/52d3f/m0HDzxuV8sA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>43782.66681712963</v>
-      </c>
-      <c r="B37" t="inlineStr"/>
+        <v>43739.27083333334</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Эх, время..</t>
+        </is>
+      </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Сын: пап ты дебил?</t>
+          <t>Что вздыхать сами виноваты</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>804</v>
+        <v>22</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>_XqtpNR0vHg.jpg</t>
+          <t>8TbBTGuyGok.jpg</t>
         </is>
       </c>
       <c r="H37">
-        <f>HYPERLINK("https://sun9-64.userapi.com/c854528/v854528608/16b1fd/_XqtpNR0vHg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-50.userapi.com/c635105/v635105884/2846a/8TbBTGuyGok.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43782.54180555556</v>
+        <v>43740.91951388889</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Мама: сейчас все ваши красавицы на одно лицо. Вот раньше - другое дело, все разные, индивидуальные, с изюминкой
-Красавицы раньше:</t>
+          <t>Лечение или пытка</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Меня больше поражают их прически. Это ж надо было в 16 выглядеть на 40...</t>
+          <t>Лечение и ещё какое,, до сих пор лечимся при надобности</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1988</v>
+        <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3kn2yXOjn9c.jpg</t>
+          <t>fmCulfWtzaQ.jpg</t>
         </is>
       </c>
       <c r="H38">
-        <f>HYPERLINK("https://sun9-49.userapi.com/c858324/v858324174/e5ad3/3kn2yXOjn9c.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-18.userapi.com/c635107/v635107648/1c51c/fmCulfWtzaQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43782.38888888889</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
+        <v>43740.7112037037</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Это мечта для любителей анатомии</t>
+        </is>
+      </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Хоть ты и не богатая как Кайли, но твой Трэвис ещё пока с тобой, уважение мое твоему парню</t>
+          <t>Астрономии 😬</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>683</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ea_2zS16UPo.jpg</t>
+          <t>rM3sFxCQzhg.jpg</t>
         </is>
       </c>
       <c r="H39">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c856132/v856132134/1555a9/Ea_2zS16UPo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c635107/v635107306/24bd6/rM3sFxCQzhg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43782.33340277777</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
+        <v>43739.5029050926</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Зачетная вещица</t>
+        </is>
+      </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Зато есть чем перекусить на перемене</t>
+          <t>Наборчик юного автомеханика ...😜😃👍🏻</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1884</v>
+        <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>SOL7QrwAgFk.jpg</t>
+          <t>Y29zAtF4Ta4.jpg</t>
         </is>
       </c>
       <c r="H40">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c856132/v856132134/1554e1/SOL7QrwAgFk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c635107/v635107457/18654/Y29zAtF4Ta4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43782.27083333334</v>
+        <v>43739.29446759259</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Всегда, когда мне из-за чего-то становится неловко, я просто вспоминаю эту женщину, которая выложила фото с бывшим участником группы One Direction Найлом Хораном и сделала опрос "Должны ли мы встречаться?" и сам Найл Хоран проголосовал за "Нет"</t>
+          <t>Рабочие будни советской крановщицы</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Эта женщина:</t>
+          <t>В баночку и на голову тому кто обматерил!</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3289</v>
+        <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>lN_P38Q0LA4.jpg</t>
+          <t>kxIIPiHHdug.jpg</t>
         </is>
       </c>
       <c r="H41">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c856132/v856132362/15a3e3/lN_P38Q0LA4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-39.userapi.com/c635107/v635107246/1b525/kxIIPiHHdug.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43781.93751157408</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
+        <v>43740.3615625</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Помните такие кружки? Наверняка почти у каждого они были, а может быть и до сих пор сохранились?</t>
+        </is>
+      </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>это не мем это моя жызнь девачьки</t>
+          <t>Вроде в таких еще горчицу продавали</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1635</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>GemqF_KpqoU.jpg</t>
+          <t>o_I_sIvvBbg.jpg</t>
         </is>
       </c>
       <c r="H42">
-        <f>HYPERLINK("https://sun9-44.userapi.com/c853628/v853628049/155b37/GemqF_KpqoU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c855228/v855228670/10d082/o_I_sIvvBbg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43781.91672453703</v>
+        <v>43739.86180555556</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Я / также я:</t>
+          <t>Каждому своё, 1972 год.
+©Было время: СССР</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>*через минуту после того как отказала
-без меня им наверное весело...
-сука, так и знала, нужно было соглашаться</t>
+          <t>Вот тогда и был Коммунизм,мы просто этого не понимали(((</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1238</v>
+        <v>7</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0JGikKoxtaQ.jpg</t>
+          <t>GXKOYP9Q82c.jpg</t>
         </is>
       </c>
       <c r="H43">
-        <f>HYPERLINK("https://sun9-27.userapi.com/c855616/v855616508/166769/0JGikKoxtaQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-45.userapi.com/c855120/v855120972/1026f6/GXKOYP9Q82c.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43781.88888888889</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Учитель: не списывайте и не копируйте работы друг у друга
-Задние парты:</t>
-        </is>
-      </c>
+        <v>43740.95834490741</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Я на задней парте, когда все пытались списать у умных, а я с интернета:</t>
+          <t>Пипец его заводить делов было. Не то что минск. Тот то с полпинка заводится.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cz6L0a-y5Fc.jpg</t>
+          <t>uzr7kQoS9R4.jpg</t>
         </is>
       </c>
       <c r="H44">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c855616/v855616508/16671c/cz6L0a-y5Fc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-13.userapi.com/c850520/v850520768/1cc649/uzr7kQoS9R4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43781.84722222222</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
+        <v>43740.79172453703</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Красавицы в Москве</t>
+        </is>
+      </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Пёсик:
-/ооо, уже сотка, я уже могу просить лойс на аву/</t>
+          <t>Красавицы за доллары .</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>YNQQXVmrKPo.jpg</t>
+          <t>dLq4dnau9GI.jpg</t>
         </is>
       </c>
       <c r="H45">
-        <f>HYPERLINK("https://sun9-18.userapi.com/c857432/v857432049/d45c6/YNQQXVmrKPo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-68.userapi.com/c855524/v855524187/108ac0/dLq4dnau9GI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43781.81253472222</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
+        <v>43740.75006944445</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Сохранился вот такой диван.
+Подлокотники откидываются</t>
+        </is>
+      </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>И фото вашего класса выглядит как-то так</t>
+          <t>Вспомнился фильм Место встречи изменить нельзя. Там тоже такой диван. И у Шарапова, и у Груздевой.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>629</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PG_zbFQZW-E.jpg</t>
+          <t>0wY1p0lz-kM.jpg</t>
         </is>
       </c>
       <c r="H46">
-        <f>HYPERLINK("https://sun9-43.userapi.com/c855720/v855720049/16773a/PG_zbFQZW-E.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-29.userapi.com/c851436/v851436547/1d6984/0wY1p0lz-kM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43781.78472222222</v>
-      </c>
-      <c r="B47" t="inlineStr"/>
+        <v>43740.70840277777</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Крепкая школьная форма</t>
+        </is>
+      </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Согласитесь, что с рекламой мем становится менее смешным</t>
+          <t>Неубиваемая! Когда из неё вырастали - делали жилетки-безрукавки, шорты.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>nApXcd5ycf4.jpg</t>
+          <t>zJ6OpQosfgk.jpg</t>
         </is>
       </c>
       <c r="H47">
-        <f>HYPERLINK("https://sun9-16.userapi.com/c858520/v858520049/4484d/nApXcd5ycf4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-7.userapi.com/c857636/v857636761/8ca65/zJ6OpQosfgk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43781.72920138889</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
+        <v>43740.45842592593</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Вечная память</t>
+        </is>
+      </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Скорее всего это:</t>
+          <t>Живут и стоят на коленях перед еврейским богом в церквях</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>746</v>
+        <v>5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>HiXFC4q2YKI.jpg</t>
+          <t>ODrKupEVNF4.jpg</t>
         </is>
       </c>
       <c r="H48">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c854020/v854020338/1659bc/HiXFC4q2YKI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-46.userapi.com/c852320/v852320101/1e1e87/ODrKupEVNF4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43781.58349537037</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
+        <v>43740.29172453703</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Хороший фильм</t>
+        </is>
+      </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Мне потребовалось время, чтоб понять этот интеллектуальный отшив</t>
+          <t>Берегись автомобиля</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3441</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1nAELpQp1dA.jpg</t>
+          <t>82n3Nw1A6pw.jpg</t>
         </is>
       </c>
       <c r="H49">
-        <f>HYPERLINK("https://sun9-28.userapi.com/c857436/v857436669/e5c91/1nAELpQp1dA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-22.userapi.com/c855024/v855024810/107d1d/82n3Nw1A6pw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>43781.54181712963</v>
-      </c>
-      <c r="B50" t="inlineStr"/>
+        <v>43739.83337962963</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Легендарная троица</t>
+        </is>
+      </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Хуя, у нее за 6 лет один и тот же телефон?</t>
+          <t>Вот они! Герои на все времена, которые  играли за свою страну. А не те, что сейчас за бабло. Да игрой это назвать это сложно. Таких как эта тройка, уже небудет.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>683</v>
+        <v>12</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>pPCFFZF_vu4.jpg</t>
+          <t>_gwznQGDp-k.jpg</t>
         </is>
       </c>
       <c r="H50">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c855128/v855128470/158821/pPCFFZF_vu4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c543109/v543109379/441d9/_gwznQGDp-k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>43781.50017361111</v>
-      </c>
-      <c r="B51" t="inlineStr"/>
+        <v>43739.79171296296</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Пишем в комментарии</t>
+        </is>
+      </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>То чувство, когда даже у бабульки одежды больше чем у тебя. Тупо одна рванная футболка и парадные трусы</t>
+          <t>Я и по сей день так считаю....</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>469</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>mmZvA2JyeUE.jpg</t>
+          <t>FoY12K0NYI0.jpg</t>
         </is>
       </c>
       <c r="H51">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c858324/v858324174/e2b4f/mmZvA2JyeUE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-38.userapi.com/c543109/v543109066/4cbf7/FoY12K0NYI0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43781.44444444445</v>
+        <v>43739.70836805556</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Когда пытаешься точно рассчитать дозу максимально допустимого выноса мозга своего мужика, чтобы он повысил на тебя голос и можно было бы обидеться и спокойно пойти тусить с подругами</t>
+          <t>А ты ?</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>но ведь можно просто нормально с ним поговорить и тебя отпустят🤔</t>
+          <t>1965г.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6oru5upIgs4.jpg</t>
+          <t>zq9WDIurHEQ.jpg</t>
         </is>
       </c>
       <c r="H52">
-        <f>HYPERLINK("https://sun9-6.userapi.com/c857216/v857216875/420bf/6oru5upIgs4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c543109/v543109248/4b8f0/zq9WDIurHEQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>43781.38888888889</v>
+        <v>43739.66671296296</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Я: впервые за 4 года сходила в зал 
-Мой инстаграм:</t>
+          <t>Чем дальше тем хуже</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>*я, выпившая на ночь кефир вместо привычных 25 пельмешек:</t>
+          <t>Каждый может нарисовать свой график - кому какой нравится...</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1466</v>
+        <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2AGvRePEHkY.jpg</t>
+          <t>iOxQGf2Q2Z0.jpg</t>
         </is>
       </c>
       <c r="H53">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c855120/v855120875/1601a5/2AGvRePEHkY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-45.userapi.com/c543109/v543109978/3d1ae/iOxQGf2Q2Z0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43781.3334375</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
+        <v>43739.45837962963</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ЛиАЗ</t>
+        </is>
+      </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>А ибаца они тоже на улице будут что-ли?</t>
+          <t>Хороший был автобус, плавный, уютный, тёплый! Обожал его, хоть и сограждане в совке называли его - скотовоз! Но, его брынчание, сиденья перпендикулярно водительской кабины, задняя площадка все вызывает лишь положительные эмоции) 👍🏻😊</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>637</v>
+        <v>6</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>kvQG1XvLl68.jpg</t>
+          <t>ym7uBChdilo.jpg</t>
         </is>
       </c>
       <c r="H54">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c853520/v853520875/15d631/kvQG1XvLl68.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-5.userapi.com/c543109/v543109778/4e370/ym7uBChdilo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>43780.83434027778</v>
-      </c>
-      <c r="B55" t="inlineStr"/>
+        <v>43739.41673611111</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Эпоха СССР</t>
+        </is>
+      </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Отказать после такого - не иметь сердца
-upd смотри закреп</t>
+          <t>Это точно! Самоё лучшее</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4717</v>
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ImnLUm-LSUU.jpg</t>
+          <t>_gTruRftUpU.jpg</t>
         </is>
       </c>
       <c r="H55">
-        <f>HYPERLINK("https://sun9-57.userapi.com/c855232/v855232104/158432/ImnLUm-LSUU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c543109/v543109589/47f76/_gTruRftUpU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43780.79181712963</v>
+        <v>43739.29171296296</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Adobe: *создает программу, позволяющую распознать фотошоп на фотографии*
-Инстаграм в ближайшем будущем:</t>
+          <t>"В бой идут одни старики"</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>я до появления программы/ после</t>
+          <t>От винта!))</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1812</v>
+        <v>5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>oL665EnPREU.jpg</t>
+          <t>9QAJob1pqe8.jpg</t>
         </is>
       </c>
       <c r="H56">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c855724/v855724386/15ff4e/oL665EnPREU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-38.userapi.com/c543109/v543109774/655df/9QAJob1pqe8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43780.70844907407</v>
-      </c>
-      <c r="B57" t="inlineStr"/>
+        <v>43739.20833333334</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Любимые игрушки из детства</t>
+        </is>
+      </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>я один после покупки еще долго их берегу под комодом? потому что мама не разрешает выходить в новом без повода
-злюся</t>
+          <t>Наган мой любимый ствол детства, сколько врагов из него перестрелял))</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>gLFexT2d5HU.jpg</t>
+          <t>bZOlbvNmdlQ.jpg</t>
         </is>
       </c>
       <c r="H57">
-        <f>HYPERLINK("https://sun9-60.userapi.com/c857416/v857416368/e2d22/gLFexT2d5HU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-30.userapi.com/c850636/v850636694/1bf53e/bZOlbvNmdlQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43780.5834837963</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
+        <v>43740.94444444445</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Так хочется домой мне снова возвратиться, туда где мы с тобой страной могли гордиться !
+#СССР</t>
+        </is>
+      </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Какой нахуй Дима, вообще-то Виктор, заебал 97 алмазов ему надо</t>
+          <t>Великая была держава, великий был народ, потому что правители были патриотами своей страны. И не было у их детей собственности и счетов валютных заграницей, не было у них второго гражданства.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>NqEffyuQDeo.jpg</t>
+          <t>KC8b5JbdzE0.jpg</t>
         </is>
       </c>
       <c r="H58">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c855528/v855528368/15b83a/NqEffyuQDeo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c854520/v854520581/10fb71/KC8b5JbdzE0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43780.54209490741</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
+        <v>43740.91668981482</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>#СССР</t>
+        </is>
+      </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>пока читала, все время смотрела на это слово</t>
+          <t>У одного Зюганова словянский тип лица !!!!</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>vejEUWmPM-M.jpg</t>
+          <t>Jp7ENygqMQo.jpg</t>
         </is>
       </c>
       <c r="H59">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c858320/v858320381/e1bd4/vejEUWmPM-M.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-49.userapi.com/c853428/v853428204/10bb7f/Jp7ENygqMQo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43780.38888888889</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
+        <v>43740.88888888889</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Были такие?) А запах помните?!
+#СССР</t>
+        </is>
+      </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Простите она тупая? Или она тупая?</t>
+          <t>Хуже.. помню вкус))</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5183</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PbXPpJXDtB0.jpg</t>
+          <t>mTemwxhABdM.jpg</t>
         </is>
       </c>
       <c r="H60">
-        <f>HYPERLINK("https://sun9-41.userapi.com/c857528/v857528640/dd6db/PbXPpJXDtB0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c857420/v857420204/8ec5e/mTemwxhABdM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43780.33342592593</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
+        <v>43740.86111111111</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Скульптура «Родина-мать зовёт!», образ Родины, зовущей своих сыновей на битву с врагом. КАКАЯ МОЩЬ !!!
+#СССР</t>
+        </is>
+      </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>351</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Сначала каверкаешь слова, потом не помнишь как они пишутся:</t>
+          <t>Она звала на бой с внешними врагами, а у нас враг внутри</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3537</v>
+        <v>6</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>kIzg7ODf0CI.jpg</t>
+          <t>EMBGDc7fE1w.jpg</t>
         </is>
       </c>
       <c r="H61">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c854328/v854328772/15656e/kIzg7ODf0CI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c857532/v857532984/8bb99/EMBGDc7fE1w.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43780.27084490741</v>
-      </c>
-      <c r="B62" t="inlineStr"/>
+        <v>43740.75003472222</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>А Вы отдыхали в пионерском лагере? Какие воспоминания у Вас сохранились?
+#СССР</t>
+        </is>
+      </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>о детка ты еще не знаешь что такое сидя на диване надеть один носок и держа в руке второй сидеть и пялиться в пространство рассуждая об извечных вопросах сущности бытия нашего тленного</t>
+          <t>В нашем районе в радиусе 15-20км.
+Закрыли 5-7детских лагерей (
+В детстве прекрасно проводили в них летний отдых ! )
+Кто помнит зарницу,  пионерский кастер перед отъездом ставь лайк👍</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1277</v>
+        <v>4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>6Uro_s9pu3w.jpg</t>
+          <t>kCYxhSnJT6k.jpg</t>
         </is>
       </c>
       <c r="H62">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c857528/v857528315/e1218/6Uro_s9pu3w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c854128/v854128984/10d5f6/kCYxhSnJT6k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43779.95839120371</v>
+        <v>43740.61111111111</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Люди в общественноv транспорте: *улыбаются, уступают мне место и спрашивают, мальчик у меня будет или девочка* 
-Я, только что сожравшая два больших баскета в кфс:</t>
+          <t>Они сражались за Родину. Вечная память солдатам Великой Отечественной Войны!
+#СССР</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Люди , которым и без баскета уступают:</t>
+          <t>Никто не забыт, ничто не забыто !</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>422</v>
+        <v>4</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>_qlO9V6rtTI.jpg</t>
+          <t>XITCdY5dNJI.jpg</t>
         </is>
       </c>
       <c r="H63">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c855036/v855036408/15fe81/_qlO9V6rtTI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c855724/v855724984/10eeb6/XITCdY5dNJI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43779.90752314815</v>
-      </c>
-      <c r="B64" t="inlineStr"/>
+        <v>43740.58335648148</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Наши Герои !!! 👏🏻👏🏻👏🏻
+#СССР</t>
+        </is>
+      </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Когда посмотрел еще одну серию "план Б":</t>
+          <t>А какие все красивые 👍❤👏🌺</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>hokgyzAaVHI.jpg</t>
+          <t>f3I1S1XyDJk.jpg</t>
         </is>
       </c>
       <c r="H64">
-        <f>HYPERLINK("https://sun9-43.userapi.com/c854420/v854420194/15ac70/hokgyzAaVHI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-12.userapi.com/c854020/v854020984/12bd30/f3I1S1XyDJk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43779.88888888889</v>
-      </c>
-      <c r="B65" t="inlineStr"/>
+        <v>43740.5000462963</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Советская детская библиотека, 1974г.
+#СССР</t>
+        </is>
+      </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>в таких моментах не стоит ничего говорить а только бросить загадочный взгляд в мексиканской шляпе</t>
+          <t>В нашем доме на 1 этаже располагалась Детская библиотека. Моя первая книга,которую я взяла после записи, это " Золотой Ключик или приключения Буратино". Это было в далеком 1970 году,мне было 7 лет. После окончания 1 класса, мне подарили эту книгу,храню ее.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>847</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-AuQi-pUqRI.jpg</t>
+          <t>dcX9DeOYMuY.jpg</t>
         </is>
       </c>
       <c r="H65">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c855416/v855416299/15b0c7/-AuQi-pUqRI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-34.userapi.com/c857724/v857724984/914f4/dcX9DeOYMuY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43779.56253472222</v>
-      </c>
-      <c r="B66" t="inlineStr"/>
+        <v>43740.47222222222</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>А какой первый телевизор был у вас?
+У меня Горизонт 206.
+#СССР</t>
+        </is>
+      </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[club163696702|@] | О ком подумали современные девочки от 10 до 55 лет:</t>
+          <t>Жирно ты жизнь начал. Все с рекордов 312 чёрно-белых начинали в то время. Пассатижами программы переключали , так как очень туго вращался тумблер и насадки не выдерживали частых переключений между тремя программами.🤣</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>h0AXkzC93uk.jpg</t>
+          <t>xf1fh97xBx4.jpg</t>
         </is>
       </c>
       <c r="H66">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c856120/v856120747/155891/h0AXkzC93uk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-14.userapi.com/c855736/v855736984/10f63d/xf1fh97xBx4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43779.50011574074</v>
-      </c>
-      <c r="B67" t="inlineStr"/>
+        <v>43740.44444444445</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Вот из этих пацанов и вырастали мужиками, которых хрен чем сломишь!
+#СССР</t>
+        </is>
+      </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Я не злопамятная, но я всё помню...
-Я: поставила кому-то лайки на фотографии, а он мне нет
-Также я: собирайтесь, лайки, мы уходим</t>
+          <t>Сломали же в итоге, 30 лет почти в оккупации живём</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>391</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>U43KM5P9G8w.jpg</t>
+          <t>xLKOVlHP348.jpg</t>
         </is>
       </c>
       <c r="H67">
-        <f>HYPERLINK("https://sun9-63.userapi.com/c857424/v857424870/e1207/U43KM5P9G8w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c856024/v856024984/10f61a/xLKOVlHP348.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43779.44444444445</v>
+        <v>43740.38888888889</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Когда специально встала раньше него, помыла голову, уложила волосы, накрасилась и навела полный шик и лоск, и теперь легла перед ним красивенькая и ждешь, когда он проснётся и скажет "вау, ты у меня такая красивая, когда просыпаешься"</t>
+          <t>Да было время, весёлое, студенческое ....
+#СССР</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Я бы разбудила, хули он спит, когда я красото4ка</t>
+          <t>Так по сути эксплутировали. И это не нытье, а факт. Вместо того чтобы учить,  использовали как дешевую раб. силу.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>97dJ-VFd9JE.jpg</t>
+          <t>Z7P7Tb8gn84.jpg</t>
         </is>
       </c>
       <c r="H68">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c857424/v857424870/e11b9/97dJ-VFd9JE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-49.userapi.com/c851524/v851524984/1d14b8/Z7P7Tb8gn84.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43779.3334375</v>
+        <v>43740.36111111111</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Кто-то: песни Билли Айлиш такие грустные 
-Я: нет 
-Кто-то: у тебя просто не было по-настоящему депрессивных моментов в жизни, когда казалось, что выхода нет 
-Я:</t>
+          <t>Играли?
+#СССР</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>540</v>
+        <v>4</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>что вы знаете о грустном?
-когда снейп убил дамблдора из любви к нему, вот что по настоящему грустно</t>
+          <t>Играем!</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1783</v>
+        <v>4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-GcEPtuCmtE.jpg</t>
+          <t>DUNbMLZqKuQ.jpg</t>
         </is>
       </c>
       <c r="H69">
-        <f>HYPERLINK("https://sun9-54.userapi.com/c857736/v857736713/e3841/-GcEPtuCmtE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-52.userapi.com/c856124/v856124984/10fd5a/DUNbMLZqKuQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43782.71043981481</v>
-      </c>
-      <c r="B70" t="inlineStr"/>
+        <v>43740.33336805556</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ресторан "Седьмое небо"в 80-е годы.
+#СССР</t>
+        </is>
+      </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Если  я был  деректором 
-  мучилбы детей 😂</t>
+          <t>Скорее 60-е</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>iFzGjjJNZFA.jpg</t>
+          <t>DfwUjgEAwig.jpg</t>
         </is>
       </c>
       <c r="H70">
-        <f>HYPERLINK("https://sun9-12.userapi.com/c857536/v857536847/eb0ef/iFzGjjJNZFA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-72.userapi.com/c857628/v857628984/8e3e9/DfwUjgEAwig.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43781.56430555556</v>
-      </c>
-      <c r="B71" t="inlineStr"/>
+        <v>43740.02777777778</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Время - время..
+#СССР</t>
+        </is>
+      </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Эта херня стоит 3000000 милиона</t>
+          <t>Вот прям так и было кстати, мега лужа и плоты. Когда засыпали лет через 5, так жалко было, как будто и детство кончилось.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>iimvXTXsyiQ.jpg</t>
+          <t>S9YuiBqlRtE.jpg</t>
         </is>
       </c>
       <c r="H71">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c855336/v855336981/165117/iimvXTXsyiQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c852016/v852016984/1eb69e/S9YuiBqlRtE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43780.85486111111</v>
-      </c>
-      <c r="B72" t="inlineStr"/>
+        <v>43739.97222222222</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Кто узнал эти предметы? Помните для чего они?
+#СССР</t>
+        </is>
+      </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ага, когда это литра</t>
+          <t>Набор велосипедиста</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>h0HlkM-5PeA.jpg</t>
+          <t>SaCd0eQ3eg8.jpg</t>
         </is>
       </c>
       <c r="H72">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c857536/v857536003/e3df5/h0HlkM-5PeA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-32.userapi.com/c855016/v855016692/106d65/SaCd0eQ3eg8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43780.81515046296</v>
-      </c>
-      <c r="B73" t="inlineStr"/>
+        <v>43739.83335648148</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>#СССР</t>
+        </is>
+      </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ну не знаю. Наверно насиловать детей этой фигней</t>
+          <t>Не, ну, не то, чтобы совсем уж "не приходило"! А то кто-то и вправду подумает, что в СССР не было придурков. Были, конечно! Но остальным гражданам вполне себе хватало книг, газет-журналов, музыки, кружков, всевозможных увлечений, олимпиад, КВНов, соревнований, шарад, головоломок, кроссвордов, освоения музыкальных инструментов, посиделок на лавочках с гитарой и без,... работы, разумеется (безработицы-то не было от слова "вообще"!)... забот с младшими братьями и сёстрами, домашними питомцами, телевизора, сбора макулатуры на книги, и... снова чтения... провожаний девушек (не на "тачках", - пешком, по вечернему городу, иногда в другой его конец, иногда - под дождём, в снегопад), а девушки в СССР в абсолютном большинстве были действительно девушками, курящие встречались, но очень редко,... с татуировками? - кроме бывших зэчек, не видел ни одной! Потому и наркоманов, мягко скажем, не жаловали, а следовательно и выбор ребят: "колоться", "курить", "глотать" или покорять сердца местных красавиц, - был очевиден. Кроме того, с девушками надо было о чем-то разговаривать! Тогда ещё российская молодёжь неплохо изъяснялась на родном языке, интересовалась музыкой поэзией, знали много стихов, были любимые поэты, писатели, фильмы, песни... по цитатам из которых моментально опознавались "родственные души" - какие тут наркотики?!
+ Вообще на наркоманов тогда смотрели с точки зрения: "Жалко, конечно, но это надо ж быть таким кретином! И ЗАЧЕМ ему это?!.."... Просто вокруг было столько точек "приложения силы" в плане возможностей собственного развития, перспектив в познавательном, творческом и профессиональном плане, что нормальным людям тратить время на наркоту как-то было ни к чему...</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9DON744W9pY.jpg</t>
+          <t>rfm0LhsFn0o.jpg</t>
         </is>
       </c>
       <c r="H73">
-        <f>HYPERLINK("https://sun9-65.userapi.com/c857536/v857536003/e3dec/9DON744W9pY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c855324/v855324340/111222/rfm0LhsFn0o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43779.59236111111</v>
-      </c>
-      <c r="B74" t="inlineStr"/>
+        <v>43739.7500462963</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>А, как вы считаете, сегодня нам нужен Сталин?
+#СССР</t>
+        </is>
+      </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Всегда так делаю . Кто тоже так то лацк 😂</t>
+          <t>мозги нам нужны</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>E6YQxml5t5c.jpg</t>
+          <t>_ybrpMDvuRU.jpg</t>
         </is>
       </c>
       <c r="H74">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c858532/v858532101/3ec85/E6YQxml5t5c.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c853524/v853524340/10ee19/_ybrpMDvuRU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43779.55127314815</v>
-      </c>
-      <c r="B75" t="inlineStr"/>
+        <v>43739.72222222222</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Из жизни CCCP
+#СССР</t>
+        </is>
+      </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Лайкните аву плез</t>
+          <t>Где шашка на крыше??</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-IPA_33Q6K0.jpg</t>
+          <t>QQWPP0-22mY.jpg</t>
         </is>
       </c>
       <c r="H75">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c858532/v858532101/3ec7b/-IPA_33Q6K0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-46.userapi.com/c855528/v855528340/1057cb/QQWPP0-22mY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43782.87508101852</v>
-      </c>
-      <c r="B76" t="inlineStr"/>
+        <v>43739.66670138889</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Детской тарелочке 35 лет.
+Доброе утро!
+#СССР</t>
+        </is>
+      </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Когда не заплатили за шторы и учитель разозлился.</t>
+          <t>Я помню всегда велась на мамкины слова, съешь кашку (супчик) и увидишь, что на доношке, только моя была металлическая обливная, а но донышке киска с цветочком</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>j2f_1F6xwVM.jpg</t>
+          <t>2qqiKJwco7c.jpg</t>
         </is>
       </c>
       <c r="H76">
-        <f>HYPERLINK("https://sun9-37.userapi.com/c854220/v854220029/15d3fe/j2f_1F6xwVM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c855124/v855124340/112bdd/2qqiKJwco7c.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43782.7084375</v>
-      </c>
-      <c r="B77" t="inlineStr"/>
+        <v>43739.63888888889</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>#СССР</t>
+        </is>
+      </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Очень похожи. Незнала что в арктике есть зайцы</t>
+          <t>Хлопнуть.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>t6rJ13SaxYU.jpg</t>
+          <t>7B5kGUnMDG8.jpg</t>
         </is>
       </c>
       <c r="H77">
-        <f>HYPERLINK("https://sun9-3.userapi.com/c854220/v854220029/15d3e5/t6rJ13SaxYU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c855616/v855616340/10f459/7B5kGUnMDG8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43782.6250462963</v>
-      </c>
-      <c r="B78" t="inlineStr"/>
+        <v>43739.55555555555</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Железные игрушки СССР
+#СССР</t>
+        </is>
+      </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Я столько лет жила во лжи...</t>
+          <t>Почтовый фургон был типа таких! Не убиваемый</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>lhTs4H3pGgs.jpg</t>
+          <t>Sb3Xgzz8RgQ.jpg</t>
         </is>
       </c>
       <c r="H78">
-        <f>HYPERLINK("https://sun9-27.userapi.com/c855228/v855228571/15d1e1/lhTs4H3pGgs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-69.userapi.com/c858236/v858236340/963f4/Sb3Xgzz8RgQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43782.45837962963</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
+        <v>43739.52777777778</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ценим.. 😌
+#СССР</t>
+        </is>
+      </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Почему так легко?..</t>
+          <t>Они отдали жизнь за Родину, а в 1991-м году кучка подонков разрушили страну.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>uyZ6rMvgSgY.jpg</t>
+          <t>S7h-YljjOTM.jpg</t>
         </is>
       </c>
       <c r="H79">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c855228/v855228571/15d1d1/uyZ6rMvgSgY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-9.userapi.com/c853528/v853528340/10c3c6/S7h-YljjOTM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43782.3750462963</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
+        <v>43739.50008101852</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>После школы никогда сразу домой не шли.., в булочную или в классики играть.Особенно весной!
+#СССР</t>
+        </is>
+      </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Главное, что он всё равно бежит вперёд</t>
+          <t>Форма парадная...В будни фартуки были черные.... Мы с подружкой покупали мороженку (иногда беляши).Шли домой и лопали по пути...😇</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ULLlSdRX4i0.jpg</t>
+          <t>qyvpdNKlNak.jpg</t>
         </is>
       </c>
       <c r="H80">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c855228/v855228571/15d1c9/ULLlSdRX4i0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c854028/v854028340/1109df/qyvpdNKlNak.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43782.20833333334</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
+        <v>43739.47222222222</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>#СССР</t>
+        </is>
+      </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Непонел</t>
+          <t>"Дети, а где самые лучшие люди? " - "В Советском Союзе! " - "А где самые лучшие книги? " - "В Советском Союзе! " "А где самые красивые игрушки? " - "В Советском Союзе! " "Ваня, а почему ты плачешь? " - "Я хочу ЖИТЬ в Советском Союзе!!! "</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>hTHO5IQkTVc.jpg</t>
+          <t>5IkOETVcttA.jpg</t>
         </is>
       </c>
       <c r="H81">
-        <f>HYPERLINK("https://sun9-48.userapi.com/c855228/v855228571/15d1a5/hTHO5IQkTVc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-2.userapi.com/c853520/v853520340/10ac61/5IkOETVcttA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43781.95835648148</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
+        <v>43739.11111111111</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>#СССР</t>
+        </is>
+      </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Честно говоря, по моему скромному мнению и, не желая обидеть никого в комментах, чьё мнение отличается от моего, но все-же, рассматривая этот вопрос с другой точки зрения, в тоже время, не опротестовывая ничью позицию и, стараясь быть объективным, а также, принимая во внимание все без исключения аргументы, других участников обсуждения, искренне полагаю, что я целиком и полностью забыл наxер что хотел сказать.</t>
+          <t>Ноги раздвигать😄</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>JaIFgvPkb3E.jpg</t>
+          <t>20o6-7tGBQU.jpg</t>
         </is>
       </c>
       <c r="H82">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c855228/v855228571/15d190/JaIFgvPkb3E.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-30.userapi.com/c856136/v856136340/10c814/20o6-7tGBQU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43781.56034722222</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
+        <v>43739.00001157408</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Pазрешите познакомиться? 😊
+#СССР</t>
+        </is>
+      </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Да что вы знаете о достижениях в жизни..... я нашла гуся без раскрашенного клюва</t>
+          <t>За такими в противогазе побежал бы</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>C5BC1GU3F7w.jpg</t>
+          <t>gcgygm7tBLw.jpg</t>
         </is>
       </c>
       <c r="H83">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c855228/v855228571/15d16d/C5BC1GU3F7w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-68.userapi.com/c852132/v852132479/1e53c2/gcgygm7tBLw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43781.45839120371</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
+        <v>43739.88541666666</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Роскошный мраморный холл с лифтами, барельефами и специально обученной консьержкой лишний раз доказывает, что в Советском Союзе все были равны, но некоторые все же равнее.</t>
+        </is>
+      </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1 мың теңге
-И все казахи в комментах:</t>
+          <t>Только ровнее были в основном те,кто это заслужил,а не больше сп...дил.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>oGCKux28oMc.jpg</t>
+          <t>ojGKVDs13U0.jpg</t>
         </is>
       </c>
       <c r="H84">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c854228/v854228020/1620f1/oGCKux28oMc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c851428/v851428085/1ca880/ojGKVDs13U0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43781.29168981482</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
+        <v>43740.95834490741</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Портрет Сталина в Осетии.</t>
+        </is>
+      </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Расстрелять айсберг в дребезги. Тут оружие надо побольше</t>
+          <t>Благодарный народ живёт в Осетии!</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>wi3QE5uwOyg.jpg</t>
+          <t>xDSUjEQCEI8.jpg</t>
         </is>
       </c>
       <c r="H85">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c854228/v854228020/1620cc/wi3QE5uwOyg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c850720/v850720010/1d761b/xDSUjEQCEI8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43780.62503472222</v>
+        <v>43740.87502314815</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Вот это морда. Как из фильма ужасов</t>
+          <t>Евгений Леонов</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>8Vx46_W60gw.jpg</t>
+          <t>7TLcJYFgqdQ.jpg</t>
         </is>
       </c>
       <c r="H86">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c858524/v858524637/3de5d/8Vx46_W60gw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-7.userapi.com/c850720/v850720010/1d75f6/7TLcJYFgqdQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43780.54168981482</v>
+        <v>43740.79170138889</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Однако лучше, если бы ты списывал</t>
+          <t>Сейчас такое время, когда за правду можно получить срок. Все ее знают, но писать об этом нельзя! Зачем провокационные вопросы публикуете?</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>8wHh6ip0vzQ.jpg</t>
+          <t>ijCW0w9o8Lw.jpg</t>
         </is>
       </c>
       <c r="H87">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c858524/v858524637/3de36/8wHh6ip0vzQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c850720/v850720010/1d75dd/ijCW0w9o8Lw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43780.45836805556</v>
+        <v>43740.70836805556</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Настоящий русский берёт пакет из дома!</t>
+          <t>Да потому, что лес не продавали в Китай, а остатки не поджигали, чтобы следы прикрыть...</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>8UFi9Cv4Vrg.jpg</t>
+          <t>JkjehvssYso.jpg</t>
         </is>
       </c>
       <c r="H88">
-        <f>HYPERLINK("https://sun9-66.userapi.com/c858524/v858524637/3de2d/8UFi9Cv4Vrg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c850720/v850720010/1d75c5/JkjehvssYso.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43779.95835648148</v>
+        <v>43740.6250462963</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Военком всегда все организует в лучшем качестве</t>
+          <t>В пионеры клятву приносили - это помню, а вот про клятву октябрёнка нет.... Правда это давно уже было!</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>g44uYSTUSKM.jpg</t>
+          <t>X6Fotf8j9dc.jpg</t>
         </is>
       </c>
       <c r="H89">
-        <f>HYPERLINK("https://sun9-48.userapi.com/c858120/v858120536/dfce8/g44uYSTUSKM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-12.userapi.com/c850720/v850720010/1d75b6/X6Fotf8j9dc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43779.87503472222</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
+        <v>43740.54172453703</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Будулай.</t>
+        </is>
+      </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Мне всегда животных, больше чем людей жалко</t>
+          <t>Нацист румынский.....а какие роли играл</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>8jkmR889mCI.jpg</t>
+          <t>3dvwhAyQsic.jpg</t>
         </is>
       </c>
       <c r="H90">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c858120/v858120536/dfcef/8jkmR889mCI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-57.userapi.com/c850720/v850720010/1d7593/3dvwhAyQsic.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43779.62513888889</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
+        <v>43740.45837962963</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Каждый укрывался таким одеялом!)</t>
+        </is>
+      </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Я тоже не любила ходить в детский сад</t>
+          <t>Что значит укрывался!?? До сих пор используется!! )))</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ZjG42pSCL_A.jpg</t>
+          <t>N7Ro-rD-iBM.jpg</t>
         </is>
       </c>
       <c r="H91">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c858120/v858120536/dfcc4/ZjG42pSCL_A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-23.userapi.com/c850720/v850720010/1d7582/N7Ro-rD-iBM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43779.58344907407</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
+        <v>43740.41672453703</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Памятник танкистам в Твери.</t>
+        </is>
+      </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Про сопли вообще жиза , всегда так делаю</t>
+          <t>Низкий поклон нашим  предкам, благодаря которым мы живём.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6rxPhqJwrAo.jpg</t>
+          <t>LmgiNTiYPG4.jpg</t>
         </is>
       </c>
       <c r="H92">
-        <f>HYPERLINK("https://sun9-16.userapi.com/c855724/v855724095/15bd37/6rxPhqJwrAo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c850720/v850720137/1d69ba/LmgiNTiYPG4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43779.20833333334</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
+        <v>43740.33336805556</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Советская живопись.</t>
+        </is>
+      </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Да интернет и игры это причина падения рождаемости но потому что игровая реальность лучше чем этот мир я лучше поиграю чем выйду в эту серую удицу</t>
+          <t>Не надо было ремней безопасности !😁</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>KVgdxASbmO8.jpg</t>
+          <t>8t0y4KDqA94.jpg</t>
         </is>
       </c>
       <c r="H93">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c855632/v855632004/15b42c/KVgdxASbmO8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-52.userapi.com/c858132/v858132502/8bd82/8t0y4KDqA94.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43782.70844907407</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
+        <v>43740.29168981482</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Предложил участник группы.</t>
+        </is>
+      </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Водители, когда ты переходишь дорогу</t>
+          <t>Как все знакомо...</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>IBURYKhfFI4.jpg</t>
+          <t>WHlGWGk8mJQ.jpg</t>
         </is>
       </c>
       <c r="H94">
-        <f>HYPERLINK("https://sun9-64.userapi.com/c855336/v855336073/16572e/IBURYKhfFI4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c857524/v857524443/89d5b/WHlGWGk8mJQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43782.58344907407</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
+        <v>43740.20833333334</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Памятник Михаилу Пуговкинy в Ялте</t>
+        </is>
+      </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>И тут она пёрнула</t>
+          <t>достойнейший человек,и памятник прелестен!!</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>BGmQftBJQb8.jpg</t>
+          <t>yn00Eo2Ofwg.jpg</t>
         </is>
       </c>
       <c r="H95">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c855336/v855336073/16566d/BGmQftBJQb8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-23.userapi.com/c851220/v851220397/1e2a41/yn00Eo2Ofwg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43782.54178240741</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
+        <v>43739.95834490741</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Осенняя пора..., кто помнит свои резиновые сапожки?</t>
+        </is>
+      </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>А мне и старый зашел</t>
+          <t>Ну вы блин даёте я и не забывал досих пор в углу стоят!☝😂</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>pog_LckBRgk.jpg</t>
+          <t>ENaPjn8VIeY.jpg</t>
         </is>
       </c>
       <c r="H96">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c855336/v855336425/162bb1/pog_LckBRgk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c851220/v851220708/1e5bb2/ENaPjn8VIeY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43781.34166666667</v>
+        <v>43739.8750462963</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5 пар нах*й</t>
+          <t>Там фотография, нашего детства.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>oIVeCWdhTCM.jpg</t>
+          <t>5aQDB-Km8tI.jpg</t>
         </is>
       </c>
       <c r="H97">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c855324/v855324328/15f15b/oIVeCWdhTCM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-22.userapi.com/c851220/v851220708/1e5b97/5aQDB-Km8tI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43780.91674768519</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
+        <v>43739.83340277777</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ретро.</t>
+        </is>
+      </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Танкисты, вы тут?</t>
+          <t>У родителей было три чемодана. Они уже никуда не ездили, в чемоданах хранили бельё. А фотокамеры в кожаных футлярах до сих пор в рабочем состоянии. "Зоркий! достался в наследство от отца, а ФЭД дочери друзья подарили. Но снимаю на японские цифровые камеры</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-MZWs-TlCqE.jpg</t>
+          <t>pER1xzOTJ60.jpg</t>
         </is>
       </c>
       <c r="H98">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c858432/v858432605/ddb6d/-MZWs-TlCqE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-32.userapi.com/c851220/v851220708/1e5b70/pER1xzOTJ60.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>43780.79180555556</v>
+        <v>43739.79175925926</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Честно говоря, по моему скромному мнению и, не желая обидеть никого в комментах, чьё мнение отличается от моего, но все-же, рассматривая этот вопрос с другой точки зрения, в тоже время, не опротестовывая ничью позицию и, стараясь быть объективным, а также, принимая во внимание все без исключения аргументы, других участников обсуждения, искренне полагаю, что я целиком и полностью забыл наxер что хотел сказать.</t>
+          <t>Враг не предает. Враг, он сука враг и есть.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>LUw4r3dT7TI.jpg</t>
+          <t>JxKT4gdEeVE.jpg</t>
         </is>
       </c>
       <c r="H99">
-        <f>HYPERLINK("https://sun9-16.userapi.com/c857428/v857428291/e9832/LUw4r3dT7TI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-24.userapi.com/c851220/v851220708/1e5b59/JxKT4gdEeVE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>43780.58350694444</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
+        <v>43739.70836805556</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Молодежь 80х</t>
+        </is>
+      </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
@@ -3326,5016 +3647,2882 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>А почему у меня друзья чёрные и снимаются в порно?</t>
+          <t>Двое норки с пьяных мужиков сбили, остальные в своих "петушках".</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>M8fo016BEOI.jpg</t>
+          <t>IcZfBVFOp0g.jpg</t>
         </is>
       </c>
       <c r="H100">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c854420/v854420434/158e49/M8fo016BEOI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-24.userapi.com/c852236/v852236967/1e17ab/IcZfBVFOp0g.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>43779.45277777778</v>
+        <v>43739.54170138889</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Используйте этот комментарий как дизлайк</t>
+          <t>Писдешь.. Те кто родился в 80-м, 81-м успели побывать пионерами</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3cjD23Tymdo.jpg</t>
+          <t>I62AiCKVNcY.jpg</t>
         </is>
       </c>
       <c r="H101">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c853628/v853628848/14d6b8/3cjD23Tymdo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c857424/v857424527/8e31d/I62AiCKVNcY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>43779.41111111111</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
+        <v>43739.45836805556</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Натюрморт советское детство.</t>
+        </is>
+      </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>мне льва жалко</t>
+          <t>"Кубик" на этом натюрморт немного лишний!!!!! Когда журнал "Мурзилка" был популярен, кубика у деток в большинстве не было! 🤔🤔🤔🤔🤔🤔🤔🤔🤔</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>slyTTgvMbAY.jpg</t>
+          <t>PR7xjXcN2Fw.jpg</t>
         </is>
       </c>
       <c r="H102">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c853628/v853628848/14d6b0/slyTTgvMbAY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-3.userapi.com/c857424/v857424527/8e30b/PR7xjXcN2Fw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>43779.24657407407</v>
+        <v>43739.41673611111</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>тот момент когда тебе 15</t>
+          <t>Светлая Память Вам, товарищ Сухов...</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Iv5uWswbAbE.jpg</t>
+          <t>VzYVzalzMTg.jpg</t>
         </is>
       </c>
       <c r="H103">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c858224/v858224544/e0044/Iv5uWswbAbE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-13.userapi.com/c857424/v857424527/8e2d0/VzYVzalzMTg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>43782.71474537037</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
+        <v>43739.3750462963</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>У всех были?</t>
+        </is>
+      </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Секс в большом Олеге.</t>
+          <t>И сейчас есть... На даче👍</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>WrLWWespSRc.jpg</t>
+          <t>7uq3oJM5pio.jpg</t>
         </is>
       </c>
       <c r="H104">
-        <f>HYPERLINK("https://sun9-42.userapi.com/c855532/v855532831/160710/WrLWWespSRc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-28.userapi.com/c857424/v857424527/8e2bd/7uq3oJM5pio.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43780.83612268518</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
+        <v>43739.20833333334</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Электричка прошлых лет.</t>
+        </is>
+      </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Пиздит, работал бы без выходных, просил бы убить</t>
+          <t>Они и сегодня в ходу</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>YzENUjlitHk.jpg</t>
+          <t>o_gmjSxsTKk.jpg</t>
         </is>
       </c>
       <c r="H105">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c855732/v855732550/15f510/YzENUjlitHk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c855520/v855520527/106ef1/o_gmjSxsTKk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>43779.63040509259</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
+        <v>43740.87912037037</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>В 1961 г. загорелась заря "золотого века" советских комедий, вышел первый фильм со знаменитой "троицей" - "Самогонщики":</t>
+        </is>
+      </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Как она там оказалась она что ему через рот стреляла?</t>
+          <t>а ближе к 90-м годам,советское кино умерло и осталась одна российская,низкопробная коммерция,от которой тошнит до сих пор...</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>QDKUyvCz7Ww.jpg</t>
+          <t>II9cbcsugKM.jpg</t>
         </is>
       </c>
       <c r="H106">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c857016/v857016614/3eeda/QDKUyvCz7Ww.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-43.userapi.com/c858132/v858132225/89feb/II9cbcsugKM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>43782.94938657407</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
+        <v>43740.79537037037</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Взвейтесь кострами, синие ночи!
+Мы - пионеры, дети рабочих!</t>
+        </is>
+      </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Главное, что бы ты бегал быстрее, чем они</t>
+          <t>19 мая день пионерии.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>NIGy4Mo_mNU.jpg</t>
+          <t>npfocwStXeo.jpg</t>
         </is>
       </c>
       <c r="H107">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c7004/v7004373/78718/NIGy4Mo_mNU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-24.userapi.com/c854528/v854528225/110746/npfocwStXeo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>43782.93542824074</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
+        <v>43740.62892361111</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>В СССР продавали томатную пасту, на вес в свою посуду.</t>
+        </is>
+      </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Дед все равно самагон сделает</t>
+          <t>У нас в магазине пасту развешивали в маленькие полиэтиленовые пакетики, завязывали их и продавали. Паста была вкуснейшая, с пельменями - шла за высший сорт!</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ekGH6PH-s8A.jpg</t>
+          <t>PBhZdWLct-M.jpg</t>
         </is>
       </c>
       <c r="H108">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c7004/v7004373/786fe/ekGH6PH-s8A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c853624/v853624225/110276/PBhZdWLct-M.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>43782.68554398148</v>
+        <v>43740.46180555555</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Если кто-то скажет, что не бывает картинок со вкусом, то я просто покажу ему эту фотку</t>
+          <t>Как думаете?</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>аж кисло во рту стало🤤🤤</t>
+          <t>Так хреново жили, что до сих пор вспоминаем....</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>aNMEpTz2fG0.jpg</t>
+          <t>usNn0uiG1xk.jpg</t>
         </is>
       </c>
       <c r="H109">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c7004/v7004244/70043/aNMEpTz2fG0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-5.userapi.com/c858236/v858236151/92355/usNn0uiG1xk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>43782.59532407407</v>
+        <v>43739.87881944444</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Левши, что скажете?</t>
+          <t>Накатывают воспоминания, моменты из детства. Так домой охота - к маме, она вечерами вяжет носочки. К папке - медведю. Там уютно, хорошо, радостно и спокойно. Там кружки для чая огромные, по пол литра. Там были мои любимые.</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Я правша и я бы поспорил</t>
+          <t>если забить окна досками про валить крышы да погасить фонарь , получится современный пеизаж</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>X8eUaA0shac.jpg</t>
+          <t>Qhb_kbyi2EQ.jpg</t>
         </is>
       </c>
       <c r="H110">
-        <f>HYPERLINK("https://sun9-17.userapi.com/c7004/v7004459/70c86/X8eUaA0shac.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c850532/v850532758/1cbf23/Qhb_kbyi2EQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>43782.57439814815</v>
+        <v>43739.836875</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Лысый с бразерс?</t>
+          <t>Это не машинки, это стиральные доски. Но к ним ещё и корыто оцинкованное нужно.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>IhMaqqFxZvs.jpg</t>
+          <t>EgBqjrgE2-Y.jpg</t>
         </is>
       </c>
       <c r="H111">
-        <f>HYPERLINK("https://sun9-26.userapi.com/c7004/v7004861/7c10d/IhMaqqFxZvs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-19.userapi.com/c857520/v857520419/92163/EgBqjrgE2-Y.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>43782.56052083334</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
+        <v>43739.75369212963</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>У всех были?😊</t>
+        </is>
+      </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Кассир</t>
+          <t>Сейчас кстати, в моде они👍👍👍</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>VTAsL9zWLF4.jpg</t>
+          <t>We2juyAo-7c.jpg</t>
         </is>
       </c>
       <c r="H112">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c7004/v7004861/7c104/VTAsL9zWLF4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c854520/v854520419/113289/We2juyAo-7c.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>43781.74103009259</v>
+        <v>43739.71204861111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Главное в любой ситуации - быть оптимистом</t>
+          <t>Натюрморт советское детство.</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1 день, 65 минута: я наконец-то приспособился к обществу спустя многих психотерапевтов, теперь я смогу жить нормальной жизнью...</t>
+          <t>И "Веселые картинки'</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5JmO7HTCGzo.jpg</t>
+          <t>1JqntdOQZLo.jpg</t>
         </is>
       </c>
       <c r="H113">
-        <f>HYPERLINK("https://sun9-29.userapi.com/c7004/v7004520/732b6/5JmO7HTCGzo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-52.userapi.com/c855720/v855720402/111b3b/1JqntdOQZLo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>43781.51883101852</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Топ 10 способов покорить моё сердце ♥️</t>
-        </is>
-      </c>
+        <v>43739.5041550926</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Воздуха на улице хватает</t>
+          <t>У меня был салют</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>OqHFh5BLolc.jpg</t>
+          <t>e-aw3oz3twc.jpg</t>
         </is>
       </c>
       <c r="H114">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c7004/v7004448/7d9e0/OqHFh5BLolc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-2.userapi.com/c855532/v855532758/108bda/e-aw3oz3twc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>43781.36600694444</v>
+        <v>43739.29575231481</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Я во время важной контрольной</t>
+          <t>Поливальная машина поливала все подряд: тротуары и витрины, тумбы, клумбы, детский сад, дядю Гену с тетей Зиной, сто четырнадцать ребят.</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Мой мозг:</t>
+          <t>Наше поколение ещё помнит многое о СССР!Моя СТРАНА !!!</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>rZJvje5Sp98.jpg</t>
+          <t>oanP9nLwXtI.jpg</t>
         </is>
       </c>
       <c r="H115">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c7004/v7004599/6f355/rZJvje5Sp98.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-26.userapi.com/c855128/v855128758/100c61/oanP9nLwXtI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>43781.3243287037</v>
+        <v>43740.8784837963</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Не ну а чо ? А вдруг не хватит</t>
+          <t>Стульчик со столиком!!!😁😁😁👍👍👍</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>kHH2fUUFjhk.jpg</t>
+          <t>ThL9bHIL2dg.jpg</t>
         </is>
       </c>
       <c r="H116">
-        <f>HYPERLINK("https://sun9-26.userapi.com/c7004/v7004584/74e50/kHH2fUUFjhk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-66.userapi.com/c855532/v855532370/1150b9/ThL9bHIL2dg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>43781.30355324074</v>
+        <v>43740.711875</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Он: заходи, я как раз убрался
-Его комната:</t>
+          <t>Джентльмены удачи! Пасть порву, маргала выколю)))</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>whHaj02wmXM.jpg</t>
+          <t>dDJuGDfAmPU.jpg</t>
         </is>
       </c>
       <c r="H117">
-        <f>HYPERLINK("https://sun9-45.userapi.com/c7004/v7004584/74e35/whHaj02wmXM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-52.userapi.com/c856136/v856136676/108b06/dDJuGDfAmPU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>43780.78273148148</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Единственный литературный мем, который я понял</t>
-        </is>
-      </c>
+        <v>43740.29513888889</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>А последняя картинка зачем?...</t>
+          <t>И никакой нахрен толерантности. Врага нужно знать в лицо</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>p00g8gz0qLo.jpg</t>
+          <t>poqy-kydKOo.jpg</t>
         </is>
       </c>
       <c r="H118">
-        <f>HYPERLINK("https://sun9-21.userapi.com/c7004/v7004758/6ec33/p00g8gz0qLo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c851520/v851520557/1d287f/poqy-kydKOo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43780.74126157408</v>
+        <v>43739.62851851852</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>какой идиот будет метать патрон?)
-P.S. Именно патрон, с гильзой...не отдельно пулю..кек.</t>
+          <t>Взвейтесь кострами синие ночи мы пеонеры - дети рабочих</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1EInGpyL65A.jpg</t>
+          <t>qEiUhqqLaW4.jpg</t>
         </is>
       </c>
       <c r="H119">
-        <f>HYPERLINK("https://sun9-11.userapi.com/c7004/v7004401/6fd19/1EInGpyL65A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-24.userapi.com/c854532/v854532172/106232/qEiUhqqLaW4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>43780.65777777778</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Никто:
-Я в 3 часа ночи:</t>
-        </is>
-      </c>
+        <v>43739.46184027778</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>А где же:наступило время мастурбации</t>
+          <t>Мда....какую страну подняли после военной разрухи !!!😳😳😳А сейчас все продали и просрали...</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Nga3UOG8m0Y.jpg</t>
+          <t>r168YxJy7b4.jpg</t>
         </is>
       </c>
       <c r="H120">
-        <f>HYPERLINK("https://sun9-9.userapi.com/c7004/v7004703/71601/Nga3UOG8m0Y.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c851132/v851132514/1d3ebf/r168YxJy7b4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>43780.6437962963</v>
+        <v>43739.29513888889</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>А почему он почернел?</t>
+          <t>РебятЫ!! А нетути в мире документа о прекращении существования СССР! Отсутствует! И даже бумажонка, которую в 1991 г "на коленке" подписали в Беловежской Пуще ельцин, кравчук и шушкевич, тоже отсутствует!!! НЕТ ЕЁ! (поскольку знали твари, что являются преступниками бОльшими, чем гитлер; что совершают преступление страшнее, чем нацистская Германия в 1941-1945 годах). ЮРИДИЧЕСКИ СССР СУЩЕСТВУЕТ ПО СЕЙ ДЕНЬ. Об этом прекрасно знают все юридические "силы" мира. И молчат. Ибо СТРАШНО. СТРАШНО, ЧТО МЫ ОБ ЭТОМ ВСПОМНИМ, ПРОЧУВСТВУЕМ - и раздадим билюлей всем. НАШ СОВЕТСКИЙ СОЮЗ ЖИВ.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>OtCguTX1gUc.jpg</t>
+          <t>wsPLF-Px7QY.jpg</t>
         </is>
       </c>
       <c r="H121">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c7004/v7004703/7156b/OtCguTX1gUc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-72.userapi.com/c858424/v858424722/90ecb/wsPLF-Px7QY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>43780.32435185185</v>
-      </c>
-      <c r="B122" t="inlineStr"/>
+        <v>43740.64043981482</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Когда строил коммунизм, но приуныл.</t>
+        </is>
+      </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>а потом джекпот и ты умираешь весь день</t>
+          <t>Владимир Ильич Ленин выслушивает муравьёв-ходоков из Орловской губернии, которые пришли просить открыть библиотеку в дупле белки.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>f8T1R2jzC20.jpg</t>
+          <t>JwE-mbwklko.jpg</t>
         </is>
       </c>
       <c r="H122">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c7004/v7004821/7223d/f8T1R2jzC20.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-30.userapi.com/c855732/v855732381/113cd8/JwE-mbwklko.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>43779.81049768518</v>
+        <v>43739.55209490741</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>У нас с мамой очень своеобразное общение</t>
+          <t>Виктор Цой гуляет с сыном. 1985 год</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Может быть этот комментарий не будет интересен большинству людей здесь. Кто то из вас его проигнорирует, кто то даже не станет его читать, и он растворится в общей массе комментариев незаметно. 
-Может быть я даже буду подвержен критике, но я хочу, чтобы все вы знали, что у меня понос.</t>
+          <t>Он хотел остаться с Нами, просто остаться с Нами, но...
+Всё равно Его у Нас никто не отнимет... Человека Легенду...❤ Автору Спасибо за Уникальное фото!!!</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>ntrQq_e81ns.jpg</t>
+          <t>dzp17IAJsZM.jpg</t>
         </is>
       </c>
       <c r="H123">
-        <f>HYPERLINK("https://sun9-41.userapi.com/c7004/v7004617/7253f/ntrQq_e81ns.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c543106/v543106288/4c346/dzp17IAJsZM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>43779.7271875</v>
+        <v>43739.91875</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>чики чики бамболейло</t>
+          <t>Туалетная бумага в СССР была дефицитом (что было, то было). Поэтому, встретить на улице деловито шагающего человека, увешанного рулонами как пулеметными лентами, на манер геройского матроса Железняка, было обычным делом (ибо все таки бумага была). Мало того, к такому "счастливцу" то и дело подходили озабоченные граждане и спрашивали - "мужчина, где бумагу брали?"</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>А как же</t>
+          <t>Лучше дефицит туалетной бумаги, чем порядочных, чистых, честных людей!</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>FyA-wsPnZYc.jpg</t>
+          <t>IiS4V--6ZEE.jpg</t>
         </is>
       </c>
       <c r="H124">
-        <f>HYPERLINK("https://sun9-23.userapi.com/c7004/v7004726/6c178/FyA-wsPnZYc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-29.userapi.com/c851128/v851128721/1d17b5/IiS4V--6ZEE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>43779.47715277778</v>
-      </c>
-      <c r="B125" t="inlineStr"/>
+        <v>43739.83543981481</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Фотопробы на роль Нины в культовой кинокомедии «Кавказская пленница, или Новые приключения Шурика» Леонида Гайдая 1966 год СССР.
+1 фото - кадр вошедший в киноленту - знаметитый твист Нины для Шурика на камне
+2 фото - Леонид Гайдай и возможно Наталья Варлей (но мы думаем, на фото Наталья Кустинская), а на заднем плане - ослица Люся, сыгравшая роль знаменитого упрямого ослика - спутника Шурика.
+Мало кто знает, но Люся пережила большинство актеров и участников съемочной группы, прожив долгую интересную жизнь, ее холили и лелеяли, несмотря на скверный характер. В 2002-2003 годах Люся снялась в сериале "Спецназ" с Владиславом Галкиным, а в 2005 году в картине "9 рота" Бондарчука-младшего.
+3 фото - фотопробы Натальи Селезневой на роль Нины
+4 фото - фотопробы Натальи Кустинской на роль Нины
+5 фото - фотопробы Марианны Вертинской на роль Нины
+6 фото - фотопробы мастера спорта по спортивной гимнастике Зинаиды Дружининой на роль Нины
+7 фото - финальные фотопробы Натальи Варлей, которой в итоге и досталась роль Нины. Блестяще сыгранная роль!😎</t>
+        </is>
+      </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>на калькуляторе</t>
+          <t>Из всех претенденток, ну кроме Варлей, я думаю прекрасно бы справилась Наталья Селезнева. У неё тоже лёгкое, ироничное лицо с маленьким чертенком в глазах.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0O7xmcCG5yQ.jpg</t>
+          <t>tzvVGXUqoa4.jpg</t>
         </is>
       </c>
       <c r="H125">
-        <f>HYPERLINK("https://sun9-17.userapi.com/c7004/v7004509/72762/0O7xmcCG5yQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-5.userapi.com/c851128/v851128522/1c99dd/tzvVGXUqoa4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>43779.39383101852</v>
-      </c>
-      <c r="B126" t="inlineStr"/>
+        <v>43739.54516203704</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>В стране была РАБОТА !!!...И в деревне, и в городе.....Люди были ЗАНЯТЫ ! И стабильная з/плата....
+Прислала наша участница Татьяна Антонова
+© СССР Ностальжи</t>
+        </is>
+      </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Как увидеть усы?</t>
+          <t>А что? Правда.
+И требовались все и всегда. Сказать, почему?
+Потому что заводы, фабрики и прочие предприятия НЕ БЫЛИ РАСПРОДАНЫ.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>ZoT6nQ02xOQ.jpg</t>
+          <t>yCmnUu_c0d4.jpg</t>
         </is>
       </c>
       <c r="H126">
-        <f>HYPERLINK("https://sun9-51.userapi.com/c7004/v7004206/7838d/ZoT6nQ02xOQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c855232/v855232721/10930d/yCmnUu_c0d4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>43779.34519675926</v>
+        <v>43740.93752314815</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>12</v>
+        <v>399</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Новенькая девочка:</t>
+          <t>Единственная странна совка в которой есть порядок ...👍</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4ZicAC-J_h8.jpg</t>
+          <t>3vN4Tc_Srg8.jpg</t>
         </is>
       </c>
       <c r="H127">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c7004/v7004299/74fba/4ZicAC-J_h8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-45.userapi.com/c635105/v635105396/2cc9c/3vN4Tc_Srg8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>43779.32434027778</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Кто-то: блин, я такая страшная на фото в паспорте
-Я: а ты сделай ксерокопию</t>
-        </is>
-      </c>
+        <v>43740.80902777778</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Джокер</t>
+          <t>Кто предупрежден ,тот вооружен</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>SZnGIXxH070.jpg</t>
+          <t>zeIYLfMmST4.jpg</t>
         </is>
       </c>
       <c r="H128">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c7004/v7004981/780f5/SZnGIXxH070.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c635105/v635105847/3229f/zeIYLfMmST4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43779.28269675926</v>
+        <v>43740.47222222222</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>учитель истории</t>
+          <t>Возмущает меня все сопливые рассуждения наших молодых писак....... ТЫ,Геннадий, пожил бы в то время и только потом выделывался бы в соцсетях своим ОСЛОУМИЕМ !!! .... ВЕЧНАЯ ПАМЯТЬ ВСЕМ, КТО ОТ ФАШИСТОВ РОДИНУ ЗАЩИЩАЛ ! СЛАВА ГЕРОЯМ !!!!!!!!!!!!!!!!!!! 🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>lYeiGdGTKkU.jpg</t>
+          <t>ZFeXSN2JVP4.jpg</t>
         </is>
       </c>
       <c r="H129">
-        <f>HYPERLINK("https://sun9-67.userapi.com/c7004/v7004860/728be/lYeiGdGTKkU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-39.userapi.com/c635105/v635105708/5d198/ZFeXSN2JVP4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>43782.29175925926</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Попробуй 👇</t>
-        </is>
-      </c>
+        <v>43740.43055555555</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Вот список 
-  &amp;#0000   -  пустой комментарий 
-  &amp;#10000  -  ✐
-  &amp;#10001  -   ✑
-  &amp;#10002  -  ✒
-  &amp;#10003  -  ✓
-  &amp;#10004  -  ✔
-  &amp;#10005  -   ✕
-  &amp;#10006  -  ✖
-  &amp;#10007  -  ✗
-  &amp;#10008  -  ✘
-  &amp;#10009  -  ✙ 
-  &amp;#10010  -  ✚
-  &amp;#10011  -  ✛
-  &amp;#10012  -  ✜
-  &amp;#10013  -  ✝
-  &amp;#10014  -  ✞
-  &amp;#10015  -  ✟
-  &amp;#10016  -  ✠
-  &amp;#10017  -  ✡
-  &amp;#10018  -  ✢
-  &amp;#10019  -  ✣
-  &amp;#10020  -  ✤
-  &amp;#10021  -  ✥ 
-  &amp;#10022  -  ✦
-  &amp;#10023  -  ✧
-  &amp;#10024  -  ✨
-  &amp;#10025  -  ✩
-  &amp;#10026  -  ✪
-  &amp;#10027  -  ✫
-  &amp;#10028  -  ✬
-  &amp;#10029  -  ✭
-  &amp;#10030  -  ✮ 
-  &amp;#10031  -   ✯
-  &amp;#10032  -  ✰
-  &amp;#10033  -  ✱
-  &amp;#10034  -  ✲
-  &amp;#10035  -  ✳
-  &amp;#10036  -  ✴
-  &amp;#10037  -  ✵
-  &amp;#10038  -  ✶
-  &amp;#10039  -  ✷
-  &amp;#10040  -  ✸
-  &amp;#10041  -  ✹
-  &amp;#10042  -  ✺
-  &amp;#10043  -  ✻
-  &amp;#10044  -  ✼
-  &amp;#10045  -  ✽
-  &amp;#10046  -  ✾
-  &amp;#10047  -  ✿
-  &amp;#10048  -  ❀
-  &amp;#10049  -  ❁
-  &amp;#10050  -  ❂
-  Ϩ - &amp;#1000
-  ❥ - &amp;#10085
-  𓂺 - &amp;#78010
-  ☾ - &amp;#9790
-  ߷ - &amp;#2039
-  ❧ - &amp;#10087
-   - &amp;#3
-  ᘙ - &amp;#5657
-  ❈ - &amp;#10056
-  ✧ - &amp;#10023
-  ✲ - &amp;#10034
-  ❒ - &amp;#10066
-  ❨ - &amp;#10088
-  ✭ - &amp;#10029
-  ✷ - &amp;#10039
-  ❁ - &amp;#10049
-  ❋ - &amp;#10059
-  ✚ - &amp;#10010
-  ✤ - &amp;#10020
-  ❝ - &amp;#10077
-  ✛ - &amp;#10011
-  ✦ - &amp;#10022
-  ✱ - &amp;#10033
-  и надо ставить знак (;) после каждого шифра)
-  ⨋ - &amp;#10763 
-  ⚤ - &amp;#9892 
-  ♱ - &amp;#9841 
-  ✐ - &amp;#10000 
-  Ϩ - &amp;#1000 
-  ❥ - &amp;#10085 
-  𓂺 - &amp;#78010 
-  ☾ - &amp;#9790 
-  ߷ - &amp;#2039 
-  ❧ - &amp;#10087 
-  ᘙ - &amp;#5657 
-  ❈ - &amp;#10056 
-  ✧ - &amp;#10023 
-  ✲ - &amp;#10034 
-  ❒ - &amp;#10066 
-  ❨ - &amp;#10088 
-  ✭ - &amp;#10029 
-  ✷ - &amp;#10039 
-  ❁ - &amp;#10049 
-  ❋ - &amp;#10059 
-  ✚ - &amp;#10010 
-  ✤ - &amp;#10020 
-  ❝ - &amp;#10077 
-  ✛ - &amp;#10011 
-  ✦ - &amp;#10022 
-  ✱ - &amp;#10033 
-  Ψ - &amp;#936 
-  ߷ - &amp;#2039 
-  ೱ - &amp;#3313 
-  ᚸ - &amp;#5816 
-  † - &amp;#8224 
-  ↯ - &amp;#8623 
-  ∰ - &amp;#8752 
-  ⌘ - &amp;#8984 
-  ⌚ - &amp;#8986 
-  ⌛ - &amp;#8987 
-  ⌨ - &amp;#9000 
-  ⌺ - &amp;#9018 
-  ⍋ - &amp;#9035 
-  ⍏ - &amp;#9039 
-  ♚ - &amp;#9818 
-  ♛ - &amp;#9819 
-  ☤ - &amp;#9764 
-  ☭ - &amp;#9773 
-  ☣ - &amp;#9763 
-  ☢ - &amp;#9762 
-  ☠ - &amp;#9760 
-  ⏰ - &amp;#9200</t>
+          <t>Стабилизатор напряжения</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>YUK1WC1uF4I.jpg</t>
+          <t>gLcTzqym4zc.jpg</t>
         </is>
       </c>
       <c r="H130">
-        <f>HYPERLINK("https://sun9-9.userapi.com/c635105/v635105036/2c67a/YUK1WC1uF4I.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-64.userapi.com/c635105/v635105851/2f382/gLcTzqym4zc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>43781.87511574074</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>"Они успели!" 
-Mолодая женщина из Koннектикута с раком смогла осуществить свою мечту - и вышла замуж за любимого мужчину.</t>
-        </is>
-      </c>
+        <v>43740.22916666666</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Извините за черный юмор, но...</t>
+          <t>Документ о том что в Советском Союзе на 1 гражданина стало больше, 🙂теперь это раритет📖</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>C2M-jL3uNAU.jpg</t>
+          <t>kWBp_naepCI.jpg</t>
         </is>
       </c>
       <c r="H131">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c635105/v635105588/42112/C2M-jL3uNAU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-18.userapi.com/c635105/v635105165/2ce2f/kWBp_naepCI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>43780.87509259259</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Немного об нашей экологии...
-Эту рыбку поймал канадец..
-Она всю жизнь росла в плaстикoвoм кoльцe oт бутылки.</t>
-        </is>
-      </c>
+        <v>43739.92708333334</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>67</v>
+        <v>460</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Даже жалко её стало</t>
+          <t>За всё время своего существования совковая пропаганда втирала дебилам росказни про скорый крах капитализма, "загнивание" Запада, скорое падение доллара, конец Америки и наступление "светлого будущего", в итоге "загнивающий" Запад без единого выстрела уничтожил сам совок, сейчас снова рассказывают про "загнивающую гейропу" , не сложно догадаться, чем это закончится и теперь .</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>z4Qhwd1s4g8.jpg</t>
+          <t>ST_5cgmxleU.jpg</t>
         </is>
       </c>
       <c r="H132">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c635105/v635105304/31d92/z4Qhwd1s4g8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-14.userapi.com/c635105/v635105712/2beb6/ST_5cgmxleU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>43780.7918287037</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Мимо проходящие прохожие услышали что в воде кто-то скулит, увидели собаку запертую в клетке, и спасли ее.
-Жесткость людей поражает!</t>
-        </is>
-      </c>
+        <v>43739.77086805556</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Низкий поклон добрым людям!!!</t>
+          <t>Мне вот интересно, чего вы здесь делаете руссофобы и уёбки фашистские, на русском сайте, да и пишите на русском, хуярте отсюда на хер, вы же говно фашистское ненавидите всё русское, чего вы здесь делаете?</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>y25iEQuI_E8.jpg</t>
+          <t>SKNYjqUZHq0.jpg</t>
         </is>
       </c>
       <c r="H133">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c635105/v635105454/35742/y25iEQuI_E8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-12.userapi.com/c635105/v635105884/284b8/SKNYjqUZHq0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>43780.62517361111</v>
+        <v>43739.72920138889</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Попробуй 👇</t>
+          <t>«мы ждали завтрашний день, 
+каждый день ждали завтрашний день…»</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>➳ - &amp;#10163 
-⛪ - &amp;#9962 
-✯ - &amp;#10031 
-⛈ - &amp;#9928 
-⚝ - &amp;#9885 
-⚽ - &amp;#9917 
-☕ - &amp;#9749 
-☯ - &amp;#9775 
-☔ - &amp;#9748 
-⨋ - &amp;#10763 
-⚤ - &amp;#9892 
-♱ - &amp;#9841 
-✐ - &amp;#10000 
-Ϩ - &amp;#1000 
-❥ - &amp;#10085 
-𓂺 - &amp;#78010 
-☾ - &amp;#9790 
-߷ - &amp;#2039 
-❧ - &amp;#10087 
-ᘙ - &amp;#5657 
-❈ - &amp;#10056 
-✧ - &amp;#10023 
-✲ - &amp;#10034 
-❒ - &amp;#10066 
-❨ - &amp;#10088 
-✭ - &amp;#10029 
-✷ - &amp;#10039 
-❁ - &amp;#10049 
-❋ - &amp;#10059 
-✚ - &amp;#10010 
-✤ - &amp;#10020 
-❝ - &amp;#10077 
-✛ - &amp;#10011 
-✦ - &amp;#10022 
-✱ - &amp;#10033 
-Ψ - &amp;#936 
-߷ - &amp;#2039 
-ೱ - &amp;#3313 
-ᚸ - &amp;#5816 
-† - &amp;#8224 
-↯ - &amp;#8623 
-∰ - &amp;#8752 
-⌘ - &amp;#8984 
-⌚ - &amp;#8986 
-⌛ - &amp;#8987 
-⌨ - &amp;#9000 
-⌺ - &amp;#9018 
-⍋ - &amp;#9035 
-⍏ - &amp;#9039 
-♚ - &amp;#9818 
-♛ - &amp;#9819 
-☤ - &amp;#9764 
-☭ - &amp;#9773 
-☣ - &amp;#9763 
-☢ - &amp;#9762 
-☠ - &amp;#9760 
-⏰ - &amp;#9200 
-И СТАВЬТЕ знак ( ; ) после каждого шифра.Можна хотя бы 1 лайк
-P.S:Тигры🤘🏻
-P.S.S:Давайте на аву лайков)</t>
+          <t>Каждому коммунисту фаллоимитатор в жопу, каждому совкодрочеру батога и плеть. Золотые слова Вити Цоя (кочегара) без музыкального образования, которого обучали играть на гитаре в Лондоне.....</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>LNj_M3fXV6M.jpg</t>
+          <t>HFj1y8Th2SU.jpg</t>
         </is>
       </c>
       <c r="H134">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c635105/v635105175/2feb6/LNj_M3fXV6M.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-61.userapi.com/c635105/v635105596/302da/HFj1y8Th2SU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>43779.95837962963</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>23 года назад Мэриэнн и Томми стали первой в истории парой с синдромом Дауна, которая узаконила свои отношения. На них тут же обрушился шквал критики, но они выдержали!
-У любви нет границ...</t>
-        </is>
-      </c>
+        <v>43739.59376157408</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>631</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ииии а за что критика то, за то что они тоже люди и хотят счастья? Я не понимаю честное слово людей!!! Вы хоть знаете как людям с таким синдромом живётся? Пусть будут счастливы, счастья вам всем!!! Будьте человечны.</t>
+          <t>Золотое время.🙂Спасибо товарищу Брежневу за счастливое детство👏🏻не верится даже что так было</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>BqZfzGeH51I.jpg</t>
+          <t>wg8DHv4P4-8.jpg</t>
         </is>
       </c>
       <c r="H135">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c635105/v635105186/3388b/BqZfzGeH51I.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c635105/v635105825/31294/wg8DHv4P4-8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>43782.8750462963</v>
+        <v>43739.50356481481</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Я если получу права🤣</t>
+          <t>единственный правитель которого народ уважал и любил</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>o-fKnDWIDJ4.jpg</t>
+          <t>abmcY4rC5qA.jpg</t>
         </is>
       </c>
       <c r="H136">
-        <f>HYPERLINK("https://sun9-54.userapi.com/c855336/v855336163/168d23/o-fKnDWIDJ4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c635105/v635105486/2a551/abmcY4rC5qA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>43782.83341435185</v>
+        <v>43739.46527777778</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>182</v>
+        <v>464</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Рэп говно! Попса параша! Панки Хой победа наша!</t>
+          <t>Автор обнаглел 😠этот пост оскорбляет большинство граждан страны😠🇷🇺неприятно это слышать 😠</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>i1iLR8mNEbk.jpg</t>
+          <t>vGkyIbWXDRA.jpg</t>
         </is>
       </c>
       <c r="H137">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c855320/v855320163/164137/i1iLR8mNEbk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c635105/v635105784/2e5ea/vGkyIbWXDRA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>43782.77569444444</v>
+        <v>43739.3784837963</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Суууууууууука
-Upd: ебать, 100 лайков, спасибо
-Админ сука</t>
+          <t>Когда служили народу , а не народ им .</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>8dnyaJQscbQ.jpg</t>
+          <t>R8ksyM0MRU4.jpg</t>
         </is>
       </c>
       <c r="H138">
-        <f>HYPERLINK("https://sun9-27.userapi.com/c857524/v857524163/e44f8/8dnyaJQscbQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c635105/v635105268/3370e/R8ksyM0MRU4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>43782.54177083333</v>
+        <v>43739.33680555555</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>А ничего, что эти радары по несколько сотен тысяч стоят? Их же можно так продавать</t>
+          <t>Яйцами об раму хрясь!!!  Вот это,сука,круто!!!А перед друзьями "Да всё нормально,это я спецон".Ага блять, нормально!,у самого слезы непроизвольные,но сука весело было!!!</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>XC3sNjmLQQM.jpg</t>
+          <t>thfFFsbW7u8.jpg</t>
         </is>
       </c>
       <c r="H139">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c857120/v857120163/4450e/XC3sNjmLQQM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-19.userapi.com/c635105/v635105597/2aacd/thfFFsbW7u8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>43782.50018518518</v>
+        <v>43740.86111111111</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Она всё равно во время рекламы уже всё съест</t>
+          <t>Дымовуха</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Os3Z6dX0nDk.jpg</t>
+          <t>uWuMQ8EqhAg.jpg</t>
         </is>
       </c>
       <c r="H140">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c855624/v855624163/159ed9/Os3Z6dX0nDk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c851332/v851332075/1e00dc/uWuMQ8EqhAg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>43782.48333333333</v>
+        <v>43740.78125</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Две дуры горе в семье</t>
+          <t>Я сейчас так ем!!!</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>pZFREsN7fCQ.jpg</t>
+          <t>Tm1hD6xhvlU.jpg</t>
         </is>
       </c>
       <c r="H141">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c855236/v855236944/160420/pZFREsN7fCQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-31.userapi.com/c854220/v854220075/109be3/Tm1hD6xhvlU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>43782.37513888889</v>
+        <v>43740.67361111111</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Фотки поменяли местами</t>
+          <t>Прелесть в том что у всех почти одинаковая форма была, а не так у одного за 1500. А у другого 15000</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>bPLUT7ZdHDY.jpg</t>
+          <t>5H5pg09lgQU.jpg</t>
         </is>
       </c>
       <c r="H142">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c855132/v855132438/162419/bPLUT7ZdHDY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-56.userapi.com/c855220/v855220075/10e04a/5H5pg09lgQU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>43781.8750462963</v>
+        <v>43740.57986111111</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Дебилы, незрелый сорвали🤦‍♂️</t>
+          <t>Вот и грубить не хочется,  но ...... идиот вы сударь!
+Зилы по всему союзу верно трудились на благо народа! А то, что сейчас вашу задницу возит какая-то европейская хрень, ничего не меняет. 
+Вот Боинги, это точно "скотовозки"!
+Лучше наших Тушек в жизни не видел!</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>5Zmy8VUYOik.jpg</t>
+          <t>E1ZdzgHaw50.jpg</t>
         </is>
       </c>
       <c r="H143">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c857532/v857532944/e0ad3/5Zmy8VUYOik.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c858228/v858228263/8c59e/E1ZdzgHaw50.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>43781.75010416667</v>
+        <v>43739.57986111111</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Низкие шутят низко</t>
+          <t>Чистенько , уютненько ,никаких тебе навязчивых реклам и воздухе не пахнет злобным капитализмом</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>6a_VeCJZKr4.jpg</t>
+          <t>d4iHaGm4K-o.jpg</t>
         </is>
       </c>
       <c r="H144">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c857328/v857328944/445d9/6a_VeCJZKr4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-56.userapi.com/c855628/v855628263/109f0d/d4iHaGm4K-o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>43781.58342592593</v>
+        <v>43739.48958333334</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Высший разум: Внезапная подлива</t>
+          <t>не — спрашивали так : — петушок или курочка ? Здесь курочка . У петушка побольше "перьев". А ещё срывали отцвёвший одуванчик (когда он шариком белым разлетающимся) и спрашивали : — дед или баба ? и со всей силы дули на него . Если не оставались пушинки или их оставалось очень мало — это был дед . А если оставалось много , то баба . проигравшему станцевать</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>NVPbwoJ1ark.jpg</t>
+          <t>27hwKem5Bas.jpg</t>
         </is>
       </c>
       <c r="H145">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c857616/v857616438/e4a7a/NVPbwoJ1ark.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-16.userapi.com/c857428/v857428263/8e8c1/27hwKem5Bas.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>43781.41677083333</v>
+        <v>43739.34722222222</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ь: хош тебе шею сверну
-Б: давай
-Ъ: задуатшыа</t>
+          <t>Гениальный актёр!👍🏻👍🏻👍🏻</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Cf_7RNFIL1Y.jpg</t>
+          <t>YZf9BmCAK60.jpg</t>
         </is>
       </c>
       <c r="H146">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c857232/v857232507/42828/Cf_7RNFIL1Y.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-56.userapi.com/c858324/v858324263/86dcc/YZf9BmCAK60.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>43780.50011574074</v>
-      </c>
-      <c r="B147" t="inlineStr"/>
+        <v>43740.94722222222</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Сервант! Из мебельной фанеры сделан! Вечный!</t>
+        </is>
+      </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Тоже как вариант</t>
+          <t>У многих такие остались до сих пор с тем же набором посуды</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1U35vaplBSY.jpg</t>
+          <t>smk87PL-yCM.jpg</t>
         </is>
       </c>
       <c r="H147">
-        <f>HYPERLINK("https://sun9-64.userapi.com/c858532/v858532204/40853/1U35vaplBSY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c850620/v850620033/1cf191/smk87PL-yCM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>43780.45841435185</v>
-      </c>
-      <c r="B148" t="inlineStr"/>
+        <v>43740.85555555556</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Наши девчата- советские!</t>
+        </is>
+      </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>🤣🤣🤣походу на себе проверил уже🤣🤣🤣</t>
+          <t>Сама атмосфера, настроение, послевкусие... Всё радует и приятно сердцу на этой фотографии!🙏🏻😊👍🏻</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Elht4_nnJQ8.jpg</t>
+          <t>WpedDKN9aRY.jpg</t>
         </is>
       </c>
       <c r="H148">
-        <f>HYPERLINK("https://sun9-11.userapi.com/c858136/v858136204/e0724/Elht4_nnJQ8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-51.userapi.com/c851216/v851216033/1cecbe/WpedDKN9aRY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>43780.41679398148</v>
-      </c>
-      <c r="B149" t="inlineStr"/>
+        <v>43740.81388888889</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Начало новой семьи! Как они, интересно, сейчас живут?</t>
+        </is>
+      </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Если я умру сегодня - значит так надо.</t>
+          <t>39 лет вместе</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>pyZQPOl8QO4.jpg</t>
+          <t>BkdlpAmkZxE.jpg</t>
         </is>
       </c>
       <c r="H149">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c855128/v855128204/152be7/pyZQPOl8QO4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-1.userapi.com/c853516/v853516033/10c2e9/BkdlpAmkZxE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>43779.80416666667</v>
-      </c>
-      <c r="B150" t="inlineStr"/>
+        <v>43740.70069444444</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ПУПСИКИ! Шили им конвертики?</t>
+        </is>
+      </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>50 лайков, и выложу ее голенькой:</t>
+          <t>Шили😊</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>v3k3ayjEIPU.jpg</t>
+          <t>Gc76owpq88U.jpg</t>
         </is>
       </c>
       <c r="H150">
-        <f>HYPERLINK("https://sun9-7.userapi.com/c856120/v856120804/155750/v3k3ayjEIPU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c857420/v857420033/8b7e8/Gc76owpq88U.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>43779.7305324074</v>
+        <v>43740.64930555555</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[club188578327|абсурдные лайфхаки]</t>
+          <t>Народ семьями и даже вместе с соседями ходили в кино! 
+Это был поистине культурный поход!</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>6ля малолетние дегенераты которые считают что эти тупые мемы являются постиронией пусть идут нaxyй, админ тоже</t>
+          <t>Никто не жевал рядом.Все смотрели кино.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>U1dyLu40SLE.jpg</t>
+          <t>ynkIOmSDYQg.jpg</t>
         </is>
       </c>
       <c r="H151">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c855732/v855732550/15ce9e/U1dyLu40SLE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c858336/v858336033/8fb10/ynkIOmSDYQg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>43779.6375</v>
-      </c>
-      <c r="B152" t="inlineStr"/>
+        <v>43740.56597222222</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Советские ёлочные игрушки - это отдельный вид искусства!</t>
+        </is>
+      </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Потому что он ебашил по Черному)</t>
+          <t>Самое любимое было занятие разбирать перед Новым годом коробку с елочными игрушками.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0G2Q-83MqEk.jpg</t>
+          <t>ZYd4qu2BGk0.jpg</t>
         </is>
       </c>
       <c r="H152">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c855536/v855536804/15901a/0G2Q-83MqEk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-33.userapi.com/c852128/v852128033/1e5548/ZYd4qu2BGk0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>43779.47083333333</v>
-      </c>
-      <c r="B153" t="inlineStr"/>
+        <v>43740.52430555555</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Старая часть города почти везде выглядела именно так.</t>
+        </is>
+      </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Не похоже на фото 1907 года. Современная стилизация скорее всегo</t>
+          <t>Мы жили в похожем.Окошки были еще ниже. почти у земли. Зимой батя закидывал их до половины снегом - чтоб теплее было. Но воспоминания о тех годах - самые теплые.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>K0LYgG1lvco.jpg</t>
+          <t>QNKDF0cZxuI.jpg</t>
         </is>
       </c>
       <c r="H153">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c858528/v858528804/3f83c/K0LYgG1lvco.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c855416/v855416033/10c964/QNKDF0cZxuI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>43782.76892361111</v>
-      </c>
-      <c r="B154" t="inlineStr"/>
+        <v>43740.44097222222</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Никакой рекламы, слоганов, обещаний и брендов! 
+Но все знали - молоко и молоко! Вкусное и настоящее.</t>
+        </is>
+      </c>
       <c r="C154" t="n">
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>боже, это затычки чтобы предупреждение о том что вы пристегнулись не пищало</t>
+          <t>И разноцветные крышечки, по которым можно было определить наличие того или иного товара 🤗🤗🤗🤗🤗Всё просто!!!!!!!!!</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>pldOsm8nn8M.jpg</t>
+          <t>DOYHZ6bvDLc.jpg</t>
         </is>
       </c>
       <c r="H154">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c7002/v7002735/755ef/pldOsm8nn8M.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-3.userapi.com/c853628/v853628940/1063bd/DOYHZ6bvDLc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>43782.32512731481</v>
-      </c>
-      <c r="B155" t="inlineStr"/>
+        <v>43740.39930555555</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Помните вкус настоящих тортов?</t>
+        </is>
+      </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>только что...</t>
+          <t>О да</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>o0xlf9h7qM0.jpg</t>
+          <t>EGktK21chmU.jpg</t>
         </is>
       </c>
       <c r="H155">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c7002/v7002736/6c312/o0xlf9h7qM0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c856020/v856020940/10d362/EGktK21chmU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>43781.90782407407</v>
-      </c>
-      <c r="B156" t="inlineStr"/>
+        <v>43740.27430555555</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Конфеты в СССР были просто вкуснющие!</t>
+        </is>
+      </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Я один услышал звук ?</t>
+          <t>Да, вкусняшки, ещё похожие Мечта назывались 😁👍</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>qheJ_WoI4s8.jpg</t>
+          <t>Z4OUotxGjws.jpg</t>
         </is>
       </c>
       <c r="H156">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c7002/v7002025/6cf25/qheJ_WoI4s8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-18.userapi.com/c853428/v853428940/10b759/Z4OUotxGjws.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>43781.68549768518</v>
-      </c>
-      <c r="B157" t="inlineStr"/>
+        <v>43739.94583333333</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Сбивалка! Для крема! Крути руками и всё! И никакого электричества!</t>
+        </is>
+      </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>✨Жмякни на пятачок
-╭━━━╮   ╭━━━╮
-┃╭┈┈╰━━━╯┈┈╮┃
-╰┓╭━━╮ ╭━━╮┏╯
- ┃┃╭╮┃ ┃╭╮┃┃
- ┃╰┻┻╯[club188697606|🐽] ┻┻╯ ┃  
-   ╰┓┏👅┓┏╯
-    ╰╯  ╰╯</t>
+          <t>С удовольствием и сейчас бы такую себе приобрела😊</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>s0eNLt-dzIs.jpg</t>
+          <t>8hj_OIyxWMA.jpg</t>
         </is>
       </c>
       <c r="H157">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c7002/v7002540/706a5/s0eNLt-dzIs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c855332/v855332940/10f3ef/8hj_OIyxWMA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>43779.949375</v>
-      </c>
-      <c r="B158" t="inlineStr"/>
+        <v>43739.90416666667</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>С магазина возвращались..</t>
+        </is>
+      </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>12-летние девочки, которые слушают билли элиш</t>
+          <t>Вот с такими авоськами все ходили. Видно было кто что купил</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>qw6m9bwYDKM.jpg</t>
+          <t>HUQLyyq1jQw.jpg</t>
         </is>
       </c>
       <c r="H158">
-        <f>HYPERLINK("https://sun9-66.userapi.com/c7002/v7002836/7372c/qw6m9bwYDKM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-41.userapi.com/c857728/v857728940/810ef/HUQLyyq1jQw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>43782.93751157408</v>
-      </c>
-      <c r="B159" t="inlineStr"/>
+        <v>43739.8625</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Игра в песочнице была местом общения детей!</t>
+        </is>
+      </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Когда рассказал шутку друзьям о постмодернизме:</t>
+          <t>Сейчас дети тоже неплохо в песочницах общаются. Тем более достаточно песочных принадлежностей</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>tZishs0-bCI.jpg</t>
+          <t>jjp0KAt1A3o.jpg</t>
         </is>
       </c>
       <c r="H159">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c857432/v857432336/d6781/tZishs0-bCI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-12.userapi.com/c853620/v853620940/10e0d7/jjp0KAt1A3o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>43782.87510416667</v>
-      </c>
-      <c r="B160" t="inlineStr"/>
+        <v>43739.77916666667</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>А вы помните свои дни рождения?</t>
+        </is>
+      </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>армстронг это из стального алхимика</t>
+          <t>Да. Разнообразные мамины торты. Штук по пять разных и домашний компот. А у подруг магазинные торты полянка и газировка. Вдобавок у меня добрейшая мама и можно было хоть на головах стоять. Поэтому подруги любили ко мне ходить 😄</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>348</v>
+        <v>3</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>y-A9XJLI05w.jpg</t>
+          <t>5qjDQJUiC7A.jpg</t>
         </is>
       </c>
       <c r="H160">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c858132/v858132139/dd69f/y-A9XJLI05w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c855332/v855332940/10f354/5qjDQJUiC7A.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>43782.85418981482</v>
-      </c>
-      <c r="B161" t="inlineStr"/>
+        <v>43739.7375</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Усатый шмель, ой...- мохнатый шмель на душистый хмель - цапля серая в камыши...!
+Узнали?!!</t>
+        </is>
+      </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Получается арабы сделали из пустыни большое песочное королевство</t>
+          <t>Никита Ммхалков</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>336</v>
+        <v>3</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>f2fKlLXyW_g.jpg</t>
+          <t>we2IF1hEDO0.jpg</t>
         </is>
       </c>
       <c r="H161">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c858132/v858132139/dd68f/f2fKlLXyW_g.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-29.userapi.com/c854524/v854524940/10d4fe/we2IF1hEDO0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>43782.64586805556</v>
-      </c>
-      <c r="B162" t="inlineStr"/>
+        <v>43739.69583333333</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Помните этот детский ужас- пееенкаааа?!!!😨</t>
+        </is>
+      </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>И училка тебя не запалила</t>
+          <t>А я любила пенку и сейчас если кипячу молоко, то пенку съедаю.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>BzDgKfRnAZM.jpg</t>
+          <t>y5rem82splg.jpg</t>
         </is>
       </c>
       <c r="H162">
-        <f>HYPERLINK("https://sun9-6.userapi.com/c855224/v855224266/16a34f/BzDgKfRnAZM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-31.userapi.com/c858220/v858220940/8b03a/y5rem82splg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>43782.60418981482</v>
-      </c>
-      <c r="B163" t="inlineStr"/>
+        <v>43739.65416666667</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Вот это петушок! За 5 копеек! Вкусняшка детства.У вас какая цена была?</t>
+        </is>
+      </c>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Электрон:</t>
+          <t>А мы не покупали , мы сами делали.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2SaOXg4G88A.jpg</t>
+          <t>jgNWCWQwbcM.jpg</t>
         </is>
       </c>
       <c r="H163">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c856032/v856032428/15c97b/2SaOXg4G88A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-37.userapi.com/c855420/v855420940/105560/jgNWCWQwbcM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>43782.58344907407</v>
-      </c>
-      <c r="B164" t="inlineStr"/>
+        <v>43739.6125</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Вот так и учились! Как-то по- домашнему, без официоза. А какие парты! Специальный наклон рабочей поверхности формирует правильную осанку у детей!</t>
+        </is>
+      </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Русский: обматерить на родном языке иностранцев в их стране</t>
+          <t>Я училась начальные классы,мне было удобно.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>fqZ-Fj_r4QQ.jpg</t>
+          <t>WQtpwawaZtw.jpg</t>
         </is>
       </c>
       <c r="H164">
-        <f>HYPERLINK("https://sun9-7.userapi.com/c856032/v856032428/15c972/fqZ-Fj_r4QQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c855428/v855428940/107dc3/WQtpwawaZtw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>43782.54175925926</v>
-      </c>
-      <c r="B165" t="inlineStr"/>
+        <v>43739.44583333333</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Помните такую бумагу для поделок?</t>
+        </is>
+      </c>
       <c r="C165" t="n">
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Админ делает мем, используя 4 фотки вместо одной</t>
+          <t>Делали на майские праздники яблоневые и вишнёвые цветущие веточки из тополя и этой бумаги
+ С ними ходили на демонстрацию.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>qswZGe1Jx6w.jpg</t>
+          <t>G6kDJrXJbm0.jpg</t>
         </is>
       </c>
       <c r="H165">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c855424/v855424718/1625c6/qswZGe1Jx6w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c855332/v855332148/10f6a8/G6kDJrXJbm0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>43782.52085648148</v>
-      </c>
-      <c r="B166" t="inlineStr"/>
+        <v>43739.31527777778</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Молочные коктейли! Вкуснятина! Были и со сливовым соком и с яблочным и с апельсиновым. Всякие! какие вы любили?</t>
+        </is>
+      </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Мем смешной , а Израиль жалко(</t>
+          <t>Молочный просто Супер, самый мой любимый😍💕</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>ufqhM8DFkJA.jpg</t>
+          <t>CO-TTjm1Bmg.jpg</t>
         </is>
       </c>
       <c r="H166">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c855424/v855424718/16259e/ufqhM8DFkJA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c855332/v855332148/10f67d/CO-TTjm1Bmg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>43782.37515046296</v>
-      </c>
-      <c r="B167" t="inlineStr"/>
+        <v>43739.27152777778</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Доброе утро, Москва! 70-е!</t>
+        </is>
+      </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>было сложно, но я понял</t>
+          <t>Это время, когда на улицах многолюдно и мало автомобилей на дорогах</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>SUW7sU7O-_I.jpg</t>
+          <t>x4QRPwJC3vA.jpg</t>
         </is>
       </c>
       <c r="H167">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c857632/v857632241/e62a8/SUW7sU7O-_I.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c857528/v857528148/8e751/x4QRPwJC3vA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>43782.33344907407</v>
+        <v>43740.85217592592</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Это тихоходка - самое выносливое существо на свете. Ваш кэп</t>
+          <t>На счёт лягушки не помню,но точно помню что этот анахронизм называли инвалидкой...</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>398</v>
+        <v>7</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4MGASPshDVQ.jpg</t>
+          <t>DyocKMiMZl8.jpg</t>
         </is>
       </c>
       <c r="H168">
-        <f>HYPERLINK("https://sun9-45.userapi.com/c857632/v857632241/e62c1/4MGASPshDVQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-47.userapi.com/c858432/v858432007/8aff8/DyocKMiMZl8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>43781.98263888889</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
+        <v>43740.72716435185</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Как говорил мой учитель, если ты плюнешь в кислоту, то кислота плюнет в тебя</t>
+          <t>А что сейчас мешает? Вон какие дворы площадки спортивные, мы о таких и мечтать не могли. В советском дворе все было разломано и раздолбано! А любимым развлечением детей было кидать спички в потолок в подъезде и портить лифты!</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1299</v>
+        <v>3</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4xY2gyNhwrM.jpg</t>
+          <t>DzdTR2keMWM.jpg</t>
         </is>
       </c>
       <c r="H169">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c855724/v855724346/162818/4xY2gyNhwrM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c850724/v850724462/1c78ff/DzdTR2keMWM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>43781.94097222222</v>
+        <v>43740.43549768518</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Бля я сначала прочитал "пацифик океан"</t>
+          <t>Ну извините, костюмы - вполне себе на уровне. Все крайне презентабельно и не выглядит дёшево.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hw8mWG3hbeo.jpg</t>
+          <t>JUspVxdFVAE.jpg</t>
         </is>
       </c>
       <c r="H170">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c855724/v855724346/1627f9/Hw8mWG3hbeo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-7.userapi.com/c851020/v851020497/1ccd1d/JUspVxdFVAE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>43781.92013888889</v>
+        <v>43739.7271875</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Норм фотошоп.(нет) Даже не потрудились шрифт похожий найти.</t>
+          <t>"Эх, зря только крылья давал!.."</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>z35TyKMV6ow.jpg</t>
+          <t>ZuoWl-YQaZs.jpg</t>
         </is>
       </c>
       <c r="H171">
-        <f>HYPERLINK("https://sun9-60.userapi.com/c855724/v855724346/1627ef/z35TyKMV6ow.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-41.userapi.com/c855728/v855728858/110edb/ZuoWl-YQaZs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>43781.89930555555</v>
+        <v>43739.56050925926</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>тогда чай</t>
+          <t>2020 )))</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>gYfuG1lFJYg.jpg</t>
+          <t>WOI5Td3XxYc.jpg</t>
         </is>
       </c>
       <c r="H172">
-        <f>HYPERLINK("https://sun9-37.userapi.com/c855724/v855724346/16278d/gYfuG1lFJYg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c858132/v858132594/8a586/WOI5Td3XxYc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>43781.85763888889</v>
-      </c>
-      <c r="B173" t="inlineStr"/>
+        <v>43740.96180555555</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Доставка прошлого</t>
+        </is>
+      </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Сосков в мире больше, чем людей</t>
+          <t>Продавец надёжный. Дошло быстро. Трек отслеживался. Упаковка повреждена.
+В подарок зачем то положили плоскогубцы.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>bMjNpwmF7Hc.jpg</t>
+          <t>l_pKTgCZwyk.jpg</t>
         </is>
       </c>
       <c r="H173">
-        <f>HYPERLINK("https://sun9-61.userapi.com/c855724/v855724346/162770/bMjNpwmF7Hc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-23.userapi.com/c858228/v858228570/8aaed/l_pKTgCZwyk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>43781.8368287037</v>
-      </c>
-      <c r="B174" t="inlineStr"/>
+        <v>43740.92013888889</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Такой одеколон был у многих</t>
+        </is>
+      </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Тем временем фанаты Сталкера:</t>
+          <t>он и сейчас есть</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5prldsWpFoM.jpg</t>
+          <t>X8SYoEzOVKQ.jpg</t>
         </is>
       </c>
       <c r="H174">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c855724/v855724346/162766/5prldsWpFoM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c850536/v850536179/1cb6b0/X8SYoEzOVKQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>43781.77430555555</v>
-      </c>
-      <c r="B175" t="inlineStr"/>
+        <v>43740.17013888889</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Учебное пособие</t>
+        </is>
+      </c>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Когда готовишь доклады через PowerPoint на мобиле</t>
+          <t>Нет больше завода. Эти артифакты свидетельствуют о том, что на этой территории не так давно была более высокоразвитая цивилизация.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>RjZ4d4KMpkE.jpg</t>
+          <t>smFbW8dOE1M.jpg</t>
         </is>
       </c>
       <c r="H175">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c853524/v853524297/162aba/RjZ4d4KMpkE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c853524/v853524469/1050a9/smFbW8dOE1M.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>43781.75349537037</v>
-      </c>
-      <c r="B176" t="inlineStr"/>
+        <v>43739.83680555555</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Все из нас съедали горбушку?</t>
+        </is>
+      </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Что-то тут не так</t>
+          <t>Это был хлеб ! а не то говно чем кормят народ сейчас...</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>3lDHOj6jYRY.jpg</t>
+          <t>DhpChQqtkrc.jpg</t>
         </is>
       </c>
       <c r="H176">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c857016/v857016527/43a33/3lDHOj6jYRY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-13.userapi.com/c855220/v855220581/100f81/DhpChQqtkrc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>43781.73263888889</v>
-      </c>
-      <c r="B177" t="inlineStr"/>
+        <v>43739.79513888889</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>У вас была такая?</t>
+        </is>
+      </c>
       <c r="C177" t="n">
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Для ещё большей локальности и сложности мема можно сделать C.mp3 и C.Flac)))</t>
+          <t>Козырёк ломался</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>mBciLcDmUtc.jpg</t>
+          <t>pS327eWl8WY.jpg</t>
         </is>
       </c>
       <c r="H177">
-        <f>HYPERLINK("https://sun9-25.userapi.com/c857016/v857016930/43d30/mBciLcDmUtc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-5.userapi.com/c858324/v858324755/82de1/pS327eWl8WY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>43781.71184027778</v>
-      </c>
-      <c r="B178" t="inlineStr"/>
+        <v>43739.50347222222</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Валентина Леонтьева. Любили ее программу?</t>
+        </is>
+      </c>
       <c r="C178" t="n">
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Щас бы бояться первоклашек</t>
+          <t>"Здравствуйте, дорогие ребята и уважаемые товарищи взрослые" ... Эх, тётя Валя ...
+Конечно, любили ... Ещё была передача "В гостях у сказки".</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>dCN9iZE1Iwg.jpg</t>
+          <t>47Hv_WUHl2Q.jpg</t>
         </is>
       </c>
       <c r="H178">
-        <f>HYPERLINK("https://sun9-6.userapi.com/c857016/v857016930/43d12/dCN9iZE1Iwg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-32.userapi.com/c851028/v851028737/1c541f/47Hv_WUHl2Q.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>43781.67013888889</v>
-      </c>
-      <c r="B179" t="inlineStr"/>
+        <v>43739.29513888889</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Дорожный утюг. Занимал мала места и всегда можно было выглядит, как говориться с иголочки.</t>
+        </is>
+      </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Гуманитарии: о, единственная шутка по геометрии, которую я понял</t>
+          <t>что не так с админом ?
+ему 5 лет ?</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>PiUQMDOvls0.jpg</t>
+          <t>Cn-QZB8p16c.jpg</t>
         </is>
       </c>
       <c r="H179">
-        <f>HYPERLINK("https://sun9-42.userapi.com/c857016/v857016527/43ac3/PiUQMDOvls0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-32.userapi.com/c855124/v855124378/102219/Cn-QZB8p16c.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>43781.64930555555</v>
-      </c>
-      <c r="B180" t="inlineStr"/>
+        <v>43740.87502314815</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Пионерские костры... В них мы жили до поры. Как давно всё это было. 
+Сердце трепетно забилось: Но ведь это было, было, не угасло, не забылось. 
+Память бережно хранит....</t>
+        </is>
+      </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>И русский солдат непонимает что он должен дать британцу</t>
+          <t>Было классно, романтично !!!</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1200</v>
+        <v>9</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>9LOobRr3XzY.jpg</t>
+          <t>yYIFDivFIZE.jpg</t>
         </is>
       </c>
       <c r="H180">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c857016/v857016527/43ab2/9LOobRr3XzY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-59.userapi.com/c851016/v851016473/1bfe70/yYIFDivFIZE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>43781.60763888889</v>
-      </c>
-      <c r="B181" t="inlineStr"/>
+        <v>43740.66675925926</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Дядя Володя в передаче "Спокойной ночи, малыши!" стал её первым ведущим, проработал в передаче 31 год.</t>
+        </is>
+      </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>А на 0 он поставил работу, ибо без деняг телка съебет</t>
+          <t>Т. Валя,д. Володя ,с их участием в любой передаче,вспоминаю с теплотой и любовью.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>xKNXy9bG0f4.jpg</t>
+          <t>GMTYhG-WXRo.jpg</t>
         </is>
       </c>
       <c r="H181">
-        <f>HYPERLINK("https://sun9-44.userapi.com/c857016/v857016527/43a6e/xKNXy9bG0f4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-47.userapi.com/c851016/v851016473/1bfe47/GMTYhG-WXRo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>43781.58681712963</v>
-      </c>
-      <c r="B182" t="inlineStr"/>
+        <v>43740.54172453703</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Сегодня таких добрых детских картин уже не снимают! Показывайте детям больше хороших фильмов!</t>
+        </is>
+      </c>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Компьютер в этот момент:</t>
+          <t>Сегодня вообще детских картин не снимают.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>I8KTx0gcnh4.jpg</t>
+          <t>IjUABdji7Hs.jpg</t>
         </is>
       </c>
       <c r="H182">
-        <f>HYPERLINK("https://sun9-37.userapi.com/c856020/v856020745/169fbe/I8KTx0gcnh4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-14.userapi.com/c851016/v851016473/1bfe3e/IjUABdji7Hs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>43781.51388888889</v>
-      </c>
-      <c r="B183" t="inlineStr"/>
+        <v>43740.41674768519</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Вот они Советские спорсмены! Как это возможно?😊</t>
+        </is>
+      </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Я на уроке биологии даже микроскоп не вижу</t>
+          <t>Потому Европа и бесится,что наши всегда лучшие!!! И от злобы не знают какую ещё бы пакость сделать....</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>qekIy22A_W4.jpg</t>
+          <t>iTQ9Po52row.jpg</t>
         </is>
       </c>
       <c r="H183">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c856520/v856520527/42cb8/qekIy22A_W4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c851016/v851016473/1bfe34/iTQ9Po52row.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>43781.37515046296</v>
-      </c>
-      <c r="B184" t="inlineStr"/>
+        <v>43740.29170138889</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Великолепная комедия! Знаешь наизусть, а смотришь с удовольствием! Ну разве не шедевр! 
+А ведь никого из этих прекрасных актеров в живых нет. Грустно.</t>
+        </is>
+      </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Доктор физических наук</t>
+          <t>Качество и отношение к людям в то время было хорошее, кино было для людей и про людей и на вечно, как тот знак "Сделано в СССР" , а не для коммерции.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>wbGlkGW6H4w.jpg</t>
+          <t>fz7IV9tql2A.jpg</t>
         </is>
       </c>
       <c r="H184">
-        <f>HYPERLINK("https://sun9-49.userapi.com/c858016/v858016855/ebc77/wbGlkGW6H4w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-72.userapi.com/c851016/v851016473/1bfe21/fz7IV9tql2A.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>43781.33347222222</v>
-      </c>
-      <c r="B185" t="inlineStr"/>
+        <v>43739.87501157408</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Да, это был наш, Союз Советских социалистических Республик</t>
+        </is>
+      </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Когда хотел прожить долгую и счастливую жизнь, а в итоге был убит своими же клыками</t>
+          <t>Каждое лето,из Иркутска в Калининскую область,мы ездили к бабуле😊,самое счастливое детство у меня было!👍</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>flrwSPPfEVc.jpg</t>
+          <t>qInJdMzpZqE.jpg</t>
         </is>
       </c>
       <c r="H185">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c856520/v856520855/450a8/flrwSPPfEVc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-19.userapi.com/c851016/v851016473/1bfe1a/qInJdMzpZqE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>43780.97916666666</v>
+        <v>43739.79168981482</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>страшный сон Менделеева</t>
+          <t>Прости нас товарищ Сталин ... просрали мы великую страну. Капля вины почти на каждом висит... где то струсили где - то промолчали... 😔😞😥</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Тот случай, когда страх объединил гуманитариев и технарей.</t>
+          <t>Да ГАД пятнистый обманул всех</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>oxgRpRURdlo.jpg</t>
+          <t>gXhYJdJ2lVc.jpg</t>
         </is>
       </c>
       <c r="H186">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c855428/v855428323/165634/oxgRpRURdlo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c851016/v851016473/1bfe13/gXhYJdJ2lVc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>43780.95837962963</v>
-      </c>
-      <c r="B187" t="inlineStr"/>
+        <v>43739.66668981482</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>А классам, сдавшим наибольшее количество макулатуры, на торжественной линейке вручали грамоты. И все были несказанно счастливы!</t>
+        </is>
+      </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Не друг а товарищ</t>
+          <t>Очень нужное дело делали.Ск.лесов было сохранено благодаря тому что в школах собирали мускулатуру.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>313</v>
+        <v>3</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>hRJGoRV_zow.jpg</t>
+          <t>M7xO6sad3_U.jpg</t>
         </is>
       </c>
       <c r="H187">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c855428/v855428323/165600/hRJGoRV_zow.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-43.userapi.com/c851016/v851016473/1bfe0c/M7xO6sad3_U.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>43780.90438657408</v>
-      </c>
-      <c r="B188" t="inlineStr"/>
+        <v>43739.54168981482</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Показательно, что несмотря на то, что каждую осень почти половину первого семестра студенты проводили на картофельных полях, высокий уровень высшего образования той поры был и есть вне сомнения. 
+А вы ездили на уборку картошки ?</t>
+        </is>
+      </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Тут как бы да...</t>
+          <t>Конечно , очень хорошое было время !!!!</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>rjWogov-umo.jpg</t>
+          <t>lkc8jOTDb7Q.jpg</t>
         </is>
       </c>
       <c r="H188">
-        <f>HYPERLINK("https://sun9-9.userapi.com/c853516/v853516129/165571/rjWogov-umo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c851016/v851016473/1bfe04/lkc8jOTDb7Q.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>43780.89585648148</v>
-      </c>
-      <c r="B189" t="inlineStr"/>
+        <v>43739.41668981482</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>В прославленной семье Меньшовых все личности яркие и харизматичные.😎</t>
+        </is>
+      </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Изучать Московский язык в России</t>
+          <t>Восхительные люди!!! Наши!!! Советские!!!!</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2kmQLZOgUqg.jpg</t>
+          <t>A_djhuK-fME.jpg</t>
         </is>
       </c>
       <c r="H189">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c855428/v855428706/163b62/2kmQLZOgUqg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-52.userapi.com/c851016/v851016473/1bfdfd/A_djhuK-fME.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>43780.72921296296</v>
-      </c>
-      <c r="B190" t="inlineStr"/>
+        <v>43739.29167824074</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Как ни удивительно, но основателем "Зарницы" стала девушка - пионервожатая сельской школы Краснокамского района Пермской области Зоя Кротова. Интересно, что у самой популярной в СССР игры не было единых правил. Играли в зарницу?</t>
+        </is>
+      </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Разработчики: *Делают игры с возрастными ограничениями 18+/16+, зная, что большинство пользователей интернета–дети*
-Дети: играют в эту игру
-Разработчики:</t>
+          <t>Ещё как! Даже те, кого теперь ботанами считают. Нехотя, ни шатко, ни валко поначалу, а как в азарт войдут - держите бабушку семеро!</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>0igA6thkeFo.jpg</t>
+          <t>6r0BHY87Rds.jpg</t>
         </is>
       </c>
       <c r="H190">
-        <f>HYPERLINK("https://sun9-39.userapi.com/c857724/v857724731/e3ebc/0igA6thkeFo.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>43780.66680555556</v>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>67</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Гуманитарий: 1 -&gt; 0.5</t>
-        </is>
-      </c>
-      <c r="F191" t="n">
-        <v>347</v>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>FxFYDARJom4.jpg</t>
-        </is>
-      </c>
-      <c r="H191">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c857232/v857232979/40b5c/FxFYDARJom4.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>43780.62516203704</v>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>91</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Писать у себя в голове:</t>
-        </is>
-      </c>
-      <c r="F192" t="n">
-        <v>256</v>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>pzI8oyFSu4Q.jpg</t>
-        </is>
-      </c>
-      <c r="H192">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c855328/v855328765/160139/pzI8oyFSu4Q.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>43780.60420138889</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>эволюция Германии</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
-        <v>74</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Большинство людей знают про Германию только то, что там родился Гитлер. И то на самом деле он родился в Австрии</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>225</v>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>MCM7s0qsqBc.jpg</t>
-        </is>
-      </c>
-      <c r="H193">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c857232/v857232979/40b0e/MCM7s0qsqBc.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>43780.5834375</v>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>42</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>В чём причина, в чём беда: прогнившая система образования или да?</t>
-        </is>
-      </c>
-      <c r="F194" t="n">
-        <v>184</v>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>BUDws8VHPv0.jpg</t>
-        </is>
-      </c>
-      <c r="H194">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c855620/v855620826/15751f/BUDws8VHPv0.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>43780.56252314815</v>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>71</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Притвориться мёртвым и не идти на экзамен</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>145</v>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>HtW-neqhnrQ.jpg</t>
-        </is>
-      </c>
-      <c r="H195">
-        <f>HYPERLINK("https://sun9-64.userapi.com/c857232/v857232979/40b49/HtW-neqhnrQ.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>43780.54177083333</v>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>80</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>А потом технарь берёт братву и пиздит гуманитария</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>167</v>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>f1SIiDCjlGM.jpg</t>
-        </is>
-      </c>
-      <c r="H196">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c855620/v855620826/157515/f1SIiDCjlGM.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>43780.52085648148</v>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>70</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Вода в привычном нам состоянии</t>
-        </is>
-      </c>
-      <c r="F197" t="n">
-        <v>343</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>AFGE2InNuCk.jpg</t>
-        </is>
-      </c>
-      <c r="H197">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c855124/v855124098/1640c0/AFGE2InNuCk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>43780.50763888889</v>
-      </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>49</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Значит у черепа кота все нормально</t>
-        </is>
-      </c>
-      <c r="F198" t="n">
-        <v>297</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>KoOsKk1ido0.jpg</t>
-        </is>
-      </c>
-      <c r="H198">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c853424/v853424098/15e447/KoOsKk1ido0.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>43780.4949537037</v>
-      </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
-        <v>87</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>or
-or
-or
-or
-ORA ORA ORA ORA</t>
-        </is>
-      </c>
-      <c r="F199" t="n">
-        <v>265</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>NCxUpDNtIpE.jpg</t>
-        </is>
-      </c>
-      <c r="H199">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c855132/v855132358/16235a/NCxUpDNtIpE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>43780.47917824074</v>
-      </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>61</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Значит Пину тоже недолго осталось жить</t>
-        </is>
-      </c>
-      <c r="F200" t="n">
-        <v>194</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>x6ZqCX7Da3Q.jpg</t>
-        </is>
-      </c>
-      <c r="H200">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c857028/v857028098/3f6be/x6ZqCX7Da3Q.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>43780.45846064815</v>
-      </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>65</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Работаешь за капеечки</t>
-        </is>
-      </c>
-      <c r="F201" t="n">
-        <v>93</v>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>-3xL7A6M6nk.jpg</t>
-        </is>
-      </c>
-      <c r="H201">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c857028/v857028098/3f672/-3xL7A6M6nk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>43780.37512731482</v>
-      </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" t="n">
-        <v>260</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Зелёно-буро-яблочный</t>
-        </is>
-      </c>
-      <c r="F202" t="n">
-        <v>245</v>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>iYuQCAlr17M.jpg</t>
-        </is>
-      </c>
-      <c r="H202">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c855328/v855328765/1600b2/iYuQCAlr17M.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>43780.3334837963</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>удивительный язык тела</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>60</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Советские дети не разжимали руки</t>
-        </is>
-      </c>
-      <c r="F203" t="n">
-        <v>191</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>AuJE3mOHFw8.jpg</t>
-        </is>
-      </c>
-      <c r="H203">
-        <f>HYPERLINK("https://sun9-48.userapi.com/c855328/v855328765/16015c/AuJE3mOHFw8.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>43779.97916666666</v>
-      </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>109</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Люди , которые напишут , что в Китае нет коммунизма</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>113</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>koEUy6Q594c.jpg</t>
-        </is>
-      </c>
-      <c r="H204">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c855732/v855732367/15ba52/koEUy6Q594c.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>43779.91672453703</v>
-      </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" t="n">
-        <v>100</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Официально доказаны только два последних способа! Примите к сведению 😕</t>
-        </is>
-      </c>
-      <c r="F205" t="n">
-        <v>140</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>LeHvm5pdw5A.jpg</t>
-        </is>
-      </c>
-      <c r="H205">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c855732/v855732874/15f09c/LeHvm5pdw5A.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>43779.85418981482</v>
-      </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>63</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Тупые гуманитарии не поймут)</t>
-        </is>
-      </c>
-      <c r="F206" t="n">
-        <v>74</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Q6BeZefKvcE.jpg</t>
-        </is>
-      </c>
-      <c r="H206">
-        <f>HYPERLINK("https://sun9-29.userapi.com/c855732/v855732874/15f04f/Q6BeZefKvcE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>43779.79179398148</v>
-      </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>97</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Топ 10 пранков , вышедших из под контроля.</t>
-        </is>
-      </c>
-      <c r="F207" t="n">
-        <v>420</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>G4uzplkreyw.jpg</t>
-        </is>
-      </c>
-      <c r="H207">
-        <f>HYPERLINK("https://sun9-25.userapi.com/c858324/v858324874/df698/G4uzplkreyw.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>43779.4584837963</v>
-      </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>102</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Посол: *говорит о всякой чепухе*
-Спецслужбы СССР:</t>
-        </is>
-      </c>
-      <c r="F208" t="n">
-        <v>633</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>voAxUpPBLFE.jpg</t>
-        </is>
-      </c>
-      <c r="H208">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c855336/v855336531/15bed0/voAxUpPBLFE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>43782.78819444445</v>
-      </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>140</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Хм я один увидел что это не наушники</t>
-        </is>
-      </c>
-      <c r="F209" t="n">
-        <v>24</v>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>MLlsPVwlFQs.jpg</t>
-        </is>
-      </c>
-      <c r="H209">
-        <f>HYPERLINK("https://sun9-11.userapi.com/c857328/v857328171/45f75/MLlsPVwlFQs.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>43782.24652777778</v>
-      </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
-        <v>81</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Ты визунчик,ты увидел ходящий(живой шкаф</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v>62</v>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>uP5kDN_ehLM.jpg</t>
-        </is>
-      </c>
-      <c r="H210">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c857328/v857328067/45941/uP5kDN_ehLM.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>43781.70208333333</v>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>48</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Их спавнят</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v>27</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>BLuW-H9b0SM.jpg</t>
-        </is>
-      </c>
-      <c r="H211">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c858032/v858032704/e6965/BLuW-H9b0SM.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>43781.53541666667</v>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>108</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Киллер</t>
-        </is>
-      </c>
-      <c r="F212" t="n">
-        <v>11</v>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>oga-lExJ9XE.jpg</t>
-        </is>
-      </c>
-      <c r="H212">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c858032/v858032704/e6945/oga-lExJ9XE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>43781.36875</v>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>38</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Беспроводные наушники</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
-        <v>17</v>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>WJf_JLfxxOE.jpg</t>
-        </is>
-      </c>
-      <c r="H213">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c858032/v858032704/e6923/WJf_JLfxxOE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>43780.83263888889</v>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>71</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>В последний квадрат надо вставить те кто делает эти посты</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v>18</v>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>ZwJjX9Kjk-M.jpg</t>
-        </is>
-      </c>
-      <c r="H214">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c856128/v856128582/163dd1/ZwJjX9Kjk-M.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>43779.91527777778</v>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" t="n">
-        <v>26</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Я одна не усатый мужик из лентяево?</t>
-        </is>
-      </c>
-      <c r="F215" t="n">
-        <v>21</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>d_vRszpnGGk.jpg</t>
-        </is>
-      </c>
-      <c r="H215">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c857636/v857636693/d9237/d_vRszpnGGk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>43779.79027777778</v>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
-        <v>21</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Как в 4 айфон залить синтол чтоб он в 6 превратился (рецепт в лс жду)</t>
-        </is>
-      </c>
-      <c r="F216" t="n">
-        <v>16</v>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>D-EA82yfnyg.jpg</t>
-        </is>
-      </c>
-      <c r="H216">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c857636/v857636693/d9200/D-EA82yfnyg.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>43782.78333333333</v>
-      </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" t="n">
-        <v>12</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Зимой будет отключатся</t>
-        </is>
-      </c>
-      <c r="F217" t="n">
-        <v>18</v>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>wnE94ZmOX0o.jpg</t>
-        </is>
-      </c>
-      <c r="H217">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c7007/v7007241/45205/wnE94ZmOX0o.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>43782.5125</v>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>7</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>А потом :"Чет не наелась, ещё хочу"</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v>16</v>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>4_81YCC2sjU.jpg</t>
-        </is>
-      </c>
-      <c r="H218">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c7007/v7007032/57ec2/4_81YCC2sjU.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>43782.42916666667</v>
-      </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" t="n">
-        <v>4</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>*звуки смеха*</t>
-        </is>
-      </c>
-      <c r="F219" t="n">
-        <v>12</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>dHRgBIvHMAs.jpg</t>
-        </is>
-      </c>
-      <c r="H219">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c7007/v7007154/4a113/dHRgBIvHMAs.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>43782.2625</v>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>14</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Въеби говна на</t>
-        </is>
-      </c>
-      <c r="F220" t="n">
-        <v>87</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>3q-KQM50i-k.jpg</t>
-        </is>
-      </c>
-      <c r="H220">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c7007/v7007378/9a442/3q-KQM50i-k.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>43782.22083333333</v>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
-        <v>8</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Казалось бы, причем тут Украина🤔🤔🤔</t>
-        </is>
-      </c>
-      <c r="F221" t="n">
-        <v>21</v>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>3jRTyDUEi7E.jpg</t>
-        </is>
-      </c>
-      <c r="H221">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c7007/v7007895/3dd29/3jRTyDUEi7E.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>43781.95</v>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>7</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Принц Гарри на душе в этот момент:</t>
-        </is>
-      </c>
-      <c r="F222" t="n">
-        <v>48</v>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>PG_qZoV3qxk.jpg</t>
-        </is>
-      </c>
-      <c r="H222">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c7007/v7007855/3ec97/PG_qZoV3qxk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>43781.67916666667</v>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" t="n">
-        <v>13</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>На три</t>
-        </is>
-      </c>
-      <c r="F223" t="n">
-        <v>11</v>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>2yldVqVBvjk.jpg</t>
-        </is>
-      </c>
-      <c r="H223">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c7007/v7007636/55a51/2yldVqVBvjk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>43781.575</v>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="n">
-        <v>75</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Ну ёбана
-Я, видать, не девушка</t>
-        </is>
-      </c>
-      <c r="F224" t="n">
-        <v>33</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>7G1pcNQequ4.jpg</t>
-        </is>
-      </c>
-      <c r="H224">
-        <f>HYPERLINK("https://sun9-28.userapi.com/c7007/v7007410/4f999/7G1pcNQequ4.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>43780.86666666667</v>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>12</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Это они озеро Титикака не слышали</t>
-        </is>
-      </c>
-      <c r="F225" t="n">
-        <v>17</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>SC83hp6QEGg.jpg</t>
-        </is>
-      </c>
-      <c r="H225">
-        <f>HYPERLINK("https://sun9-31.userapi.com/c7007/v7007950/51fdf/SC83hp6QEGg.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>43780.84583333333</v>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" t="n">
-        <v>10</v>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Мать</t>
-        </is>
-      </c>
-      <c r="F226" t="n">
-        <v>12</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>6QV-5s_O5GU.jpg</t>
-        </is>
-      </c>
-      <c r="H226">
-        <f>HYPERLINK("https://sun9-51.userapi.com/c7007/v7007950/51fd8/6QV-5s_O5GU.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>43780.80416666667</v>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>19</v>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Учитель: Откройте учебник...
-Одиннацатиклассники:</t>
-        </is>
-      </c>
-      <c r="F227" t="n">
-        <v>213</v>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>sh6a7gtK_4c.jpg</t>
-        </is>
-      </c>
-      <c r="H227">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c7007/v7007236/643b8/sh6a7gtK_4c.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>43780.575</v>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" t="n">
-        <v>17</v>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>жиза, если да, то ставим классы👍🏻👍🏻👍🏻</t>
-        </is>
-      </c>
-      <c r="F228" t="n">
-        <v>16</v>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>E4qcNuR21XY.jpg</t>
-        </is>
-      </c>
-      <c r="H228">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c7007/v7007115/47dd0/E4qcNuR21XY.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>43780.55416666667</v>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>5</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>А в этой истории ты облевала кровать после бухича 👍</t>
-        </is>
-      </c>
-      <c r="F229" t="n">
-        <v>18</v>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>UHQPfZhOfk4.jpg</t>
-        </is>
-      </c>
-      <c r="H229">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c7007/v7007115/47dbf/UHQPfZhOfk4.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>43780.34583333333</v>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>5</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>В чем радость иметь большие сиськи? :/</t>
-        </is>
-      </c>
-      <c r="F230" t="n">
-        <v>14</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>RbYZc8xOCKo.jpg</t>
-        </is>
-      </c>
-      <c r="H230">
-        <f>HYPERLINK("https://sun9-11.userapi.com/c7007/v7007416/7b964/RbYZc8xOCKo.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>43780.22083333333</v>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>8</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Я конечно всё понимаю
-Но при чём тут Вайбер?</t>
-        </is>
-      </c>
-      <c r="F231" t="n">
-        <v>25</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>hPXfV__3iqw.jpg</t>
-        </is>
-      </c>
-      <c r="H231">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c7007/v7007482/37f42/hPXfV__3iqw.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>43780.05416666667</v>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" t="n">
-        <v>4</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Гризельда херни не скажет</t>
-        </is>
-      </c>
-      <c r="F232" t="n">
-        <v>14</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>TB3RIIl14gw.jpg</t>
-        </is>
-      </c>
-      <c r="H232">
-        <f>HYPERLINK("https://sun9-29.userapi.com/c7007/v7007426/44bd9/TB3RIIl14gw.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>43779.8875</v>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>34</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Что тогда дебилы, что сейчас</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>18</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>ZSN04Ga1lLk.jpg</t>
-        </is>
-      </c>
-      <c r="H233">
-        <f>HYPERLINK("https://sun9-17.userapi.com/c7007/v7007979/4f1d7/ZSN04Ga1lLk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>43779.80416666667</v>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
-        <v>9</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Директор по свежести выглядит так же свежо, как и продукты в пятерочке</t>
-        </is>
-      </c>
-      <c r="F234" t="n">
-        <v>38</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>Lbt9fCKkAbE.jpg</t>
-        </is>
-      </c>
-      <c r="H234">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c7007/v7007303/4540e/Lbt9fCKkAbE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>43779.78333333333</v>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>7</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>То есть, чтобы понять этот мем мне надо учить геометрию?</t>
-        </is>
-      </c>
-      <c r="F235" t="n">
-        <v>34</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Kq5tOZVCSio.jpg</t>
-        </is>
-      </c>
-      <c r="H235">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c7007/v7007514/4503a/Kq5tOZVCSio.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>43779.74166666667</v>
-      </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Таксисты до дома уже не довозят?</t>
-        </is>
-      </c>
-      <c r="F236" t="n">
-        <v>20</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>VQCfSNGHjwE.jpg</t>
-        </is>
-      </c>
-      <c r="H236">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c7007/v7007313/49f9d/VQCfSNGHjwE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>43781.54167824074</v>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" t="n">
-        <v>30</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Ахуенный стих</t>
-        </is>
-      </c>
-      <c r="F237" t="n">
-        <v>14</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>lQno-1v0uTA.jpg</t>
-        </is>
-      </c>
-      <c r="H237">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c543103/v543103925/5eec2/lQno-1v0uTA.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>43779.70837962963</v>
-      </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="n">
-        <v>0</v>
-      </c>
-      <c r="D238" t="n">
-        <v>21</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>А бате послал тебя к мамке</t>
-        </is>
-      </c>
-      <c r="F238" t="n">
-        <v>11</v>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>MoIFIiKtFyI.jpg</t>
-        </is>
-      </c>
-      <c r="H238">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c543103/v543103925/5ee6c/MoIFIiKtFyI.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>43782.64652777778</v>
-      </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="n">
-        <v>0</v>
-      </c>
-      <c r="D239" t="n">
-        <v>36</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Да вы суицидники!</t>
-        </is>
-      </c>
-      <c r="F239" t="n">
-        <v>14</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>OJ5OL7Fp4sk.jpg</t>
-        </is>
-      </c>
-      <c r="H239">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c855128/v855128163/155106/OJ5OL7Fp4sk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>43782.53680555556</v>
-      </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="n">
-        <v>0</v>
-      </c>
-      <c r="D240" t="n">
-        <v>34</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Реальность полна разочарований</t>
-        </is>
-      </c>
-      <c r="F240" t="n">
-        <v>19</v>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>QuxWyEKKqvk.jpg</t>
-        </is>
-      </c>
-      <c r="H240">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c856136/v856136163/14d1bb/QuxWyEKKqvk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>43782.43888888889</v>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="n">
-        <v>0</v>
-      </c>
-      <c r="D241" t="n">
-        <v>25</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Вообще не идти в школу</t>
-        </is>
-      </c>
-      <c r="F241" t="n">
-        <v>48</v>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>DtO70Sdn5dc.jpg</t>
-        </is>
-      </c>
-      <c r="H241">
-        <f>HYPERLINK("https://sun9-28.userapi.com/c858420/v858420163/e74ef/DtO70Sdn5dc.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>43782.37638888889</v>
-      </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" t="n">
-        <v>76</v>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>спасатели из России</t>
-        </is>
-      </c>
-      <c r="F242" t="n">
-        <v>181</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>97ij13pvOjE.jpg</t>
-        </is>
-      </c>
-      <c r="H242">
-        <f>HYPERLINK("https://sun9-25.userapi.com/c850416/v850416163/13b537/97ij13pvOjE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>43781.93819444445</v>
-      </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="n">
-        <v>0</v>
-      </c>
-      <c r="D243" t="n">
-        <v>71</v>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Я сначало не заметил, что это наоборот</t>
-        </is>
-      </c>
-      <c r="F243" t="n">
-        <v>120</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>4q8Vr0PlRG0.jpg</t>
-        </is>
-      </c>
-      <c r="H243">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c857532/v857532218/dda5c/4q8Vr0PlRG0.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>43781.81388888889</v>
-      </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>76</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Согласен обожаю домашку, продам душу ради неё</t>
-        </is>
-      </c>
-      <c r="F244" t="n">
-        <v>14</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>m0U0X9onPjw.jpg</t>
-        </is>
-      </c>
-      <c r="H244">
-        <f>HYPERLINK("https://sun9-33.userapi.com/c855420/v855420218/15a014/m0U0X9onPjw.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>43781.75494212963</v>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="n">
-        <v>0</v>
-      </c>
-      <c r="D245" t="n">
-        <v>62</v>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Я так торт ем</t>
-        </is>
-      </c>
-      <c r="F245" t="n">
-        <v>31</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>MZKBoXvH22k.jpg</t>
-        </is>
-      </c>
-      <c r="H245">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c856132/v856132218/15640f/MZKBoXvH22k.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>43781.70569444444</v>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="n">
-        <v>0</v>
-      </c>
-      <c r="D246" t="n">
-        <v>54</v>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Ну хоть не в те времена, когда люди вместо смс обменивались чумой</t>
-        </is>
-      </c>
-      <c r="F246" t="n">
-        <v>56</v>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>BnSN3dozYng.jpg</t>
-        </is>
-      </c>
-      <c r="H246">
-        <f>HYPERLINK("https://sun9-21.userapi.com/c854228/v854228972/15edbf/BnSN3dozYng.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>43780.93888888889</v>
-      </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" t="n">
-        <v>27</v>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Смишно что пиздец удоляйтн пост нахуй</t>
-        </is>
-      </c>
-      <c r="F247" t="n">
-        <v>12</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>JKCVPGKTz-A.jpg</t>
-        </is>
-      </c>
-      <c r="H247">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c858520/v858520226/41d2f/JKCVPGKTz-A.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>43780.87640046296</v>
-      </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" t="n">
-        <v>29</v>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Это от счастья.</t>
-        </is>
-      </c>
-      <c r="F248" t="n">
-        <v>53</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>sWlSTZFwapE.jpg</t>
-        </is>
-      </c>
-      <c r="H248">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c858532/v858532226/409c6/sWlSTZFwapE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>43780.45974537037</v>
-      </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="n">
-        <v>0</v>
-      </c>
-      <c r="D249" t="n">
-        <v>22</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Так правильно</t>
-        </is>
-      </c>
-      <c r="F249" t="n">
-        <v>15</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>V1TmFx3Ptdg.jpg</t>
-        </is>
-      </c>
-      <c r="H249">
-        <f>HYPERLINK("https://sun9-45.userapi.com/c855532/v855532226/160e94/V1TmFx3Ptdg.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>43779.79652777778</v>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="n">
-        <v>0</v>
-      </c>
-      <c r="D250" t="n">
-        <v>90</v>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Владислав 14 лет проснулся</t>
-        </is>
-      </c>
-      <c r="F250" t="n">
-        <v>49</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>7JNaMN-Tuq0.jpg</t>
-        </is>
-      </c>
-      <c r="H250">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c855736/v855736614/15f122/7JNaMN-Tuq0.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>43779.68958333333</v>
-      </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="n">
-        <v>0</v>
-      </c>
-      <c r="D251" t="n">
-        <v>57</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Или же сваливаешь из Рашки</t>
-        </is>
-      </c>
-      <c r="F251" t="n">
-        <v>19</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>VgcmgmFRvSk.jpg</t>
-        </is>
-      </c>
-      <c r="H251">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c857636/v857636614/d7342/VgcmgmFRvSk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>43779.58819444444</v>
-      </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="n">
-        <v>0</v>
-      </c>
-      <c r="D252" t="n">
-        <v>37</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Бесит когда мало задают</t>
-        </is>
-      </c>
-      <c r="F252" t="n">
-        <v>34</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>VVuMIFcpHLU.jpg</t>
-        </is>
-      </c>
-      <c r="H252">
-        <f>HYPERLINK("https://sun9-26.userapi.com/c857128/v857128614/40290/VVuMIFcpHLU.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>43779.56458333333</v>
-      </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="n">
-        <v>0</v>
-      </c>
-      <c r="D253" t="n">
-        <v>54</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>А мама хотела расслабиться без.сына🤣🤣</t>
-        </is>
-      </c>
-      <c r="F253" t="n">
-        <v>25</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>4PXnpsEuEW8.jpg</t>
-        </is>
-      </c>
-      <c r="H253">
-        <f>HYPERLINK("https://sun9-61.userapi.com/c853528/v853528614/1576e9/4PXnpsEuEW8.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>43779.43958333333</v>
-      </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="n">
-        <v>0</v>
-      </c>
-      <c r="D254" t="n">
-        <v>36</v>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Никто не задумывался, что этот парень никогда ничего не говорит</t>
-        </is>
-      </c>
-      <c r="F254" t="n">
-        <v>71</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>WI5-8SGHWrY.jpg</t>
-        </is>
-      </c>
-      <c r="H254">
-        <f>HYPERLINK("https://sun9-49.userapi.com/c855628/v855628614/15731c/WI5-8SGHWrY.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>43782.85234953704</v>
-      </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="n">
-        <v>0</v>
-      </c>
-      <c r="D255" t="n">
-        <v>17</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Идут по лесу дюймовочка, белоснежка и х*есос. Дюймовочка говорит: "Я самая маленькая на Земле". Белоснежка говорит: "Я самая красивая на земле". Хуесос говорит: "Я больше всех отсосал х*ев". Идут они, в общем, и заходят в Дом Правды. Дюймовочка в слезах выбегает и говорит: "Блин-блин, я не самая маленькая на Земле. Меньше меня Мальчик-спальчик". Белоснежка тоже выбегает в слезах и кричит: "Черт, я не сама красивая. Красивее меня Спящая Красавица". Выходит злой х*есос и говорит: "Сука, кто такой админ?"</t>
-        </is>
-      </c>
-      <c r="F255" t="n">
-        <v>28</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>OG-ELdIa8QE.jpg</t>
-        </is>
-      </c>
-      <c r="H255">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c853624/v853624787/16c9ff/OG-ELdIa8QE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>43781.55555555555</v>
-      </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="n">
-        <v>0</v>
-      </c>
-      <c r="D256" t="n">
-        <v>230</v>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Блин ряльно жалка пацана он же делал хорошее только ну а как он пчел призывал это же вообще чудо</t>
-        </is>
-      </c>
-      <c r="F256" t="n">
-        <v>172</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>uuVHLfUPzSM.jpg</t>
-        </is>
-      </c>
-      <c r="H256">
-        <f>HYPERLINK("https://sun9-63.userapi.com/c855224/v855224023/162732/uuVHLfUPzSM.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>43781.43055555555</v>
-      </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="n">
-        <v>0</v>
-      </c>
-      <c r="D257" t="n">
-        <v>14</v>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Ограбление банка и домашний арест. Серьёзно?</t>
-        </is>
-      </c>
-      <c r="F257" t="n">
-        <v>21</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>3oQTqpt1lrA.jpg</t>
-        </is>
-      </c>
-      <c r="H257">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c855224/v855224023/162739/3oQTqpt1lrA.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>43781.30555555555</v>
-      </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="n">
-        <v>0</v>
-      </c>
-      <c r="D258" t="n">
-        <v>46</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Лучшая фейковая новость в моей жизни</t>
-        </is>
-      </c>
-      <c r="F258" t="n">
-        <v>205</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>uzn1dW-wd7o.jpg</t>
-        </is>
-      </c>
-      <c r="H258">
-        <f>HYPERLINK("https://sun9-41.userapi.com/c855224/v855224023/162741/uzn1dW-wd7o.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>43780.66811342593</v>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="n">
-        <v>0</v>
-      </c>
-      <c r="D259" t="n">
-        <v>24</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Никого не смущает, блять, что это, ПАПА!?!?</t>
-        </is>
-      </c>
-      <c r="F259" t="n">
-        <v>29</v>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>w5wROB0kXNc.jpg</t>
-        </is>
-      </c>
-      <c r="H259">
-        <f>HYPERLINK("https://sun9-6.userapi.com/c855336/v855336268/16673b/w5wROB0kXNc.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>43780.2853587963</v>
-      </c>
-      <c r="B260" t="inlineStr"/>
-      <c r="C260" t="n">
-        <v>0</v>
-      </c>
-      <c r="D260" t="n">
-        <v>28</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Как туда попал аквалангист?</t>
-        </is>
-      </c>
-      <c r="F260" t="n">
-        <v>11</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>j4nLGRW2FHE.jpg</t>
-        </is>
-      </c>
-      <c r="H260">
-        <f>HYPERLINK("https://sun9-65.userapi.com/c855336/v855336268/166722/j4nLGRW2FHE.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>43779.79386574074</v>
-      </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="n">
-        <v>0</v>
-      </c>
-      <c r="D261" t="n">
-        <v>31</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Куда ушёл этот кот?
-Кот:</t>
-        </is>
-      </c>
-      <c r="F261" t="n">
-        <v>24</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>gbu_Yd6fVtk.jpg</t>
-        </is>
-      </c>
-      <c r="H261">
-        <f>HYPERLINK("https://sun9-65.userapi.com/c855236/v855236391/15d0f4/gbu_Yd6fVtk.jpg", "Ссылка на Объект")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>43779.71137731482</v>
-      </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="n">
-        <v>0</v>
-      </c>
-      <c r="D262" t="n">
-        <v>19</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Самая уебанская запятая, которую я видел</t>
-        </is>
-      </c>
-      <c r="F262" t="n">
-        <v>52</v>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>L6BLDkVFgEI.jpg</t>
-        </is>
-      </c>
-      <c r="H262">
-        <f>HYPERLINK("https://sun9-37.userapi.com/c855236/v855236391/15d0eb/L6BLDkVFgEI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-57.userapi.com/c851016/v851016473/1bfde1/6r0BHY87Rds.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>

--- a/VkPicParser/VK_list.xlsx
+++ b/VkPicParser/VK_list.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,922 +400,811 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43740.89585648148</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>43577.57640046296</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>точно !</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Галина Вишневская: 
-"Я и вообразить себе не могла численность господствующего класса в Советском Союзе. Часто, стоя в Георгиевском зале Кремлевского дворца у банкетного стола, заваленного метровыми осетрами, лоснящимися окороками, зернистой икрой, и поднимая со всеми вместе хрустальный бокал за счастливую жизнь советского народа, я с любопытством рассматривала оплывшие, обрюзгшие физиономии самоизбранных руководителей государства, усердно жующих, истово уничтожающих все эти великолепные натюрморты. Я вспоминала свои недавние скитания по огромной стране, с ее чудовищным бытом, непролазной грязью и невообразимо низким, буквально нищенским уровнем жизни народа, и невольно думала, что эти опьяненные властью, самодовольные, отупевшие от еды и питья люди, в сущности, живут в другом государстве, построенном ими для себя, для многотысячной орды, внутри завоеванной России, эксплуатируя на свою потребу ее нищий обозленный народ. У них свои закрытые продовольственные и промтоварные магазины, портняжные и сапожные мастерские, со здоровенными вышибалами-охранниками в дверях, где всё самого высокого качества и по ценам намного ниже официальных цен для народа. Они живут в великолепных бесплатных квартирах и дачах с целым штатом прислуги, у всех машины с шофером, и не только для них, но и для членов семей. К их услугам бывшие царские дворцы в Крыму и на Кавказе, превращенные специально для них в санатории, свои больницы, дома отдыха… В собственном «внутреннем государстве» есть всё. Искренне уверовав в свою божественную исключительность, они надменно, брезгливо не смешиваются с жизнью советских смердов, надежно отгородившись от них высокими непроницаемыми заборами государственных дач. В театрах для них отдельные ложи со специальным выходом на улицу, и даже в антрактах они не выходят в фойе, чтоб не унизиться до общения с рабами".</t>
+          <t>Какая на хуй зарплата????? Человек всю жизнь на пенсию работает, а государство пытается все это втюхать как чуть ли не подарок, лицемеры ебаные</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>zlfdCRaTm0Q.jpg</t>
+          <t>wmbqhwgG72M.jpg</t>
         </is>
       </c>
       <c r="H2">
-        <f>HYPERLINK("https://sun9-44.userapi.com/c7004/v7004024/6a79d/zlfdCRaTm0Q.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c7004/v7004371/61f3a/wmbqhwgG72M.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43740.86805555555</v>
+        <v>43584.66666666666</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Как же вы совки примитивны со своим нытьём "а вот раньше было лучше.." Со своими вечными стонаниями как мы якобы плохо живём в наше время и как было якобы хорошо при совке. Да лучше чем сейчас мы никогда не жили! Если начать соображать головой и работать на себя, постоянно повышая свою квалификацию и знания то можно иметь всё, что нужно для комфортной жизни абсолютно каждому! То как вы живёте ответственны исключительно вы сами. Не государство, не чиновники, не депутаты, ни олигархи, ни коммерсанты, ни масоны, никто кроме вас самих не виноват в ваших личных проблемах. Государство после после 1991 года дало главное возможности каждому жить как нравиться и зарабатывать. Никто больше не принуждает и не ограничивает свободного человека в свободной стране. Есть тысяча способов стать успешными по жизни людьми. Знаю достаточно серьезных людей, что начинали свое дело с нуля и сейчас приличные бизнесмены, управляют от торговых точек и автосервисов до риэлторских и строительных компаний. Живут и ни в чём себе не отказывают. Знаю достаточно людей, ставших специалистами в перспективных сферах от сферы продаж до ай-ти технологии. Все эти люди успешны и востребованы в бизнесе или на рынке труда, они хорошо зарабатывают, отдыхают 2 раза в год заграницей, меняют авто каждые 3 года, покупают новую недвижимость, стильно со вкусом одеваются, имеют многие статусные вещи. Они всего добились сами и пришли к успеху сами своим умом и трудом, а не ныли почему государство не дает им на шару вонючую хрущевку, не гарантирует им работу за копейки на государство, не дает халявные путевки в задрыпанные санатории. Они постоянно развиваются как профессионалы в своём деле, осваивают новые навыки и совершенствуются. Я тоже всего достигла сама. Для меня все коммуняги по своей натуре делиться на 3 вида - ностальгирующие по детству и молодости (эти самые безобидные), алкаши (эти потологические хамло, ограниченный словарный запас и ограниченное мышление отсюда и низкое социальное положение) и халявщики (эти во всех своих проблемах винят других, не хотят ничего делать, но при этом хотят хорошо жить). И вот эти алкаши и халявщики пытаются дурить людям головы рассказывая ерунду вроде той, что при совке всё было на шару и все счастливые были, а сейчас работать надо и водка дорогая. А из порочного круга нищеты, куда загнали себя вы сами, не привыкшее соображать своей головой, выход только один - работа над собой. А вы мало получаете сейчас исключительно потому что у вас кпд низкий или вы не тем чем надо занимаетесь. Коммунизм не девал людям быть успешными, он делал всех одинаково нищими, давая пайку чтобы не сдохнуть с голода и убогий барак для существования. Убогое рабское общество совка не давало людям развиваться и политика уравниловки привела коммунячую систему к деградации и краху. Сейчас наша страна уже изжила многие совковые пережитки и общество уже не даст свернуть снова в тупик как в 1917 году, наша молодежь уже почти поголовно мыслит правильно, а вы перестраивайтесь и не нойте, а начинайте перемены со своей головы, а не нойте ежедневно в интернете и всё у вас тоже будет.</t>
+          <t>идешь такой..подскользнулся и ногу сломал..а тебе поебать! ползешь дальше!</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NsdR-hS2DmY.jpg</t>
+          <t>XfFpqL2fldQ.jpg</t>
         </is>
       </c>
       <c r="H3">
-        <f>HYPERLINK("https://sun9-61.userapi.com/c7004/v7004024/6a785/NsdR-hS2DmY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-49.userapi.com/c846217/v846217034/1e4dc7/XfFpqL2fldQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43740.85069444445</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>👍</t>
-        </is>
-      </c>
+        <v>43584.60416666666</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Не работали, но числились на закрепленных за их клубами рабочих местах зарплату получали и за футбол и за основное место работы. В той стране не было профессиональных спортсменов, все числились любителями. По прихоти начальства получали квартиры и волги. После карьеры становились не кому не нужными, спивались и быстро умирали.</t>
+          <t>Мужик захотел и не сделал - импотент</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RmfcU8jccRk.jpg</t>
+          <t>M8lol0nmYlg.jpg</t>
         </is>
       </c>
       <c r="H4">
-        <f>HYPERLINK("https://sun9-31.userapi.com/c7004/v7004024/6a77e/RmfcU8jccRk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c846217/v846217034/1e4db5/M8lol0nmYlg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43740.83351851852</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Самый офигенный конструктор!</t>
-        </is>
-      </c>
+        <v>43583.95833333334</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Лего в сторонке нервно курит</t>
+          <t>Она беременна</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>u3q2uJzklwA.jpg</t>
+          <t>NmOBbXAmadc.jpg</t>
         </is>
       </c>
       <c r="H5">
-        <f>HYPERLINK("https://sun9-67.userapi.com/c7004/v7004822/6f507/u3q2uJzklwA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-19.userapi.com/c846021/v846021157/1eb44b/NmOBbXAmadc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43740.76042824074</v>
+        <v>43583.91666666666</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>В наше время тоже есть стабильность. Цены растут стабильно. ☝</t>
+          <t>Это отдельный вид животных обитающих, на земле, способные выживать в самых суровых условиях</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ubl9JHvVR9k.jpg</t>
+          <t>ycyJ9iaQ73c.jpg</t>
         </is>
       </c>
       <c r="H6">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c7004/v7004379/6861c/Ubl9JHvVR9k.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-59.userapi.com/c846021/v846021157/1eb439/ycyJ9iaQ73c.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43740.73959490741</v>
+        <v>43583.854375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>😍</t>
+          <t>Какой у Вас рост?)
+В комменты ⤵️</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>676</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>После демонстрации шли к кому-нибудь в гости,накрывались столы,пели песни,танцевали.Здорово было.В то время действительно было ощущение праздника.</t>
+          <t>180+</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fpaa6SCIz54.jpg</t>
+          <t>C-vImZo8vxo.jpg</t>
         </is>
       </c>
       <c r="H7">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c7004/v7004379/68614/Fpaa6SCIz54.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-54.userapi.com/c635102/v635102624/42c43/C-vImZo8vxo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43740.61805555555</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Натюрморт эпохи.</t>
-        </is>
-      </c>
+        <v>43583.60416666666</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Сытостью и благополучием веет от фото.Опять же рупь с мелочью остался.На неделю.....</t>
+          <t>Господи! Одни дилетанты собрались! Видели бы вы, как я разогреваю в микроволновке!</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3EoESQlR3VQ.jpg</t>
+          <t>CaHtHot_p3I.jpg</t>
         </is>
       </c>
       <c r="H8">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c7004/v7004527/6b075/3EoESQlR3VQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-43.userapi.com/c846021/v846021157/1eb3d7/CaHtHot_p3I.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43740.57291666666</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Пионербол — игра, незнакомая детям из других стран</t>
-        </is>
-      </c>
+        <v>43583.03125</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Все из-за него физру ждали с нетерпением.</t>
+          <t>А если еще и котейка дома то вообще заебумба</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>oY9IENzbFgk.jpg</t>
+          <t>nhErE-yIxyU.jpg</t>
         </is>
       </c>
       <c r="H9">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c7004/v7004527/6b067/oY9IENzbFgk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c846021/v846021157/1eb3ad/nhErE-yIxyU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43739.92361111111</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Все помнят)</t>
-        </is>
-      </c>
+        <v>43583</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Бегали по партам, бесились, как-то даже залезли на шкаф.Никто ничего толком не мыл.</t>
+          <t>[club181352773|Я влюбился в камень,а он в речку упал...как жаль,ведь я был привязан к нему......]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>M6Mco6NeEvs.jpg</t>
+          <t>J4rI9BEfPTk.jpg</t>
         </is>
       </c>
       <c r="H10">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c7004/v7004388/6e695/M6Mco6NeEvs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c846021/v846021157/1eb3a5/J4rI9BEfPTk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43739.88542824074</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>И все простые...</t>
-        </is>
-      </c>
+        <v>43582.95833333334</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Что сейчас изменилось? Комментаторы постарели и завидуют молодым!! И всё!!!</t>
+          <t>Раз кормлю значит добрая ,а как не важно😆🤣</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8BVDGORFPgQ.jpg</t>
+          <t>_zjY9Ym6BGY.jpg</t>
         </is>
       </c>
       <c r="H11">
-        <f>HYPERLINK("https://sun9-63.userapi.com/c7004/v7004387/6d704/8BVDGORFPgQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c846021/v846021157/1eb38d/_zjY9Ym6BGY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43739.86805555555</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>😍</t>
-        </is>
-      </c>
+        <v>43582.70833333334</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Qazaq Qazaq - известный антисоветчик, провокатор и тролль. Не поддавайтесь на его провокации и не кормите тролля, пусть он сдохнет с голода.</t>
+          <t>а дома - ты где был мать твою , я тебя весь день искала</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3qCJIS1le8I.jpg</t>
+          <t>Rb6axnBrws8.jpg</t>
         </is>
       </c>
       <c r="H12">
-        <f>HYPERLINK("https://sun9-1.userapi.com/c7004/v7004387/6d6f2/3qCJIS1le8I.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c846021/v846021157/1eb323/Rb6axnBrws8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43739.85069444445</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Хоть ненадолго)</t>
-        </is>
-      </c>
+        <v>43582.625</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Невский конца 70-х, справа Казанский собор.
-Увы, сегодня Петербург превращён в душанбе, сотни тысяч узбеков и таджиков превратили город в Кишлак. Тотальный запах шавермы, наркотиков, преступность зашкаливает...
-Говорят, в зонах Форносово тройка и четвёрка уже каждый третий зэк - это среднеазиат</t>
+          <t>Мне кажется или текст под наклоном?</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8ZOmqBN-cvc.jpg</t>
+          <t>8RSyeASyaCo.jpg</t>
         </is>
       </c>
       <c r="H13">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c7004/v7004387/6d6e9/8ZOmqBN-cvc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-41.userapi.com/c846021/v846021157/1eb313/8RSyeASyaCo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43739.77430555555</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>😍</t>
-        </is>
-      </c>
+        <v>43582.375</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Верните в моду доброту,
-Примите мудрое прощение.
-Жестокость ранит красоту -
-Спасите мир от разрушения!
-Черствеют души от обид,
-У жажды мщения во власти...
-И, прячась в мертвый монолит,
-Крадут у нас возможность счастья.
-Верните в моду доброту -
-Сердца открыть совсем не сложно,
-А завернуться в глухоту
-В любой момент обратно можно...
-Освобождайтесь ото лжи,
-Не стоит чествовать злословие.
-Храните чистоту души,
-Встречая каждый день с любовью!
-Верните в моду доброту...</t>
+          <t>Больные люди, не замужем в 20, ты что, старой девой сдохнуть хочешь? Замужем в 20, ты что, больная, ещё можно было столько жить да гулять. Нет детей в 23, ты что, чайлд фри? Надо рожать. Есть дети в 23, вы что, зачем, надо для себя пожить. Нет детей в 25?! Вы что, бесплодные или идиоты?! Есть ребенок или более после 25? Капец кроль, куда вы так плодитесь? Люди, идите со своими рассуждениями в жопу. Живите свою жизнь и не лезьте в чужую.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4Qt7kz2ZNas.jpg</t>
+          <t>a6Xm31bDQas.jpg</t>
         </is>
       </c>
       <c r="H14">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c7004/v7004899/728a8/4Qt7kz2ZNas.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c846021/v846021157/1eb2fb/a6Xm31bDQas.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43739.76042824074</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Действительно)</t>
-        </is>
-      </c>
+        <v>43582.03125</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Первый Гагарин, а второе, что за мудо</t>
+          <t>О, да. Я понимаю, о каком удовольствии говорит автор этого поста☺</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>wXBlF6-kh5I.jpg</t>
+          <t>w1kwqKlL0V0.jpg</t>
         </is>
       </c>
       <c r="H15">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c7004/v7004899/728a1/wXBlF6-kh5I.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c846021/v846021157/1eb2f3/w1kwqKlL0V0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>43739.68753472222</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Как думаете?</t>
-        </is>
-      </c>
+        <v>43582</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Хорошо жили и вкусно ели.Цены не скакали.Можно было свою зарплату распланировать.👍🏻🥰</t>
+          <t>Где-то в параллельной вселенной</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>bp-ckEmV96Q.jpg</t>
+          <t>Ea-wjybpewQ.jpg</t>
         </is>
       </c>
       <c r="H16">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c7004/v7004899/72882/bp-ckEmV96Q.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-51.userapi.com/c846021/v846021157/1eb2ea/Ea-wjybpewQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43739.67361111111</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Правильно?</t>
-        </is>
-      </c>
+        <v>43581.77084490741</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Многие страны взяли эту систему для себя(например, Финляндия), и теперь они занимают первые места в рейтинге, а мы - с конца. Зато у нас сейчас передовая западная система образования. Иногда все-таки наши дети занимают призовые места на международных олимпиадах, но этих детей готовят учителя по-старому.</t>
+          <t>Иронично, это лозунг первого гей парада</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>J-NeeKA8Dj8.jpg</t>
+          <t>r77nBDKlUzw.jpg</t>
         </is>
       </c>
       <c r="H17">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c7004/v7004899/7287b/J-NeeKA8Dj8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c855236/v855236092/2daa2/r77nBDKlUzw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>43739.61805555555</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Друзья по жизни. Коллеги по театру. Андрей Миронов, Марк Захаров, Александр Ширвиндт.</t>
-        </is>
-      </c>
+        <v>43581.73958333334</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Саша, живи! Один остался.</t>
+          <t>По моему, курит кто то другой</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>zuTW5yOedwU.jpg</t>
+          <t>A5dHd9PoVlg.jpg</t>
         </is>
       </c>
       <c r="H18">
-        <f>HYPERLINK("https://sun9-25.userapi.com/c7004/v7004024/6a6a2/zuTW5yOedwU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-17.userapi.com/c854528/v854528847/2762c/A5dHd9PoVlg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43739.57291666666</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>У всех были)</t>
-        </is>
-      </c>
+        <v>43581.03125</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Очень качественная была обувь.</t>
+          <t>Заберите и меня, кошка прилагается)))</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FuNCxDWK8A8.jpg</t>
+          <t>u2kflTWvY_4.jpg</t>
         </is>
       </c>
       <c r="H19">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c7004/v7004262/73e90/FuNCxDWK8A8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-69.userapi.com/c847219/v847219232/1eaa1f/u2kflTWvY_4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43739.54178240741</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Правда ведь?</t>
-        </is>
-      </c>
+        <v>43581</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Стекло что ли особенное? Не капиталистическое,а советское?))))</t>
+          <t>Ровно сука написать не могли?</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Z8CsPyvKHug.jpg</t>
+          <t>FF1MeLK0Gus.jpg</t>
         </is>
       </c>
       <c r="H20">
-        <f>HYPERLINK("https://sun9-63.userapi.com/c7004/v7004262/73e87/Z8CsPyvKHug.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c847219/v847219232/1eaa17/FF1MeLK0Gus.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43739.46527777778</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Правда?</t>
-        </is>
-      </c>
+        <v>43580.97916666666</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Самый лучший завтрак, сдобная булочка и пакет молока, позавтракал и на море, и так все лето.Самое лучшее детство было в СССР.</t>
+          <t>Интересно, вот это вот ахахахаа только я прочёл с интонацией дьявола🤔?</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3d0eCBAk1Zs.jpg</t>
+          <t>bArp__9jdN0.jpg</t>
         </is>
       </c>
       <c r="H21">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c7004/v7004735/6a74b/3d0eCBAk1Zs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-6.userapi.com/c847219/v847219232/1eaa0f/bArp__9jdN0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43739.38542824074</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>И не терялись)</t>
-        </is>
-      </c>
+        <v>43580.95833333334</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ношу до сих пор.</t>
+          <t>Ложил я на ваше класть и клал я на ваше ложить)))</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2w7JZ70GTko.jpg</t>
+          <t>pUPlZHHbLPY.jpg</t>
         </is>
       </c>
       <c r="H22">
-        <f>HYPERLINK("https://sun9-51.userapi.com/c7004/v7004600/6b8b0/2w7JZ70GTko.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-26.userapi.com/c847219/v847219232/1eaa07/pUPlZHHbLPY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43740.93751157408</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Мы веpнyлись домой... СССР. 1943г.</t>
-        </is>
-      </c>
+        <v>43580.9375</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Это ужас такое пережить</t>
+          <t>Меня одну бесит наклон текста?</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-6rLeQNayfA.jpg</t>
+          <t>uEjK9ZPpzL0.jpg</t>
         </is>
       </c>
       <c r="H23">
-        <f>HYPERLINK("https://sun9-61.userapi.com/c635105/v635105512/314ec/-6rLeQNayfA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-9.userapi.com/c847219/v847219232/1ea9ff/uEjK9ZPpzL0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43740.88888888889</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Двоpовые Pазведчики))</t>
-        </is>
-      </c>
+        <v>43580.875</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>и в подвалах боялись только то, что сами напридумываем</t>
+          <t>ЕСЛИ ДОЖИВЕШЬ...</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>irsi_WPIuOU.jpg</t>
+          <t>4tWrweGz6pI.jpg</t>
         </is>
       </c>
       <c r="H24">
-        <f>HYPERLINK("https://sun9-65.userapi.com/c635105/v635105956/39035/irsi_WPIuOU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c847219/v847219232/1ea9e7/4tWrweGz6pI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43740.78472222222</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Летчики 102-го гвapдейского истребительного авиаполка в капониpе рядом с «Аэрокоброй» борт 33.
-Вот где по-настоящему крутые ребята!</t>
-        </is>
-      </c>
+        <v>43580.8125</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Господа предлагаю блокировать всех малолеток, грубиянов, врунов и им подобных.</t>
+          <t>Прекрасно сказано!</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MI0h4nhUDU8.jpg</t>
+          <t>M4TIVQ2jAhc.jpg</t>
         </is>
       </c>
       <c r="H25">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c635105/v635105457/342f5/MI0h4nhUDU8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-14.userapi.com/c847219/v847219232/1ea9cf/M4TIVQ2jAhc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43740.49305555555</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Памятник воинам, пoгибшим в Чечне. Волгогpад.</t>
-        </is>
-      </c>
+        <v>43580.66666666666</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Пацанам честь и слава. 
-А Борису алкоголику и Пашке мерседесу, гореть в Аду шакалам, за то, что отправляли необстреленных пацанов на убой.</t>
+          <t>Лучшие переносы 🤦‍♂️</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>UJgjBjG0AlY.jpg</t>
+          <t>23n1JS8_j14.jpg</t>
         </is>
       </c>
       <c r="H26">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c635105/v635105905/2a2c6/UJgjBjG0AlY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-41.userapi.com/c847219/v847219232/1ea99e/23n1JS8_j14.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43740.35418981482</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Вы xодили за мoлоком и за ягодами с таким бидoном ?</t>
-        </is>
-      </c>
+        <v>43580.60416666666</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>И за квасом)</t>
+          <t>Боже!!!!Как просто быть мужиком....проснулся и уже красивый😁😁😁</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N35fKMifZGQ.jpg</t>
+          <t>Y1G0jmihWRQ.jpg</t>
         </is>
       </c>
       <c r="H27">
-        <f>HYPERLINK("https://sun9-6.userapi.com/c635105/v635105813/30cc5/N35fKMifZGQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-4.userapi.com/c847219/v847219232/1ea98e/Y1G0jmihWRQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43740.31251157408</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Хороший был чай</t>
-        </is>
-      </c>
+        <v>43580.375</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Скажу я вам, весьма дефецитный товар того времени☝😉</t>
+          <t>да вы что какую карточку в лицо?) 
+"вашей карточки нет,идите в 6 кабинет,нету? в 7,8,9,100.. нету ни в одном из кабинетов? ну хз,мы не теряли,значит у вас дома где то, или вы сами потеряли,но не мы точно."</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>L4wgJc_gLEc.jpg</t>
+          <t>-dUFLLDYW0Q.jpg</t>
         </is>
       </c>
       <c r="H28">
-        <f>HYPERLINK("https://sun9-28.userapi.com/c635105/v635105120/35bf0/L4wgJc_gLEc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c847219/v847219232/1ea97e/-dUFLLDYW0Q.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43740.27084490741</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Доброе утро! Добрый кадр из СССР</t>
-        </is>
-      </c>
+        <v>43579.97916666666</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>И берег чистый. Без пластиковых пакетов, бутылок и прочей гадости.</t>
+          <t>А тут все просто, тот который нравится - настойчивый, который не нравится - назойливый.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1323,275 +1212,252 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mru7TJamrXo.jpg</t>
+          <t>jPSe5lv-7kY.jpg</t>
         </is>
       </c>
       <c r="H29">
-        <f>HYPERLINK("https://sun9-48.userapi.com/c635105/v635105032/3a175/Mru7TJamrXo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-22.userapi.com/c847219/v847219232/1ea966/jPSe5lv-7kY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43740.22222222222</v>
+        <v>43579.91666666666</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>От газ 21 фары решотка и капот.Таких машин в СССР не выпускали,но переделка очень красива,и в инженерном плане,усилен кузов,очень грамотно сделана!!!</t>
+          <t>"Люди как свечи Либо сияют, либо в жопу Их"</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>GHbGfWkr1Oo.jpg</t>
+          <t>TR-zt3be3iY.jpg</t>
         </is>
       </c>
       <c r="H30">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c635105/v635105395/62e91/GHbGfWkr1Oo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-4.userapi.com/c847219/v847219232/1ea94e/TR-zt3be3iY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43739.85420138889</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Помните ее вкyс?</t>
-        </is>
-      </c>
+        <v>43579.73958333334</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>А вкуснотища то какая!!!!!</t>
+          <t>В пизду этих баб, заебали ныть</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>OIBE7hfVBb8.jpg</t>
+          <t>3VqbiDEn0Ps.jpg</t>
         </is>
       </c>
       <c r="H31">
-        <f>HYPERLINK("https://sun9-3.userapi.com/c635105/v635105736/2749e/OIBE7hfVBb8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-29.userapi.com/c847219/v847219232/1ea90e/3VqbiDEn0Ps.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43739.81253472222</v>
+        <v>43579.60416666666</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Это пост в поддержу путинского правительства? только вот в СССР труд награждался страной ,в России одни копейки и никакого будущего в стране</t>
+          <t>- ой какая лохматенькая, а она не укусит? 
+- а вы точно гинеколог? 😂😂</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>L6efk-e8jSU.jpg</t>
+          <t>d6ugZU3C39w.jpg</t>
         </is>
       </c>
       <c r="H32">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c635105/v635105457/342a6/L6efk-e8jSU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-61.userapi.com/c847219/v847219232/1ea8e5/d6ugZU3C39w.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43739.77086805556</v>
+        <v>43579.4375</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Наше Крутое Детство было ))👍👍👍👍</t>
+          <t>Какие рефлексы? Какая ещё интуиция? Так не бывает, значит правила знает, но сформулировать их не может😐</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6DNZjy6JbC4.jpg</t>
+          <t>0BEJs7rDSi8.jpg</t>
         </is>
       </c>
       <c r="H33">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c635105/v635105642/2d9a7/6DNZjy6JbC4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-66.userapi.com/c847219/v847219232/1ea8dd/0BEJs7rDSi8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>43739.74533564815</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Заброшенный велосипедный завод в Пензе.</t>
-        </is>
-      </c>
+        <v>43579</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Какие красивые помещения. В СССР и к труду относились, как к искуству.</t>
+          <t>С вас 5000р</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CkUps8pkIk8.jpg</t>
+          <t>SkuzH6mPi5k.jpg</t>
         </is>
       </c>
       <c r="H34">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c855124/v855124419/106710/CkUps8pkIk8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-57.userapi.com/c849224/v849224200/16b094/SkuzH6mPi5k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43739.44444444445</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Сила и мощь советского автопpома</t>
-        </is>
-      </c>
+        <v>43578.97916666666</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Еще не скоро создадим что то подобное, если вообще создадим...</t>
+          <t>и богатыми и не корыстными.. точнее не скажешь</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22dqhopGjaM.jpg</t>
+          <t>GJhmdYpNWKs.jpg</t>
         </is>
       </c>
       <c r="H35">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c635105/v635105571/33396/22dqhopGjaM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-37.userapi.com/c849224/v849224200/16b08c/GJhmdYpNWKs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43739.35420138889</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Советский плакат</t>
-        </is>
-      </c>
+        <v>43578.95833333334</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Кузмич ты ли это)</t>
+          <t>Что ж ты песню не подобрал.....</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>m0HDzxuV8sA.jpg</t>
+          <t>TADj-NEe480.jpg</t>
         </is>
       </c>
       <c r="H36">
-        <f>HYPERLINK("https://sun9-1.userapi.com/c635105/v635105007/52d3f/m0HDzxuV8sA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-47.userapi.com/c849224/v849224200/16b084/TADj-NEe480.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>43739.27083333334</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Эх, время..</t>
-        </is>
-      </c>
+        <v>43578.9375</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Что вздыхать сами виноваты</t>
+          <t>Ну ясень пень</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8TbBTGuyGok.jpg</t>
+          <t>uWdILL9VHgw.jpg</t>
         </is>
       </c>
       <c r="H37">
-        <f>HYPERLINK("https://sun9-50.userapi.com/c635105/v635105884/2846a/8TbBTGuyGok.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-29.userapi.com/c849224/v849224200/16b07c/uWdILL9VHgw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43740.91951388889</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Лечение или пытка</t>
-        </is>
-      </c>
+        <v>43578.8125</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
         <v>0</v>
       </c>
@@ -1600,269 +1466,240 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Лечение и ещё какое,, до сих пор лечимся при надобности</t>
+          <t>Я бежала за ним, три дня и три ночи, сто бы сказать ему, что он мне нахрен не нужен😂😂😂</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>fmCulfWtzaQ.jpg</t>
+          <t>TINYFI6B-gk.jpg</t>
         </is>
       </c>
       <c r="H38">
-        <f>HYPERLINK("https://sun9-18.userapi.com/c635107/v635107648/1c51c/fmCulfWtzaQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-50.userapi.com/c849224/v849224200/16b04c/TINYFI6B-gk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43740.7112037037</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Это мечта для любителей анатомии</t>
-        </is>
-      </c>
+        <v>43578.375</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Астрономии 😬</t>
+          <t>А кто то там живёт не унывая и видит море каждый день и в тайне по ночам мечтает прыгать по тундре как олень</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>rM3sFxCQzhg.jpg</t>
+          <t>xRaAUCJrzgM.jpg</t>
         </is>
       </c>
       <c r="H39">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c635107/v635107306/24bd6/rM3sFxCQzhg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-59.userapi.com/c849224/v849224200/16b004/xRaAUCJrzgM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43739.5029050926</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Зачетная вещица</t>
-        </is>
-      </c>
+        <v>43577.97916666666</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Наборчик юного автомеханика ...😜😃👍🏻</t>
+          <t>Кто служил сука ,тот поймёт 🤣🤣🤣🤣хахаахх</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Y29zAtF4Ta4.jpg</t>
+          <t>jZXAq7hJ8vQ.jpg</t>
         </is>
       </c>
       <c r="H40">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c635107/v635107457/18654/Y29zAtF4Ta4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-18.userapi.com/c845218/v845218583/1e668b/jZXAq7hJ8vQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43739.29446759259</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Рабочие будни советской крановщицы</t>
-        </is>
-      </c>
+        <v>43577.9375</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>В баночку и на голову тому кто обматерил!</t>
+          <t>Написано мужчиной, т.к. любящая девушка о других и не мыслит, не говоря уже про беспорядочный секс!</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>kxIIPiHHdug.jpg</t>
+          <t>Nvg5SiHagzQ.jpg</t>
         </is>
       </c>
       <c r="H41">
-        <f>HYPERLINK("https://sun9-39.userapi.com/c635107/v635107246/1b525/kxIIPiHHdug.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-27.userapi.com/c845218/v845218583/1e667b/Nvg5SiHagzQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43740.3615625</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Помните такие кружки? Наверняка почти у каждого они были, а может быть и до сих пор сохранились?</t>
-        </is>
-      </c>
+        <v>43577.91666666666</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Вроде в таких еще горчицу продавали</t>
+          <t>И эта тварь ломает жизнь за мгновение</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>o_I_sIvvBbg.jpg</t>
+          <t>2cwq38fve0Y.jpg</t>
         </is>
       </c>
       <c r="H42">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c855228/v855228670/10d082/o_I_sIvvBbg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-31.userapi.com/c845218/v845218583/1e6673/2cwq38fve0Y.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43739.86180555556</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Каждому своё, 1972 год.
-©Было время: СССР</t>
-        </is>
-      </c>
+        <v>43577.8125</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Вот тогда и был Коммунизм,мы просто этого не понимали(((</t>
+          <t>А чего мужикам обидно не бывает или не психовать , когда вы так стараетесь..., а нах*й послали - пошла и села на своё место! 
+Лучше список напишите, как себя должен парень вести, интересно почитать!?) Короче, нах*й я сказал)))!!!</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>GXKOYP9Q82c.jpg</t>
+          <t>tmgFuicL0hU.jpg</t>
         </is>
       </c>
       <c r="H43">
-        <f>HYPERLINK("https://sun9-45.userapi.com/c855120/v855120972/1026f6/GXKOYP9Q82c.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-24.userapi.com/c845218/v845218583/1e664b/tmgFuicL0hU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43740.95834490741</v>
+        <v>43577.77083333334</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Пипец его заводить делов было. Не то что минск. Тот то с полпинка заводится.</t>
+          <t>Да и в аптеке мы все здоровы 😊</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>uzr7kQoS9R4.jpg</t>
+          <t>ORnzyV0fyXk.jpg</t>
         </is>
       </c>
       <c r="H44">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c850520/v850520768/1cc649/uzr7kQoS9R4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-59.userapi.com/c845218/v845218583/1e663b/ORnzyV0fyXk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43740.79172453703</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Красавицы в Москве</t>
-        </is>
-      </c>
+        <v>43577.625</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Красавицы за доллары .</t>
+          <t>Да как бы с баб тоже начинаются проблемы!!!!</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>dLq4dnau9GI.jpg</t>
+          <t>8uns98tVoCs.jpg</t>
         </is>
       </c>
       <c r="H45">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c855524/v855524187/108ac0/dLq4dnau9GI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-21.userapi.com/c845218/v845218583/1e661b/8uns98tVoCs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43740.75006944445</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Сохранился вот такой диван.
-Подлокотники откидываются</t>
-        </is>
-      </c>
+        <v>43577.4375</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Вспомнился фильм Место встречи изменить нельзя. Там тоже такой диван. И у Шарапова, и у Груздевой.</t>
+          <t>медведь бедолага😆🤙</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1870,56 +1707,48 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0wY1p0lz-kM.jpg</t>
+          <t>kFtWkeoqrhY.jpg</t>
         </is>
       </c>
       <c r="H46">
-        <f>HYPERLINK("https://sun9-29.userapi.com/c851436/v851436547/1d6984/0wY1p0lz-kM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-9.userapi.com/c845218/v845218583/1e6602/kFtWkeoqrhY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43740.70840277777</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Крепкая школьная форма</t>
-        </is>
-      </c>
+        <v>43576.77083333334</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Неубиваемая! Когда из неё вырастали - делали жилетки-безрукавки, шорты.</t>
+          <t>Не китаянка, а русская, которая замужем за китайцем!))) Она в панике!))</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>zJ6OpQosfgk.jpg</t>
+          <t>ZhisUaVryHo.jpg</t>
         </is>
       </c>
       <c r="H47">
-        <f>HYPERLINK("https://sun9-7.userapi.com/c857636/v857636761/8ca65/zJ6OpQosfgk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-65.userapi.com/c847220/v847220034/1e9360/ZhisUaVryHo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43740.45842592593</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Вечная память</t>
-        </is>
-      </c>
+        <v>43576.03125</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
         <v>0</v>
       </c>
@@ -1928,205 +1757,205 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Живут и стоят на коленях перед еврейским богом в церквях</t>
+          <t>А 3 дочери просто молча охуели</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ODrKupEVNF4.jpg</t>
+          <t>sHgpc3JRUMk.jpg</t>
         </is>
       </c>
       <c r="H48">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c852320/v852320101/1e1e87/ODrKupEVNF4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-66.userapi.com/c850136/v850136180/124ed4/sHgpc3JRUMk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43740.29172453703</v>
+        <v>43584.9178587963</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Хороший фильм</t>
+          <t>Есть такие?😃</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Берегись автомобиля</t>
+          <t>У нас их до сих пор продают в городе</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>82n3Nw1A6pw.jpg</t>
+          <t>4-N1FReV2ik.jpg</t>
         </is>
       </c>
       <c r="H49">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c855024/v855024810/107d1d/82n3Nw1A6pw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-28.userapi.com/c851228/v851228257/10d05b/4-N1FReV2ik.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>43739.83337962963</v>
+        <v>43584.88263888889</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Легендарная троица</t>
+          <t>Согласны? 😳</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Вот они! Герои на все времена, которые  играли за свою страну. А не те, что сейчас за бабло. Да игрой это назвать это сложно. Таких как эта тройка, уже небудет.</t>
+          <t>АНИМЕ ГОВНО И АНИМЕШНИКИ ПИДОРЫ(там наклейки аниме)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>_gwznQGDp-k.jpg</t>
+          <t>ZnPgsvKei_g.jpg</t>
         </is>
       </c>
       <c r="H50">
-        <f>HYPERLINK("https://sun9-60.userapi.com/c543109/v543109379/441d9/_gwznQGDp-k.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c854216/v854216831/3071b/ZnPgsvKei_g.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>43739.79171296296</v>
+        <v>43584.84930555556</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Пишем в комментарии</t>
+          <t>У вас так-же?😄</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Я и по сей день так считаю....</t>
+          <t>Которые ты потратил на сумку</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FoY12K0NYI0.jpg</t>
+          <t>wLNtivRneUQ.jpg</t>
         </is>
       </c>
       <c r="H51">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c543109/v543109066/4cbf7/FoY12K0NYI0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c850220/v850220831/1355da/wLNtivRneUQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43739.70836805556</v>
+        <v>43584.82361111111</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>А ты ?</t>
+          <t>Было? 😆</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1965г.</t>
+          <t>А мать говорит иди делай уроки!</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>zq9WDIurHEQ.jpg</t>
+          <t>0yJgYQOQrHo.jpg</t>
         </is>
       </c>
       <c r="H52">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c543109/v543109248/4b8f0/zq9WDIurHEQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-21.userapi.com/c855136/v855136831/30e9e/0yJgYQOQrHo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>43739.66671296296</v>
+        <v>43584.7465162037</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Чем дальше тем хуже</t>
+          <t>Согласны? 😊</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Каждый может нарисовать свой график - кому какой нравится...</t>
+          <t>КЛУБНИЧКА😍😍😍😍😍</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>iOxQGf2Q2Z0.jpg</t>
+          <t>yqRjruUEK0U.jpg</t>
         </is>
       </c>
       <c r="H53">
-        <f>HYPERLINK("https://sun9-45.userapi.com/c543109/v543109978/3d1ae/iOxQGf2Q2Z0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-34.userapi.com/c852136/v852136685/102bb8/yqRjruUEK0U.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43739.45837962963</v>
+        <v>43584.73643518519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ЛиАЗ</t>
+          <t>Жиза? 😄</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Хороший был автобус, плавный, уютный, тёплый! Обожал его, хоть и сограждане в совке называли его - скотовоз! Но, его брынчание, сиденья перпендикулярно водительской кабины, задняя площадка все вызывает лишь положительные эмоции) 👍🏻😊</t>
+          <t>А у нас 9 уроков в день(</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2134,430 +1963,418 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ym7uBChdilo.jpg</t>
+          <t>JthKxUQFWQQ.jpg</t>
         </is>
       </c>
       <c r="H54">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c543109/v543109778/4e370/ym7uBChdilo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-18.userapi.com/c852228/v852228685/109f9c/JthKxUQFWQQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>43739.41673611111</v>
+        <v>43584.5391087963</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Эпоха СССР</t>
+          <t>Жиза?</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Это точно! Самоё лучшее</t>
+          <t>У нас волебольным мячом в футбол играют и не шо</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>_gTruRftUpU.jpg</t>
+          <t>6Dn2E7dY-ak.jpg</t>
         </is>
       </c>
       <c r="H55">
-        <f>HYPERLINK("https://sun9-42.userapi.com/c543109/v543109589/47f76/_gTruRftUpU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c849424/v849424465/17a820/6Dn2E7dY-ak.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43739.29171296296</v>
+        <v>43583.89930555555</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"В бой идут одни старики"</t>
+          <t>Есть тут такие? 😉</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>От винта!))</t>
+          <t>Он съел всю банку 😳, но не витоминки 😳😲</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>9QAJob1pqe8.jpg</t>
+          <t>v9J_lDdLx8o.jpg</t>
         </is>
       </c>
       <c r="H56">
-        <f>HYPERLINK("https://sun9-38.userapi.com/c543109/v543109774/655df/9QAJob1pqe8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-65.userapi.com/c849224/v849224046/1789ac/v9J_lDdLx8o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43739.20833333334</v>
+        <v>43583.85763888889</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Любимые игрушки из детства</t>
+          <t>Давайте пофантазируем 😄</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Наган мой любимый ствол детства, сколько врагов из него перестрелял))</t>
+          <t>Я ещё бы шк сожгла к чертям собачим😡😡😡</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>bZOlbvNmdlQ.jpg</t>
+          <t>6lTCT6hkQhU.jpg</t>
         </is>
       </c>
       <c r="H57">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c850636/v850636694/1bf53e/bZOlbvNmdlQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c846123/v846123925/1efe22/6lTCT6hkQhU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43740.94444444445</v>
+        <v>43583.79513888889</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Так хочется домой мне снова возвратиться, туда где мы с тобой страной могли гордиться !
-#СССР</t>
+          <t>Есть такие? 🤗</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Великая была держава, великий был народ, потому что правители были патриотами своей страны. И не было у их детей собственности и счетов валютных заграницей, не было у них второго гражданства.</t>
+          <t>Оу это, чо про меня)</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>KC8b5JbdzE0.jpg</t>
+          <t>JApFfewR4lc.jpg</t>
         </is>
       </c>
       <c r="H58">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c854520/v854520581/10fb71/KC8b5JbdzE0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-68.userapi.com/c846123/v846123925/1efe01/JApFfewR4lc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43740.91668981482</v>
+        <v>43583.73958333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#СССР</t>
+          <t>Какую? 😉</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
+        <v>285</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Дьявол</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>У одного Зюганова словянский тип лица !!!!</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>11</v>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Jp7ENygqMQo.jpg</t>
+          <t>bi-y8hdWksY.jpg</t>
         </is>
       </c>
       <c r="H59">
-        <f>HYPERLINK("https://sun9-49.userapi.com/c853428/v853428204/10bb7f/Jp7ENygqMQo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-48.userapi.com/c846123/v846123925/1efdfa/bi-y8hdWksY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43740.88888888889</v>
+        <v>43583.58402777778</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Были такие?) А запах помните?!
-#СССР</t>
+          <t>Точно 😂</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Хуже.. помню вкус))</t>
+          <t>Я одна это пропела?</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>mTemwxhABdM.jpg</t>
+          <t>AVnn98bfb7o.jpg</t>
         </is>
       </c>
       <c r="H60">
-        <f>HYPERLINK("https://sun9-67.userapi.com/c857420/v857420204/8ec5e/mTemwxhABdM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-39.userapi.com/c846123/v846123925/1efde3/AVnn98bfb7o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43740.86111111111</v>
+        <v>43583.44202546297</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Скульптура «Родина-мать зовёт!», образ Родины, зовущей своих сыновей на битву с врагом. КАКАЯ МОЩЬ !!!
-#СССР</t>
+          <t>У вас так-же? 🤣</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Она звала на бой с внешними врагами, а у нас враг внутри</t>
+          <t>11 класс 
+А вы кто?</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>EMBGDc7fE1w.jpg</t>
+          <t>9hkArpV2aFE.jpg</t>
         </is>
       </c>
       <c r="H61">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c857532/v857532984/8bb99/EMBGDc7fE1w.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c845218/v845218931/1f8a4b/9hkArpV2aFE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43740.75003472222</v>
+        <v>43582.87569444445</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>А Вы отдыхали в пионерском лагере? Какие воспоминания у Вас сохранились?
-#СССР</t>
+          <t>Во что вы играли? 😃</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>В нашем районе в радиусе 15-20км.
-Закрыли 5-7детских лагерей (
-В детстве прекрасно проводили в них летний отдых ! )
-Кто помнит зарницу,  пионерский кастер перед отъездом ставь лайк👍</t>
+          <t>Во всё.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>kCYxhSnJT6k.jpg</t>
+          <t>9Tz5klDy26g.jpg</t>
         </is>
       </c>
       <c r="H62">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c854128/v854128984/10d5f6/kCYxhSnJT6k.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c855736/v855736226/2f9e0/9Tz5klDy26g.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43740.61111111111</v>
+        <v>43582.83819444444</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Они сражались за Родину. Вечная память солдатам Великой Отечественной Войны!
-#СССР</t>
+          <t>Жиза 🤣</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Никто не забыт, ничто не забыто !</t>
+          <t>За чем делать такие мемы над пожилыми людьми, это оскорбление😑</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>XITCdY5dNJI.jpg</t>
+          <t>uI4Kd7AX4Cw.jpg</t>
         </is>
       </c>
       <c r="H63">
-        <f>HYPERLINK("https://sun9-63.userapi.com/c855724/v855724984/10eeb6/XITCdY5dNJI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-66.userapi.com/c855736/v855736226/2f9d7/uI4Kd7AX4Cw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43740.58335648148</v>
+        <v>43582.81319444445</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Наши Герои !!! 👏🏻👏🏻👏🏻
-#СССР</t>
+          <t>Что получилось у вас? 😄</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>А какие все красивые 👍❤👏🌺</t>
+          <t>Пицца</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>f3I1S1XyDJk.jpg</t>
+          <t>iJpqvrXwKIk.jpg</t>
         </is>
       </c>
       <c r="H64">
-        <f>HYPERLINK("https://sun9-12.userapi.com/c854020/v854020984/12bd30/f3I1S1XyDJk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-26.userapi.com/c855736/v855736226/2f9c5/iJpqvrXwKIk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43740.5000462963</v>
+        <v>43582.80069444444</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Советская детская библиотека, 1974г.
-#СССР</t>
+          <t>Ок? 🤣</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>В нашем доме на 1 этаже располагалась Детская библиотека. Моя первая книга,которую я взяла после записи, это " Золотой Ключик или приключения Буратино". Это было в далеком 1970 году,мне было 7 лет. После окончания 1 класса, мне подарили эту книгу,храню ее.</t>
+          <t>Ок 👌 😏</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>dcX9DeOYMuY.jpg</t>
+          <t>ChrE3UuIJ0k.jpg</t>
         </is>
       </c>
       <c r="H65">
-        <f>HYPERLINK("https://sun9-34.userapi.com/c857724/v857724984/914f4/dcX9DeOYMuY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-16.userapi.com/c848636/v848636226/17d69a/ChrE3UuIJ0k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43740.47222222222</v>
+        <v>43582.73958333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>А какой первый телевизор был у вас?
-У меня Горизонт 206.
-#СССР</t>
+          <t>А что получилось у вас? 🤣</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
+        <v>762</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>фантастические твари и Петрович</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>18</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Жирно ты жизнь начал. Все с рекордов 312 чёрно-белых начинали в то время. Пассатижами программы переключали , так как очень туго вращался тумблер и насадки не выдерживали частых переключений между тремя программами.🤣</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>3</v>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>xf1fh97xBx4.jpg</t>
+          <t>OHrgtDK5Xus.jpg</t>
         </is>
       </c>
       <c r="H66">
-        <f>HYPERLINK("https://sun9-14.userapi.com/c855736/v855736984/10f63d/xf1fh97xBx4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c845121/v845121226/1f81a6/OHrgtDK5Xus.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43740.44444444445</v>
+        <v>43582.68015046296</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Вот из этих пацанов и вырастали мужиками, которых хрен чем сломишь!
-#СССР</t>
+          <t>Обожаю 😍</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2568,347 +2385,337 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Сломали же в итоге, 30 лет почти в оккупации живём</t>
+          <t>Бесит реклама про него</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>xLKOVlHP348.jpg</t>
+          <t>R-2wZA5G-E8.jpg</t>
         </is>
       </c>
       <c r="H67">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c856024/v856024984/10f61a/xLKOVlHP348.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-26.userapi.com/c855736/v855736226/2f985/R-2wZA5G-E8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43740.38888888889</v>
+        <v>43582.47675925926</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Да было время, весёлое, студенческое ....
-#СССР</t>
+          <t>А вы смогли посчитать? 😬</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>37</v>
+        <v>778</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Так по сути эксплутировали. И это не нытье, а факт. Вместо того чтобы учить,  использовали как дешевую раб. силу.</t>
+          <t>6÷2(1+2)=3×3=9</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Z7P7Tb8gn84.jpg</t>
+          <t>QEoQeJDO_2s.jpg</t>
         </is>
       </c>
       <c r="H68">
-        <f>HYPERLINK("https://sun9-49.userapi.com/c851524/v851524984/1d14b8/Z7P7Tb8gn84.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c856016/v856016149/306a5/QEoQeJDO_2s.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43740.36111111111</v>
+        <v>43581.83172453703</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Играли?
-#СССР</t>
+          <t>А без чего вы? 🤣🤣</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>559</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Играем!</t>
+          <t>Телефона</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>DUNbMLZqKuQ.jpg</t>
+          <t>xyolOIxWwoo.jpg</t>
         </is>
       </c>
       <c r="H69">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c856124/v856124984/10fd5a/DUNbMLZqKuQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c845416/v845416183/1f56e0/xyolOIxWwoo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43740.33336805556</v>
+        <v>43581.75347222222</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ресторан "Седьмое небо"в 80-е годы.
-#СССР</t>
+          <t>Сколько смогли найти?😂</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>495</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Скорее 60-е</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>DfwUjgEAwig.jpg</t>
+          <t>6RFJZorkrcE.jpg</t>
         </is>
       </c>
       <c r="H70">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c857628/v857628984/8e3e9/DfwUjgEAwig.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-57.userapi.com/c856120/v856120040/2e032/6RFJZorkrcE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43740.02777777778</v>
+        <v>43581.64583333334</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Время - время..
-#СССР</t>
+          <t>Жиза? 😬</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Вот прям так и было кстати, мега лужа и плоты. Когда засыпали лет через 5, так жалко было, как будто и детство кончилось.</t>
+          <t>Ржать и в тоже время помогать</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S9YuiBqlRtE.jpg</t>
+          <t>xCK4kldlS_8.jpg</t>
         </is>
       </c>
       <c r="H71">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c852016/v852016984/1eb69e/S9YuiBqlRtE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c848616/v848616332/17f7e6/xCK4kldlS_8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43739.97222222222</v>
+        <v>43581.29394675926</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Кто узнал эти предметы? Помните для чего они?
-#СССР</t>
+          <t>Попробуйте 😄</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Набор велосипедиста</t>
+          <t>Я их вытащу и съем</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SaCd0eQ3eg8.jpg</t>
+          <t>SUKskfH-8oc.jpg</t>
         </is>
       </c>
       <c r="H72">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c855016/v855016692/106d65/SaCd0eQ3eg8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c855720/v855720212/2d5a0/SUKskfH-8oc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43739.83335648148</v>
+        <v>43581.25122685185</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#СССР</t>
+          <t>Посмотрим что получится 😇</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>2394</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Не, ну, не то, чтобы совсем уж "не приходило"! А то кто-то и вправду подумает, что в СССР не было придурков. Были, конечно! Но остальным гражданам вполне себе хватало книг, газет-журналов, музыки, кружков, всевозможных увлечений, олимпиад, КВНов, соревнований, шарад, головоломок, кроссвордов, освоения музыкальных инструментов, посиделок на лавочках с гитарой и без,... работы, разумеется (безработицы-то не было от слова "вообще"!)... забот с младшими братьями и сёстрами, домашними питомцами, телевизора, сбора макулатуры на книги, и... снова чтения... провожаний девушек (не на "тачках", - пешком, по вечернему городу, иногда в другой его конец, иногда - под дождём, в снегопад), а девушки в СССР в абсолютном большинстве были действительно девушками, курящие встречались, но очень редко,... с татуировками? - кроме бывших зэчек, не видел ни одной! Потому и наркоманов, мягко скажем, не жаловали, а следовательно и выбор ребят: "колоться", "курить", "глотать" или покорять сердца местных красавиц, - был очевиден. Кроме того, с девушками надо было о чем-то разговаривать! Тогда ещё российская молодёжь неплохо изъяснялась на родном языке, интересовалась музыкой поэзией, знали много стихов, были любимые поэты, писатели, фильмы, песни... по цитатам из которых моментально опознавались "родственные души" - какие тут наркотики?!
- Вообще на наркоманов тогда смотрели с точки зрения: "Жалко, конечно, но это надо ж быть таким кретином! И ЗАЧЕМ ему это?!.."... Просто вокруг было столько точек "приложения силы" в плане возможностей собственного развития, перспектив в познавательном, творческом и профессиональном плане, что нормальным людям тратить время на наркоту как-то было ни к чему...</t>
+          <t>тащитеее</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>rfm0LhsFn0o.jpg</t>
+          <t>XUjzJoHw7YI.jpg</t>
         </is>
       </c>
       <c r="H73">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c855324/v855324340/111222/rfm0LhsFn0o.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-23.userapi.com/c849128/v849128066/17dfa5/XUjzJoHw7YI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43739.7500462963</v>
+        <v>43580.90416666667</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>А, как вы считаете, сегодня нам нужен Сталин?
-#СССР</t>
+          <t>Было? 😄</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>мозги нам нужны</t>
+          <t>Конешно, у всех наверное было! 😂</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>_ybrpMDvuRU.jpg</t>
+          <t>urBXL7Cp1Uk.jpg</t>
         </is>
       </c>
       <c r="H74">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c853524/v853524340/10ee19/_ybrpMDvuRU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-25.userapi.com/c851432/v851432509/10505c/urBXL7Cp1Uk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43739.72222222222</v>
+        <v>43580.79930555556</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Из жизни CCCP
-#СССР</t>
+          <t>Похоже?😄</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Где шашка на крыше??</t>
+          <t>А кто из них собака?)</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>QQWPP0-22mY.jpg</t>
+          <t>Dd3UjGEO-Rg.jpg</t>
         </is>
       </c>
       <c r="H75">
-        <f>HYPERLINK("https://sun9-46.userapi.com/c855528/v855528340/1057cb/QQWPP0-22mY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-22.userapi.com/c851428/v851428751/10742a/Dd3UjGEO-Rg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43739.66670138889</v>
+        <v>43580.73958333334</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Детской тарелочке 35 лет.
-Доброе утро!
-#СССР</t>
+          <t>Посмотрим кого у нас больше 🤔</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Я помню всегда велась на мамкины слова, съешь кашку (супчик) и увидишь, что на доношке, только моя была металлическая обливная, а но донышке киска с цветочком</t>
+          <t>Рукажоп🤣😏</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2qqiKJwco7c.jpg</t>
+          <t>K1275y3Sgvw.jpg</t>
         </is>
       </c>
       <c r="H76">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c855124/v855124340/112bdd/2qqiKJwco7c.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-38.userapi.com/c844618/v844618574/1f282a/K1275y3Sgvw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43739.63888888889</v>
+        <v>43580.25416666667</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#СССР</t>
+          <t>Что выбрал ты?😃</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Хлопнуть.</t>
+          <t>Учебные мемы</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2916,3613 +2723,5049 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>7B5kGUnMDG8.jpg</t>
+          <t>5aYaCqy_mBE.jpg</t>
         </is>
       </c>
       <c r="H77">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c855616/v855616340/10f459/7B5kGUnMDG8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c849224/v849224272/1724d7/5aYaCqy_mBE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43739.55555555555</v>
+        <v>43579.73659722223</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Железные игрушки СССР
-#СССР</t>
+          <t>Давайте пофантазируем 😄</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Почтовый фургон был типа таких! Не убиваемый</t>
+          <t>Если будет  один язык на всю планету,то гугл переводчик вымрет.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Sb3Xgzz8RgQ.jpg</t>
+          <t>1m9jpbdXFik.jpg</t>
         </is>
       </c>
       <c r="H78">
-        <f>HYPERLINK("https://sun9-69.userapi.com/c858236/v858236340/963f4/Sb3Xgzz8RgQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-5.userapi.com/c855428/v855428584/2c33c/1m9jpbdXFik.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43739.52777777778</v>
+        <v>43579.67708333334</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ценим.. 😌
-#СССР</t>
+          <t>А ты взял(а) бы?😀😋</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Они отдали жизнь за Родину, а в 1991-м году кучка подонков разрушили страну.</t>
+          <t>Он сказал всё за меня</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>S7h-YljjOTM.jpg</t>
+          <t>r86lUPa5FcQ.jpg</t>
         </is>
       </c>
       <c r="H79">
-        <f>HYPERLINK("https://sun9-9.userapi.com/c853528/v853528340/10c3c6/S7h-YljjOTM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c850416/v850416555/2c69d/r86lUPa5FcQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43739.50008101852</v>
+        <v>43579.58459490741</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>После школы никогда сразу домой не шли.., в булочную или в классики играть.Особенно весной!
-#СССР</t>
+          <t>Вы любите? 😍</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Форма парадная...В будни фартуки были черные.... Мы с подружкой покупали мороженку (иногда беляши).Шли домой и лопали по пути...😇</t>
+          <t>Я люблю всё что находится в той коробке 😂</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>qyvpdNKlNak.jpg</t>
+          <t>YtWBBmMU8bE.jpg</t>
         </is>
       </c>
       <c r="H80">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c854028/v854028340/1109df/qyvpdNKlNak.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-33.userapi.com/c851428/v851428555/102c7e/YtWBBmMU8bE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43739.47222222222</v>
+        <v>43579.53611111111</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#СССР</t>
+          <t>Жиз? 🤣</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>"Дети, а где самые лучшие люди? " - "В Советском Союзе! " - "А где самые лучшие книги? " - "В Советском Союзе! " "А где самые красивые игрушки? " - "В Советском Союзе! " "Ваня, а почему ты плачешь? " - "Я хочу ЖИТЬ в Советском Союзе!!! "</t>
+          <t>Или забыл поставить телефон на зарядку</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5IkOETVcttA.jpg</t>
+          <t>xVeCRA8v7gM.jpg</t>
         </is>
       </c>
       <c r="H81">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c853520/v853520340/10ac61/5IkOETVcttA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-46.userapi.com/c849528/v849528668/16c2e2/xVeCRA8v7gM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43739.11111111111</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>#СССР</t>
-        </is>
-      </c>
+        <v>43579.32222222222</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ноги раздвигать😄</t>
+          <t>с днюхой</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20o6-7tGBQU.jpg</t>
+          <t>mXeFhn7w9iw.jpg</t>
         </is>
       </c>
       <c r="H82">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c856136/v856136340/10c814/20o6-7tGBQU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-11.userapi.com/c844521/v844521224/1eb9cc/mXeFhn7w9iw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43739.00001157408</v>
+        <v>43578.91027777778</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pазрешите познакомиться? 😊
-#СССР</t>
+          <t>А кто ты? 😂</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
+        <v>324</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Смотря на каком</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>9</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>За такими в противогазе побежал бы</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>gcgygm7tBLw.jpg</t>
+          <t>laePeBonWUI.jpg</t>
         </is>
       </c>
       <c r="H83">
-        <f>HYPERLINK("https://sun9-68.userapi.com/c852132/v852132479/1e53c2/gcgygm7tBLw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-34.userapi.com/c847019/v847019017/1f2675/laePeBonWUI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43739.88541666666</v>
+        <v>43578.82405092593</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Роскошный мраморный холл с лифтами, барельефами и специально обученной консьержкой лишний раз доказывает, что в Советском Союзе все были равны, но некоторые все же равнее.</t>
+          <t>А у вас было?😂</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Только ровнее были в основном те,кто это заслужил,а не больше сп...дил.</t>
+          <t>пастояно а потом ещё 5 минут решаем кто войдёт</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ojGKVDs13U0.jpg</t>
+          <t>oFMtBHUs8F8.jpg</t>
         </is>
       </c>
       <c r="H84">
-        <f>HYPERLINK("https://sun9-42.userapi.com/c851428/v851428085/1ca880/ojGKVDs13U0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c855628/v855628883/2ceea/oFMtBHUs8F8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43740.95834490741</v>
+        <v>43578.79236111111</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Портрет Сталина в Осетии.</t>
+          <t>Поехали 😊</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>67</v>
+        <v>756</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Благодарный народ живёт в Осетии!</t>
+          <t>Мама</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>xDSUjEQCEI8.jpg</t>
+          <t>67iQtEYnbsY.jpg</t>
         </is>
       </c>
       <c r="H85">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c850720/v850720010/1d761b/xDSUjEQCEI8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-56.userapi.com/c855736/v855736816/2bda6/67iQtEYnbsY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43740.87502314815</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
+        <v>43578.76597222222</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Как поступишь ты? 😏</t>
+        </is>
+      </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Евгений Леонов</t>
+          <t>Лайками  что ли накормить</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>7TLcJYFgqdQ.jpg</t>
+          <t>vlVJhHtADFk.jpg</t>
         </is>
       </c>
       <c r="H86">
-        <f>HYPERLINK("https://sun9-7.userapi.com/c850720/v850720010/1d75f6/7TLcJYFgqdQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c855736/v855736816/2bd9f/vlVJhHtADFk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43740.79170138889</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
+        <v>43578.57160879629</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Отличий нет 🤣</t>
+        </is>
+      </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Сейчас такое время, когда за правду можно получить срок. Все ее знают, но писать об этом нельзя! Зачем провокационные вопросы публикуете?</t>
+          <t>В тюрьме кормят бесплатно и на шторы сдавать не надо.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ijCW0w9o8Lw.jpg</t>
+          <t>NNba7B9mcBI.jpg</t>
         </is>
       </c>
       <c r="H87">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c850720/v850720010/1d75dd/ijCW0w9o8Lw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-47.userapi.com/c850016/v850016293/177724/NNba7B9mcBI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43740.70836805556</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
+        <v>43577.60373842593</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Сколько нас? 😋</t>
+        </is>
+      </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Да потому, что лес не продавали в Китай, а остатки не поджигали, чтобы следы прикрыть...</t>
+          <t>Обожаююю. У кого продается кто пришлет по почте?))</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>JkjehvssYso.jpg</t>
+          <t>CcXpOxsRViQ.jpg</t>
         </is>
       </c>
       <c r="H88">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c850720/v850720010/1d75c5/JkjehvssYso.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c855736/v855736933/2b5b7/CcXpOxsRViQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43740.6250462963</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
+        <v>43577.56851851852</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>А вы смогли найти? 😙😀</t>
+        </is>
+      </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>510</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>В пионеры клятву приносили - это помню, а вот про клятву октябрёнка нет.... Правда это давно уже было!</t>
+          <t>3👌😂</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>X6Fotf8j9dc.jpg</t>
+          <t>ClKb7A_nrCo.jpg</t>
         </is>
       </c>
       <c r="H89">
-        <f>HYPERLINK("https://sun9-12.userapi.com/c850720/v850720010/1d75b6/X6Fotf8j9dc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c849328/v849328666/17c538/ClKb7A_nrCo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43740.54172453703</v>
+        <v>43577.43122685186</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Будулай.</t>
+          <t>Было?🤣🤣🤣</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Нацист румынский.....а какие роли играл</t>
+          <t>Они просто руки вытирают об нас!!!</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3dvwhAyQsic.jpg</t>
+          <t>PPiQF1YA_ew.jpg</t>
         </is>
       </c>
       <c r="H90">
-        <f>HYPERLINK("https://sun9-57.userapi.com/c850720/v850720010/1d7593/3dvwhAyQsic.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-14.userapi.com/c846018/v846018108/1f339a/PPiQF1YA_ew.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43740.45837962963</v>
+        <v>43576.90512731481</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Каждый укрывался таким одеялом!)</t>
+          <t>Помните?😃</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Что значит укрывался!?? До сих пор используется!! )))</t>
+          <t>Кто тоже прослезился</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>N7Ro-rD-iBM.jpg</t>
+          <t>u8xzIor7hBE.jpg</t>
         </is>
       </c>
       <c r="H91">
-        <f>HYPERLINK("https://sun9-23.userapi.com/c850720/v850720010/1d7582/N7Ro-rD-iBM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c847122/v847122910/1e9b5e/u8xzIor7hBE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43740.41672453703</v>
+        <v>43576.81527777778</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Памятник танкистам в Твери.</t>
+          <t>У вас так же? 😂</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Низкий поклон нашим  предкам, благодаря которым мы живём.</t>
+          <t>У нас наоборот</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>LmgiNTiYPG4.jpg</t>
+          <t>rsY900Qb4jQ.jpg</t>
         </is>
       </c>
       <c r="H92">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c850720/v850720137/1d69ba/LmgiNTiYPG4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-47.userapi.com/c849416/v849416726/17585b/rsY900Qb4jQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43740.33336805556</v>
+        <v>43576.73958333334</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Советская живопись.</t>
+          <t>Пиши в комментариях 😂</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Не надо было ремней безопасности !😁</t>
+          <t>Мам Сережа разбил тарелки</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>8t0y4KDqA94.jpg</t>
+          <t>8ZRsCYcZMyQ.jpg</t>
         </is>
       </c>
       <c r="H93">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c858132/v858132502/8bd82/8t0y4KDqA94.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-51.userapi.com/c849224/v849224726/1725c5/8ZRsCYcZMyQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43740.29168981482</v>
+        <v>43576.66357638889</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Предложил участник группы.</t>
+          <t>Есть такие? 😂</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Как все знакомо...</t>
+          <t>Моя мама с другой планеты??!!! 😱😱</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>WHlGWGk8mJQ.jpg</t>
+          <t>5j2FkA4wEsY.jpg</t>
         </is>
       </c>
       <c r="H94">
-        <f>HYPERLINK("https://sun9-71.userapi.com/c857524/v857524443/89d5b/WHlGWGk8mJQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c847018/v847018821/1e82eb/5j2FkA4wEsY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43740.20833333334</v>
+        <v>43576.50208333333</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Памятник Михаилу Пуговкинy в Ялте</t>
+          <t>У вас так же?</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>достойнейший человек,и памятник прелестен!!</t>
+          <t>Или баскетбольный, тогда пизда сразу</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>yn00Eo2Ofwg.jpg</t>
+          <t>b8vvw1ZSH30.jpg</t>
         </is>
       </c>
       <c r="H95">
-        <f>HYPERLINK("https://sun9-23.userapi.com/c851220/v851220397/1e2a41/yn00Eo2Ofwg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c849416/v849416582/17103e/b8vvw1ZSH30.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43739.95834490741</v>
+        <v>43576.46052083333</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Осенняя пора..., кто помнит свои резиновые сапожки?</t>
+          <t>А сколько смогли найти вы?</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>1686</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ну вы блин даёте я и не забывал досих пор в углу стоят!☝😂</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ENaPjn8VIeY.jpg</t>
+          <t>ZcGBISt4K8E.jpg</t>
         </is>
       </c>
       <c r="H96">
-        <f>HYPERLINK("https://sun9-67.userapi.com/c851220/v851220708/1e5bb2/ENaPjn8VIeY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-62.userapi.com/c846124/v846124582/1e7c72/ZcGBISt4K8E.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43739.8750462963</v>
+        <v>43579.34521990741</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Там фотография, нашего детства.</t>
+          <t>Не обувь, а кусок кала.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5aQDB-Km8tI.jpg</t>
+          <t>vYV0bbOOdBw.jpg</t>
         </is>
       </c>
       <c r="H97">
-        <f>HYPERLINK("https://sun9-22.userapi.com/c851220/v851220708/1e5b97/5aQDB-Km8tI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-19.userapi.com/c543109/v543109708/3becc/vYV0bbOOdBw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43739.83340277777</v>
+        <v>43584.76055555556</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ретро.</t>
+          <t>Головоломка)еххехехе 
+Так сколько осталось?</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>347</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>У родителей было три чемодана. Они уже никуда не ездили, в чемоданах хранили бельё. А фотокамеры в кожаных футлярах до сих пор в рабочем состоянии. "Зоркий! достался в наследство от отца, а ФЭД дочери друзья подарили. Но снимаю на японские цифровые камеры</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>pER1xzOTJ60.jpg</t>
+          <t>Yf8OMY1ybFM.jpg</t>
         </is>
       </c>
       <c r="H98">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c851220/v851220708/1e5b70/pER1xzOTJ60.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-21.userapi.com/c543100/v543100398/594e2/Yf8OMY1ybFM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>43739.79175925926</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
+        <v>43584.61520833334</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Этот звук)))))
+Он божественный просто;)</t>
+        </is>
+      </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Враг не предает. Враг, он сука враг и есть.</t>
+          <t>Я бы грех совершила еслиб прошла)))</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>JxKT4gdEeVE.jpg</t>
+          <t>8hOYnlJqsNE.jpg</t>
         </is>
       </c>
       <c r="H99">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c851220/v851220708/1e5b59/JxKT4gdEeVE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c543100/v543100398/594ab/8hOYnlJqsNE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>43739.70836805556</v>
+        <v>43584.40631944445</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Молодежь 80х</t>
+          <t>Ахахаххаха,жиза жиза(
+Ставь лайкос если жиза:)</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Двое норки с пьяных мужиков сбили, остальные в своих "петушках".</t>
+          <t>У меня у одного Мама не шрек?</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>IcZfBVFOp0g.jpg</t>
+          <t>Pa_Df8G1iEA.jpg</t>
         </is>
       </c>
       <c r="H100">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c852236/v852236967/1e17ab/IcZfBVFOp0g.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-7.userapi.com/c543100/v543100360/4d871/Pa_Df8G1iEA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>43739.54170138889</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
+        <v>43583.65674768519</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ахахахахпх и напиши в коменты что произошло)</t>
+        </is>
+      </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Писдешь.. Те кто родился в 80-м, 81-м успели побывать пионерами</t>
+          <t>Исчезло половина ответов</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>I62AiCKVNcY.jpg</t>
+          <t>noiFRohg_y4.jpg</t>
         </is>
       </c>
       <c r="H101">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c857424/v857424527/8e31d/I62AiCKVNcY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c543100/v543100330/603ce/noiFRohg_y4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>43739.45836805556</v>
+        <v>43583.61488425926</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Натюрморт советское детство.</t>
+          <t>Ахахахахпх,курить плохо!:)</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
+        <v>17</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Я возьму телефон, позвоню своей маме: "Мама, почему я хочу умереть?"</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>7</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>"Кубик" на этом натюрморт немного лишний!!!!! Когда журнал "Мурзилка" был популярен, кубика у деток в большинстве не было! 🤔🤔🤔🤔🤔🤔🤔🤔🤔</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>9</v>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PR7xjXcN2Fw.jpg</t>
+          <t>lcdfDiBk_ys.jpg</t>
         </is>
       </c>
       <c r="H102">
-        <f>HYPERLINK("https://sun9-3.userapi.com/c857424/v857424527/8e30b/PR7xjXcN2Fw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-25.userapi.com/c543100/v543100330/603be/lcdfDiBk_ys.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>43739.41673611111</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
+        <v>43583.59380787037</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Каво блин?</t>
+        </is>
+      </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Светлая Память Вам, товарищ Сухов...</t>
+          <t>я ненавижу аниме</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>VzYVzalzMTg.jpg</t>
+          <t>9KUSkmPGEXM.jpg</t>
         </is>
       </c>
       <c r="H103">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c857424/v857424527/8e2d0/VzYVzalzMTg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c543100/v543100330/603b5/9KUSkmPGEXM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>43739.3750462963</v>
+        <v>43583.44859953703</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>У всех были?</t>
+          <t>Орио уже не то)
+Согласны?ахахахах</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>И сейчас есть... На даче👍</t>
+          <t>Орео с двойной начинкой</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>7uq3oJM5pio.jpg</t>
+          <t>o72wl45kvjc.jpg</t>
         </is>
       </c>
       <c r="H104">
-        <f>HYPERLINK("https://sun9-28.userapi.com/c857424/v857424527/8e2bd/7uq3oJM5pio.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c543100/v543100542/7949f/o72wl45kvjc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43739.20833333334</v>
+        <v>43583.34376157408</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Электричка прошлых лет.</t>
+          <t>Ахахахаххп лол</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Они и сегодня в ходу</t>
+          <t>Выбираться тяжелее будет</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>o_gmjSxsTKk.jpg</t>
+          <t>RAi2GgTtklw.jpg</t>
         </is>
       </c>
       <c r="H105">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c855520/v855520527/106ef1/o_gmjSxsTKk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c543100/v543100542/79475/RAi2GgTtklw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>43740.87912037037</v>
+        <v>43582.67776620371</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>В 1961 г. загорелась заря "золотого века" советских комедий, вышел первый фильм со знаменитой "троицей" - "Самогонщики":</t>
+          <t>Зато не пустая хехехехехихихи</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>а ближе к 90-м годам,советское кино умерло и осталась одна российская,низкопробная коммерция,от которой тошнит до сих пор...</t>
+          <t>И то награду в магазе купил</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>II9cbcsugKM.jpg</t>
+          <t>pING2f3h8Hw.jpg</t>
         </is>
       </c>
       <c r="H106">
-        <f>HYPERLINK("https://sun9-43.userapi.com/c858132/v858132225/89feb/II9cbcsugKM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-1.userapi.com/c543100/v543100976/62efb/pING2f3h8Hw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>43740.79537037037</v>
+        <v>43582.32291666666</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Взвейтесь кострами, синие ночи!
-Мы - пионеры, дети рабочих!</t>
+          <t>Ахаххаха,знакомо?
+Как говорится,олды тут?)</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>19 мая день пионерии.</t>
+          <t>Олды на месте😎</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>npfocwStXeo.jpg</t>
+          <t>zb385Xf3xMs.jpg</t>
         </is>
       </c>
       <c r="H107">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c854528/v854528225/110746/npfocwStXeo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-43.userapi.com/c543100/v543100307/6d569/zb385Xf3xMs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>43740.62892361111</v>
+        <v>43581.95836805556</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>В СССР продавали томатную пасту, на вес в свою посуду.</t>
+          <t>хех</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>У нас в магазине пасту развешивали в маленькие полиэтиленовые пакетики, завязывали их и продавали. Паста была вкуснейшая, с пельменями - шла за высший сорт!</t>
+          <t>Я один пытался прочитать π zda больство?</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PBhZdWLct-M.jpg</t>
+          <t>TJpOFL3R6aY.jpg</t>
         </is>
       </c>
       <c r="H108">
-        <f>HYPERLINK("https://sun9-70.userapi.com/c853624/v853624225/110276/PBhZdWLct-M.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c543100/v543100906/61647/TJpOFL3R6aY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>43740.46180555555</v>
+        <v>43581.87152777778</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Как думаете?</t>
+          <t>Питер и Лоис</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Так хреново жили, что до сих пор вспоминаем....</t>
+          <t>Больше на габена похож</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>usNn0uiG1xk.jpg</t>
+          <t>7kLbM-4-Mss.jpg</t>
         </is>
       </c>
       <c r="H109">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c858236/v858236151/92355/usNn0uiG1xk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c543100/v543100177/51baf/7kLbM-4-Mss.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>43739.87881944444</v>
+        <v>43581.85069444445</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Накатывают воспоминания, моменты из детства. Так домой охота - к маме, она вечерами вяжет носочки. К папке - медведю. Там уютно, хорошо, радостно и спокойно. Там кружки для чая огромные, по пол литра. Там были мои любимые.</t>
+          <t>прекрасно</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>если забить окна досками про валить крышы да погасить фонарь , получится современный пеизаж</t>
+          <t>Тогда уже не будет того адреналина, который испытываешь при беге до холодильника и обратно, чтоб не попасться разным призракам в темноте</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Qhb_kbyi2EQ.jpg</t>
+          <t>IfxJCmA0uOs.jpg</t>
         </is>
       </c>
       <c r="H110">
-        <f>HYPERLINK("https://sun9-10.userapi.com/c850532/v850532758/1cbf23/Qhb_kbyi2EQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-55.userapi.com/c543100/v543100177/51b9f/IfxJCmA0uOs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>43739.836875</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
+        <v>43581.83341435185</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>кого выберешь?</t>
+        </is>
+      </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Это не машинки, это стиральные доски. Но к ним ещё и корыто оцинкованное нужно.</t>
+          <t>Воду</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>EgBqjrgE2-Y.jpg</t>
+          <t>u8oMTxzyW8k.jpg</t>
         </is>
       </c>
       <c r="H111">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c857520/v857520419/92163/EgBqjrgE2-Y.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c543100/v543100177/51b96/u8oMTxzyW8k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>43739.75369212963</v>
+        <v>43581.77777777778</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>У всех были?😊</t>
+          <t>идеально</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Сейчас кстати, в моде они👍👍👍</t>
+          <t>Наконец то они додумались до этого</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>We2juyAo-7c.jpg</t>
+          <t>7-X2cCgu1OQ.jpg</t>
         </is>
       </c>
       <c r="H112">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c854520/v854520419/113289/We2juyAo-7c.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-6.userapi.com/c543100/v543100122/71e62/7-X2cCgu1OQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>43739.71204861111</v>
+        <v>43581.57638888889</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Натюрморт советское детство.</t>
+          <t>хех</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>И "Веселые картинки'</t>
+          <t>Кися?</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1JqntdOQZLo.jpg</t>
+          <t>cibE96PIpM4.jpg</t>
         </is>
       </c>
       <c r="H113">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c855720/v855720402/111b3b/1JqntdOQZLo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-30.userapi.com/c543100/v543100751/4699b/cibE96PIpM4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>43739.5041550926</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
+        <v>43581.32291666666</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>фу</t>
+        </is>
+      </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>У меня был салют</t>
+          <t>Нет, я люблю эту песню 🤗☹</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>e-aw3oz3twc.jpg</t>
+          <t>itCLLp3Qdm0.jpg</t>
         </is>
       </c>
       <c r="H114">
-        <f>HYPERLINK("https://sun9-2.userapi.com/c855532/v855532758/108bda/e-aw3oz3twc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-37.userapi.com/c543100/v543100917/5644e/itCLLp3Qdm0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>43739.29575231481</v>
+        <v>43580.90631944445</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Поливальная машина поливала все подряд: тротуары и витрины, тумбы, клумбы, детский сад, дядю Гену с тетей Зиной, сто четырнадцать ребят.</t>
+          <t>Ахахахах,я даже не знаю,а ты бы остался?
+Вообще бл крипово):^)</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Наше поколение ещё помнит многое о СССР!Моя СТРАНА !!!</t>
+          <t>Кончено если там самое бронированное стекло</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>oanP9nLwXtI.jpg</t>
+          <t>1bLiQxyqQTU.jpg</t>
         </is>
       </c>
       <c r="H115">
-        <f>HYPERLINK("https://sun9-26.userapi.com/c855128/v855128758/100c61/oanP9nLwXtI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-61.userapi.com/c543100/v543100659/a9234/1bLiQxyqQTU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>43740.8784837963</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
+        <v>43580.82300925926</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Сразу мурашки по коже и мизинец заболел 🤒)</t>
+        </is>
+      </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Стульчик со столиком!!!😁😁😁👍👍👍</t>
+          <t>Да какой мизинец тут сразу пол ноги сводит</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>ThL9bHIL2dg.jpg</t>
+          <t>LQAd0AbW8Gc.jpg</t>
         </is>
       </c>
       <c r="H116">
-        <f>HYPERLINK("https://sun9-66.userapi.com/c855532/v855532370/1150b9/ThL9bHIL2dg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-16.userapi.com/c543100/v543100468/5e57b/LQAd0AbW8Gc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>43740.711875</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
+        <v>43580.55212962963</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Вроде ровно,хм хм,как ты считаешь?:)))))))</t>
+        </is>
+      </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Джентльмены удачи! Пасть порву, маргала выколю)))</t>
+          <t>Ааа бесит!!!  Что она так криво весит!!??!!?!!?!</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>dDJuGDfAmPU.jpg</t>
+          <t>HOsiK90uKAk.jpg</t>
         </is>
       </c>
       <c r="H117">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c856136/v856136676/108b06/dDJuGDfAmPU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-8.userapi.com/c543100/v543100468/5e50c/HOsiK90uKAk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>43740.29513888889</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
+        <v>43580.34413194445</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Хм,реально напоминают ахахха
+Как думаете,кого?)^^*</t>
+        </is>
+      </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>И никакой нахрен толерантности. Врага нужно знать в лицо</t>
+          <t>Гермиону, Рона и Гарри</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>poqy-kydKOo.jpg</t>
+          <t>2b9Fx272qxY.jpg</t>
         </is>
       </c>
       <c r="H118">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c851520/v851520557/1d287f/poqy-kydKOo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-39.userapi.com/c543100/v543100468/5e4c7/2b9Fx272qxY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43739.62851851852</v>
-      </c>
-      <c r="B119" t="inlineStr"/>
+        <v>43580.30215277777</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ахахахах,когда бахнул валерьянки)0)0)хех*</t>
+        </is>
+      </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Взвейтесь кострами синие ночи мы пеонеры - дети рабочих</t>
+          <t>Конечно не так, кроссовки же на стене...</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>qEiUhqqLaW4.jpg</t>
+          <t>iyfpaf1UW2Q.jpg</t>
         </is>
       </c>
       <c r="H119">
-        <f>HYPERLINK("https://sun9-24.userapi.com/c854532/v854532172/106232/qEiUhqqLaW4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c543100/v543100366/97e0d/iyfpaf1UW2Q.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>43739.46184027778</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
+        <v>43579.94858796296</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ахахахах,олды тут?Если знаешь что это пиши в коменты)</t>
+        </is>
+      </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Мда....какую страну подняли после военной разрухи !!!😳😳😳А сейчас все продали и просрали...</t>
+          <t>Большинство насадок брак(</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>r168YxJy7b4.jpg</t>
+          <t>YdYPvUs1Hl0.jpg</t>
         </is>
       </c>
       <c r="H120">
-        <f>HYPERLINK("https://sun9-44.userapi.com/c851132/v851132514/1d3ebf/r168YxJy7b4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c543100/v543100922/5fa88/YdYPvUs1Hl0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>43739.29513888889</v>
-      </c>
-      <c r="B121" t="inlineStr"/>
+        <v>43579.82347222222</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Я бы да,а вы как считаете?ахахха*^</t>
+        </is>
+      </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>РебятЫ!! А нетути в мире документа о прекращении существования СССР! Отсутствует! И даже бумажонка, которую в 1991 г "на коленке" подписали в Беловежской Пуще ельцин, кравчук и шушкевич, тоже отсутствует!!! НЕТ ЕЁ! (поскольку знали твари, что являются преступниками бОльшими, чем гитлер; что совершают преступление страшнее, чем нацистская Германия в 1941-1945 годах). ЮРИДИЧЕСКИ СССР СУЩЕСТВУЕТ ПО СЕЙ ДЕНЬ. Об этом прекрасно знают все юридические "силы" мира. И молчат. Ибо СТРАШНО. СТРАШНО, ЧТО МЫ ОБ ЭТОМ ВСПОМНИМ, ПРОЧУВСТВУЕМ - и раздадим билюлей всем. НАШ СОВЕТСКИЙ СОЮЗ ЖИВ.</t>
+          <t>мне пливать на дом 2 ,  я телик не смотрю</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>wsPLF-Px7QY.jpg</t>
+          <t>_TPBPQ18JEU.jpg</t>
         </is>
       </c>
       <c r="H121">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c858424/v858424722/90ecb/wsPLF-Px7QY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-53.userapi.com/c543100/v543100922/5fa5c/_TPBPQ18JEU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>43740.64043981482</v>
+        <v>43579.61486111111</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Когда строил коммунизм, но приуныл.</t>
+          <t>И так всегда?А у тебя такое бывает?ахахха</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Владимир Ильич Ленин выслушивает муравьёв-ходоков из Орловской губернии, которые пришли просить открыть библиотеку в дупле белки.</t>
+          <t>Бля это же девчонка 
+Алоооо вы не перепутали админы???</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>JwE-mbwklko.jpg</t>
+          <t>v24uyam3qKo.jpg</t>
         </is>
       </c>
       <c r="H122">
-        <f>HYPERLINK("https://sun9-30.userapi.com/c855732/v855732381/113cd8/JwE-mbwklko.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c543100/v543100771/55074/v24uyam3qKo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>43739.55209490741</v>
+        <v>43579.4482175926</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Виктор Цой гуляет с сыном. 1985 год</t>
+          <t>Ахахахах,я бы и такую посмотрел)А вы?^*</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Он хотел остаться с Нами, просто остаться с Нами, но...
-Всё равно Его у Нас никто не отнимет... Человека Легенду...❤ Автору Спасибо за Уникальное фото!!!</t>
+          <t>,,Игра  при стонах,,</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>dzp17IAJsZM.jpg</t>
+          <t>uMIWZVRG5iU.jpg</t>
         </is>
       </c>
       <c r="H123">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c543106/v543106288/4c346/dzp17IAJsZM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-46.userapi.com/c543100/v543100771/5503b/uMIWZVRG5iU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>43739.91875</v>
+        <v>43578.86471064815</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Туалетная бумага в СССР была дефицитом (что было, то было). Поэтому, встретить на улице деловито шагающего человека, увешанного рулонами как пулеметными лентами, на манер геройского матроса Железняка, было обычным делом (ибо все таки бумага была). Мало того, к такому "счастливцу" то и дело подходили озабоченные граждане и спрашивали - "мужчина, где бумагу брали?"</t>
+          <t>Нормально нормально 
+Прям мастер^*</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Лучше дефицит туалетной бумаги, чем порядочных, чистых, честных людей!</t>
+          <t>Он там бардюр выбил 😁 а не мастерски припарковал</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>IiS4V--6ZEE.jpg</t>
+          <t>XZwOT4vMDuo.jpg</t>
         </is>
       </c>
       <c r="H124">
-        <f>HYPERLINK("https://sun9-29.userapi.com/c851128/v851128721/1d17b5/IiS4V--6ZEE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-7.userapi.com/c543100/v543100963/49c31/XZwOT4vMDuo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>43739.83543981481</v>
+        <v>43578.82326388889</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Фотопробы на роль Нины в культовой кинокомедии «Кавказская пленница, или Новые приключения Шурика» Леонида Гайдая 1966 год СССР.
-1 фото - кадр вошедший в киноленту - знаметитый твист Нины для Шурика на камне
-2 фото - Леонид Гайдай и возможно Наталья Варлей (но мы думаем, на фото Наталья Кустинская), а на заднем плане - ослица Люся, сыгравшая роль знаменитого упрямого ослика - спутника Шурика.
-Мало кто знает, но Люся пережила большинство актеров и участников съемочной группы, прожив долгую интересную жизнь, ее холили и лелеяли, несмотря на скверный характер. В 2002-2003 годах Люся снялась в сериале "Спецназ" с Владиславом Галкиным, а в 2005 году в картине "9 рота" Бондарчука-младшего.
-3 фото - фотопробы Натальи Селезневой на роль Нины
-4 фото - фотопробы Натальи Кустинской на роль Нины
-5 фото - фотопробы Марианны Вертинской на роль Нины
-6 фото - фотопробы мастера спорта по спортивной гимнастике Зинаиды Дружининой на роль Нины
-7 фото - финальные фотопробы Натальи Варлей, которой в итоге и досталась роль Нины. Блестяще сыгранная роль!😎</t>
+          <t>Хм,сколько тут треугольников ск?*</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Из всех претенденток, ну кроме Варлей, я думаю прекрасно бы справилась Наталья Селезнева. У неё тоже лёгкое, ироничное лицо с маленьким чертенком в глазах.</t>
+          <t>много</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>tzvVGXUqoa4.jpg</t>
+          <t>nw4cJp_UFEs.jpg</t>
         </is>
       </c>
       <c r="H125">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c851128/v851128522/1c99dd/tzvVGXUqoa4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-51.userapi.com/c543100/v543100133/49df4/nw4cJp_UFEs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>43739.54516203704</v>
+        <v>43576.89236111111</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>В стране была РАБОТА !!!...И в деревне, и в городе.....Люди были ЗАНЯТЫ ! И стабильная з/плата....
-Прислала наша участница Татьяна Антонова
-© СССР Ностальжи</t>
+          <t>лох</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>478</v>
+        <v>54</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>А что? Правда.
-И требовались все и всегда. Сказать, почему?
-Потому что заводы, фабрики и прочие предприятия НЕ БЫЛИ РАСПРОДАНЫ.</t>
+          <t>Ксяоми супер ксяоми класс, кто не верит тому в глаз</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>yCmnUu_c0d4.jpg</t>
+          <t>AmRbp-WSXs4.jpg</t>
         </is>
       </c>
       <c r="H126">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c855232/v855232721/10930d/yCmnUu_c0d4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c543100/v543100017/7fb3b/AmRbp-WSXs4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>43740.93752314815</v>
-      </c>
-      <c r="B127" t="inlineStr"/>
+        <v>43576.87152777778</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>боль</t>
+        </is>
+      </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>399</v>
+        <v>5</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Единственная странна совка в которой есть порядок ...👍</t>
+          <t>1. Ты не можешь увидеть свои уши без зеркала. 
+2. Ты не можешь сосчитать свои волосы. 
+3. Ты не можешь дышать носом когда высунул язык. 
+4. Ты проверил номер 3, и понял что ты можешь так сделать, но при этом похож на собачку) 
+6. Ты улыбаешься потому что понял что я тебя разыгрываю) 
+7. Ты же пропустил номер 5 
+8. Ты проверил есть ли там номер 5
+P.s. 
+Пролайкайте аву</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3vN4Tc_Srg8.jpg</t>
+          <t>IAAeagnKeMk.jpg</t>
         </is>
       </c>
       <c r="H127">
-        <f>HYPERLINK("https://sun9-45.userapi.com/c635105/v635105396/2cc9c/3vN4Tc_Srg8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c543100/v543100488/77417/IAAeagnKeMk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>43740.80902777778</v>
-      </c>
-      <c r="B128" t="inlineStr"/>
+        <v>43576.69444444445</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>старички поймут</t>
+        </is>
+      </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Кто предупрежден ,тот вооружен</t>
+          <t>так там еще он шатается !</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>zeIYLfMmST4.jpg</t>
+          <t>vNgS1-ksTVs.jpg</t>
         </is>
       </c>
       <c r="H128">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c635105/v635105847/3229f/zeIYLfMmST4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c543100/v543100076/59fc4/vNgS1-ksTVs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43740.47222222222</v>
-      </c>
-      <c r="B129" t="inlineStr"/>
+        <v>43576.57638888889</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>милаха</t>
+        </is>
+      </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Возмущает меня все сопливые рассуждения наших молодых писак....... ТЫ,Геннадий, пожил бы в то время и только потом выделывался бы в соцсетях своим ОСЛОУМИЕМ !!! .... ВЕЧНАЯ ПАМЯТЬ ВСЕМ, КТО ОТ ФАШИСТОВ РОДИНУ ЗАЩИЩАЛ ! СЛАВА ГЕРОЯМ !!!!!!!!!!!!!!!!!!! 🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹🌹</t>
+          <t>Беззубик</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>ZFeXSN2JVP4.jpg</t>
+          <t>BuoUUTLhLmU.jpg</t>
         </is>
       </c>
       <c r="H129">
-        <f>HYPERLINK("https://sun9-39.userapi.com/c635105/v635105708/5d198/ZFeXSN2JVP4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-46.userapi.com/c543100/v543100117/5209f/BuoUUTLhLmU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>43740.43055555555</v>
-      </c>
-      <c r="B130" t="inlineStr"/>
+        <v>43576.42361111111</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>жиза</t>
+        </is>
+      </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Стабилизатор напряжения</t>
+          <t>Да идите вы на хуй сом соей темой!</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>gLcTzqym4zc.jpg</t>
+          <t>v9S8kJghfac.jpg</t>
         </is>
       </c>
       <c r="H130">
-        <f>HYPERLINK("https://sun9-64.userapi.com/c635105/v635105851/2f382/gLcTzqym4zc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-12.userapi.com/c543100/v543100912/68385/v9S8kJghfac.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>43740.22916666666</v>
-      </c>
-      <c r="B131" t="inlineStr"/>
+        <v>43576.36458333334</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>мужик</t>
+        </is>
+      </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Документ о том что в Советском Союзе на 1 гражданина стало больше, 🙂теперь это раритет📖</t>
+          <t>Фото со стороны отца.😄</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>kWBp_naepCI.jpg</t>
+          <t>q-vDEtH07Oc.jpg</t>
         </is>
       </c>
       <c r="H131">
-        <f>HYPERLINK("https://sun9-18.userapi.com/c635105/v635105165/2ce2f/kWBp_naepCI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-38.userapi.com/c543100/v543100874/53213/q-vDEtH07Oc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>43739.92708333334</v>
-      </c>
-      <c r="B132" t="inlineStr"/>
+        <v>43576.34027777778</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>о даа</t>
+        </is>
+      </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>460</v>
+        <v>147</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>За всё время своего существования совковая пропаганда втирала дебилам росказни про скорый крах капитализма, "загнивание" Запада, скорое падение доллара, конец Америки и наступление "светлого будущего", в итоге "загнивающий" Запад без единого выстрела уничтожил сам совок, сейчас снова рассказывают про "загнивающую гейропу" , не сложно догадаться, чем это закончится и теперь .</t>
+          <t>Если с водой, едой и лучшей подругой, то да</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ST_5cgmxleU.jpg</t>
+          <t>2ISr7VeST7w.jpg</t>
         </is>
       </c>
       <c r="H132">
-        <f>HYPERLINK("https://sun9-14.userapi.com/c635105/v635105712/2beb6/ST_5cgmxleU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-72.userapi.com/c543100/v543100874/5320a/2ISr7VeST7w.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>43739.77086805556</v>
+        <v>43584.76180555556</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Мне вот интересно, чего вы здесь делаете руссофобы и уёбки фашистские, на русском сайте, да и пишите на русском, хуярте отсюда на хер, вы же говно фашистское ненавидите всё русское, чего вы здесь делаете?</t>
+          <t>Что-то попахивает наебом 😒</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>SKNYjqUZHq0.jpg</t>
+          <t>JsxUojoiQmI.jpg</t>
         </is>
       </c>
       <c r="H133">
-        <f>HYPERLINK("https://sun9-12.userapi.com/c635105/v635105884/284b8/SKNYjqUZHq0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-45.userapi.com/c845521/v845521925/1efe76/JsxUojoiQmI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>43739.72920138889</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>«мы ждали завтрашний день, 
-каждый день ждали завтрашний день…»</t>
-        </is>
-      </c>
+        <v>43584.26180555556</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Каждому коммунисту фаллоимитатор в жопу, каждому совкодрочеру батога и плеть. Золотые слова Вити Цоя (кочегара) без музыкального образования, которого обучали играть на гитаре в Лондоне.....</t>
+          <t>А не че, что они просто один и тот же мем по полам разделили и всё, вся группа это обман!</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>HFj1y8Th2SU.jpg</t>
+          <t>IGpbN8izOp0.jpg</t>
         </is>
       </c>
       <c r="H134">
-        <f>HYPERLINK("https://sun9-61.userapi.com/c635105/v635105596/302da/HFj1y8Th2SU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c845521/v845521925/1efe4c/IGpbN8izOp0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>43739.59376157408</v>
+        <v>43583.82430555556</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>631</v>
+        <v>19</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Золотое время.🙂Спасибо товарищу Брежневу за счастливое детство👏🏻не верится даже что так было</t>
+          <t>хотел поставить лайк, а там мем…</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>wg8DHv4P4-8.jpg</t>
+          <t>DXxHx9Utmew.jpg</t>
         </is>
       </c>
       <c r="H135">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c635105/v635105825/31294/wg8DHv4P4-8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c851220/v851220345/11322e/DXxHx9Utmew.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>43739.50356481481</v>
+        <v>43583.72013888889</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>405</v>
+        <v>66</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>единственный правитель которого народ уважал и любил</t>
+          <t>я один внизу разглядел размазаный леонардо дай винчик?</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>abmcY4rC5qA.jpg</t>
+          <t>iOsAU7wyS_k.jpg</t>
         </is>
       </c>
       <c r="H136">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c635105/v635105486/2a551/abmcY4rC5qA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-67.userapi.com/c855028/v855028670/30445/iOsAU7wyS_k.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>43739.46527777778</v>
+        <v>43583.67847222222</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>464</v>
+        <v>35</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Автор обнаглел 😠этот пост оскорбляет большинство граждан страны😠🇷🇺неприятно это слышать 😠</t>
+          <t>Эклипса топ</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>vGkyIbWXDRA.jpg</t>
+          <t>1ml3hKbRRwk.jpg</t>
         </is>
       </c>
       <c r="H137">
-        <f>HYPERLINK("https://sun9-63.userapi.com/c635105/v635105784/2e5ea/vGkyIbWXDRA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-22.userapi.com/c855028/v855028670/3043e/1ml3hKbRRwk.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>43739.3784837963</v>
+        <v>43583.34513888889</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Когда служили народу , а не народ им .</t>
+          <t>а потом умер</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>R8ksyM0MRU4.jpg</t>
+          <t>at4pvQPXpZg.jpg</t>
         </is>
       </c>
       <c r="H138">
-        <f>HYPERLINK("https://sun9-36.userapi.com/c635105/v635105268/3370e/R8ksyM0MRU4.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c845420/v845420053/1e9ae8/at4pvQPXpZg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>43739.33680555555</v>
+        <v>43582.97013888889</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Яйцами об раму хрясь!!!  Вот это,сука,круто!!!А перед друзьями "Да всё нормально,это я спецон".Ага блять, нормально!,у самого слезы непроизвольные,но сука весело было!!!</t>
+          <t>А у меня новый конкурент</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>thfFFsbW7u8.jpg</t>
+          <t>FsdEOdypN34.jpg</t>
         </is>
       </c>
       <c r="H139">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c635105/v635105597/2aacd/thfFFsbW7u8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-34.userapi.com/c848632/v848632619/174b12/FsdEOdypN34.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>43740.86111111111</v>
+        <v>43582.88680555556</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Дымовуха</t>
+          <t>И всё размазалось по спине збс инженеры</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>uWuMQ8EqhAg.jpg</t>
+          <t>o4ilp6lbLEc.jpg</t>
         </is>
       </c>
       <c r="H140">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c851332/v851332075/1e00dc/uWuMQ8EqhAg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-16.userapi.com/c848632/v848632619/174b19/o4ilp6lbLEc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>43740.78125</v>
+        <v>43582.57430555556</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Я сейчас так ем!!!</t>
+          <t>не спускайся 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Ты меня слушаешь? Не делай этого! 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Эй...? Я сказал не СПУСКАЙСЯ!!! 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ОСТАНОВИСЬ! Не делай ЭТО!!! 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Что же, если ты хочешь нажать ЛАЙК тогда спускайся 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Ты до сих пор упрямишься и не слушаешь меня!!! 😠 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Не могу с тобой больше разговаривать. 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Просто послушай ну не спускался вниз🤪🤪 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Пожалуйста, ты можешь просто меня послушаться? Пж 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Если продолжишь спускаться - я не буду дружить с тобой 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Ладно, не буду повторять одно и ТО ЖЕ ХВАТИТ СПУСКАТСЯ ВНИЗ😠 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ Да ну брось Ты это СЕРЬЁЗНО 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ТЕБЕ НАДОЕЛО ХВАТИТ😁 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬Не спускайся дальше ПРАШУ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+╬═╬ 
+Капитан Америка поднимет молот Тора, Железный Человек, Танос и Чёрная Вдова умрут</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Tm1hD6xhvlU.jpg</t>
+          <t>f6IhpqZ_J6c.jpg</t>
         </is>
       </c>
       <c r="H141">
-        <f>HYPERLINK("https://sun9-31.userapi.com/c854220/v854220075/109be3/Tm1hD6xhvlU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-39.userapi.com/c852020/v852020619/106adb/f6IhpqZ_J6c.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>43740.67361111111</v>
+        <v>43582.47013888889</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Прелесть в том что у всех почти одинаковая форма была, а не так у одного за 1500. А у другого 15000</t>
+          <t>И экзамены</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>5H5pg09lgQU.jpg</t>
+          <t>9fCWIvJRpgI.jpg</t>
         </is>
       </c>
       <c r="H142">
-        <f>HYPERLINK("https://sun9-56.userapi.com/c855220/v855220075/10e04a/5H5pg09lgQU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c854024/v854024619/303aa/9fCWIvJRpgI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>43740.57986111111</v>
+        <v>43581.92847222222</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Вот и грубить не хочется,  но ...... идиот вы сударь!
-Зилы по всему союзу верно трудились на благо народа! А то, что сейчас вашу задницу возит какая-то европейская хрень, ничего не меняет. 
-Вот Боинги, это точно "скотовозки"!
-Лучше наших Тушек в жизни не видел!</t>
+          <t>Это один и тот же мем боже 🤦‍♂️🤦‍♂️</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>E1ZdzgHaw50.jpg</t>
+          <t>mA83yvpsJdU.jpg</t>
         </is>
       </c>
       <c r="H143">
-        <f>HYPERLINK("https://sun9-42.userapi.com/c858228/v858228263/8c59e/E1ZdzgHaw50.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-42.userapi.com/c849132/v849132611/17927a/mA83yvpsJdU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>43739.57986111111</v>
+        <v>43581.76180555556</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Чистенько , уютненько ,никаких тебе навязчивых реклам и воздухе не пахнет злобным капитализмом</t>
+          <t>Единственный кто мне пишет это сберкот</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>d4iHaGm4K-o.jpg</t>
+          <t>MNjMk3BtCyE.jpg</t>
         </is>
       </c>
       <c r="H144">
-        <f>HYPERLINK("https://sun9-56.userapi.com/c855628/v855628263/109f0d/d4iHaGm4K-o.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-18.userapi.com/c849228/v849228368/17e99a/MNjMk3BtCyE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>43739.48958333334</v>
+        <v>43581.63680555556</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>не — спрашивали так : — петушок или курочка ? Здесь курочка . У петушка побольше "перьев". А ещё срывали отцвёвший одуванчик (когда он шариком белым разлетающимся) и спрашивали : — дед или баба ? и со всей силы дули на него . Если не оставались пушинки или их оставалось очень мало — это был дед . А если оставалось много , то баба . проигравшему станцевать</t>
+          <t>А какая разница? У него что лицо, что задница</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27hwKem5Bas.jpg</t>
+          <t>vjvrQC9DWyg.jpg</t>
         </is>
       </c>
       <c r="H145">
-        <f>HYPERLINK("https://sun9-16.userapi.com/c857428/v857428263/8e8c1/27hwKem5Bas.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c850024/v850024611/17ab4c/vjvrQC9DWyg.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>43739.34722222222</v>
+        <v>43581.42847222222</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
+        <v>163</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>А на что деньги тратить тогда?
+Пиздёж.</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
         <v>15</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Гениальный актёр!👍🏻👍🏻👍🏻</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>YZf9BmCAK60.jpg</t>
+          <t>EBbEVUk59wo.jpg</t>
         </is>
       </c>
       <c r="H146">
-        <f>HYPERLINK("https://sun9-56.userapi.com/c858324/v858324263/86dcc/YZf9BmCAK60.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-9.userapi.com/c849228/v849228368/17e922/EBbEVUk59wo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>43740.94722222222</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Сервант! Из мебельной фанеры сделан! Вечный!</t>
-        </is>
-      </c>
+        <v>43580.42847222222</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>У многих такие остались до сих пор с тем же набором посуды</t>
+          <t>Он просто ее увидел</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>smk87PL-yCM.jpg</t>
+          <t>ZPqPgi_9iSw.jpg</t>
         </is>
       </c>
       <c r="H147">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c850620/v850620033/1cf191/smk87PL-yCM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-70.userapi.com/c845521/v845521790/1f1880/ZPqPgi_9iSw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>43740.85555555556</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Наши девчата- советские!</t>
-        </is>
-      </c>
+        <v>43580.26180555556</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Сама атмосфера, настроение, послевкусие... Всё радует и приятно сердцу на этой фотографии!🙏🏻😊👍🏻</t>
+          <t>не ну а чо кот же старался наверн</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>WpedDKN9aRY.jpg</t>
+          <t>GzVEFK9MPPw.jpg</t>
         </is>
       </c>
       <c r="H148">
-        <f>HYPERLINK("https://sun9-51.userapi.com/c851216/v851216033/1cecbe/WpedDKN9aRY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-71.userapi.com/c849320/v849320790/17bb88/GzVEFK9MPPw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>43740.81388888889</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Начало новой семьи! Как они, интересно, сейчас живут?</t>
-        </is>
-      </c>
+        <v>43579.92847222222</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>39 лет вместе</t>
+          <t>Вы тоже нажали на лайк на фотке?</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>BkdlpAmkZxE.jpg</t>
+          <t>uE2L7av37bQ.jpg</t>
         </is>
       </c>
       <c r="H149">
-        <f>HYPERLINK("https://sun9-1.userapi.com/c853516/v853516033/10c2e9/BkdlpAmkZxE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-38.userapi.com/c849320/v849320790/17bb7a/uE2L7av37bQ.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>43740.70069444444</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ПУПСИКИ! Шили им конвертики?</t>
-        </is>
-      </c>
+        <v>43579.76180555556</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Шили😊</t>
+          <t>2+2 = 5000</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Gc76owpq88U.jpg</t>
+          <t>5E3dRVG8JwM.jpg</t>
         </is>
       </c>
       <c r="H150">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c857420/v857420033/8b7e8/Gc76owpq88U.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-72.userapi.com/c849320/v849320790/17bb6c/5E3dRVG8JwM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>43740.64930555555</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Народ семьями и даже вместе с соседями ходили в кино! 
-Это был поистине культурный поход!</t>
-        </is>
-      </c>
+        <v>43579.67847222222</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Никто не жевал рядом.Все смотрели кино.</t>
+          <t>Там просто невидимыми чернилами написано</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>ynkIOmSDYQg.jpg</t>
+          <t>XnsHlxYXJso.jpg</t>
         </is>
       </c>
       <c r="H151">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c858336/v858336033/8fb10/ynkIOmSDYQg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-49.userapi.com/c849320/v849320790/17bb5e/XnsHlxYXJso.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>43740.56597222222</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Советские ёлочные игрушки - это отдельный вид искусства!</t>
-        </is>
-      </c>
+        <v>43579.49097222222</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Самое любимое было занятие разбирать перед Новым годом коробку с елочными игрушками.</t>
+          <t>Это мой боец!</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>ZYd4qu2BGk0.jpg</t>
+          <t>Tbf36gzhPmM.jpg</t>
         </is>
       </c>
       <c r="H152">
-        <f>HYPERLINK("https://sun9-33.userapi.com/c852128/v852128033/1e5548/ZYd4qu2BGk0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-66.userapi.com/c849320/v849320790/17bb48/Tbf36gzhPmM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>43740.52430555555</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Старая часть города почти везде выглядела именно так.</t>
-        </is>
-      </c>
+        <v>43579.42847222222</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Мы жили в похожем.Окошки были еще ниже. почти у земли. Зимой батя закидывал их до половины снегом - чтоб теплее было. Но воспоминания о тех годах - самые теплые.</t>
+          <t>Каво?</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>QNKDF0cZxuI.jpg</t>
+          <t>_6lqwBw_Ccc.jpg</t>
         </is>
       </c>
       <c r="H153">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c855416/v855416033/10c964/QNKDF0cZxuI.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c849320/v849320790/17bb65/_6lqwBw_Ccc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>43740.44097222222</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Никакой рекламы, слоганов, обещаний и брендов! 
-Но все знали - молоко и молоко! Вкусное и настоящее.</t>
-        </is>
-      </c>
+        <v>43579.26180555556</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>И разноцветные крышечки, по которым можно было определить наличие того или иного товара 🤗🤗🤗🤗🤗Всё просто!!!!!!!!!</t>
+          <t>Оно сохраняется так-то</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>DOYHZ6bvDLc.jpg</t>
+          <t>V_U23RoUY_s.jpg</t>
         </is>
       </c>
       <c r="H154">
-        <f>HYPERLINK("https://sun9-3.userapi.com/c853628/v853628940/1063bd/DOYHZ6bvDLc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c849320/v849320790/17bb33/V_U23RoUY_s.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>43740.39930555555</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Помните вкус настоящих тортов?</t>
-        </is>
-      </c>
+        <v>43578.84513888889</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>О да</t>
+          <t>Сын:Мама я принял решение пожить от вас отдельно
+Мама:хорошо Сынок это твоё первое взрослое решение 
+Через час:
+Сын:Мама я собрал ваши вещи можете собирать😂</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>EGktK21chmU.jpg</t>
+          <t>2quCFOnAGAY.jpg</t>
         </is>
       </c>
       <c r="H155">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c856020/v856020940/10d362/EGktK21chmU.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-25.userapi.com/c846524/v846524898/1ece4c/2quCFOnAGAY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>43740.27430555555</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Конфеты в СССР были просто вкуснющие!</t>
-        </is>
-      </c>
+        <v>43578.76180555556</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Да, вкусняшки, ещё похожие Мечта назывались 😁👍</t>
+          <t>Однажды я гулял по лесу, вижу колодец. Подхожу к нему, захожу в лифт, сажусь на велосипед, завожу мотоцикл, тут бац, ко мне кондуктор подходит и говорит: Дядя, уступи место. А я говорю что не курю. Так этот ребенок как начнет плакать! Но я не растерялся, и как дал ему по роже, а он хватается за коленку и кричит: ''Моя спина! Моя спина!. Выхожу я из этой электрички, смотрю, маршрутка стоит. Ну подхожу и говорю:'Винстон синий и водки 0,5. Ну она мне и дает Bond и пиво. Я беру эту приму и самогон, и убегаю от этих мусоров! Так эти пожарники меня на скорой догнали! Догнали и говорят: ''Вы сдачу забыли!. Ну я беру килограмм яблок, и иду на базар торговать. Приношу, не успел выложить эти бананы, тут же бабка подбегает и скупает у меня все персики, и говорит чтобы все сложил в кулечек! А я думаю, что она совсем больная, как я ей 20 арбузов в сумку положу?! Взял я деньги и пошел домой! Больше я в лес не ходил... и грибы не трогал... даже курить бросил.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Z4OUotxGjws.jpg</t>
+          <t>hjE0Mp8YF28.jpg</t>
         </is>
       </c>
       <c r="H156">
-        <f>HYPERLINK("https://sun9-18.userapi.com/c853428/v853428940/10b759/Z4OUotxGjws.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-13.userapi.com/c846524/v846524898/1ece45/hjE0Mp8YF28.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>43739.94583333333</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Сбивалка! Для крема! Крути руками и всё! И никакого электричества!</t>
-        </is>
-      </c>
+        <v>43578.56373842592</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>С удовольствием и сейчас бы такую себе приобрела😊</t>
+          <t>Гревне дреческий салт</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>8hj_OIyxWMA.jpg</t>
+          <t>K3vj7pXnWlE.jpg</t>
         </is>
       </c>
       <c r="H157">
-        <f>HYPERLINK("https://sun9-15.userapi.com/c855332/v855332940/10f3ef/8hj_OIyxWMA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c846524/v846524898/1ece37/K3vj7pXnWlE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>43739.90416666667</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>С магазина возвращались..</t>
-        </is>
-      </c>
+        <v>43578.51180555556</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Вот с такими авоськами все ходили. Видно было кто что купил</t>
+          <t>Твое лицо когда пришла повестка)</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>HUQLyyq1jQw.jpg</t>
+          <t>2MtXoEe99NA.jpg</t>
         </is>
       </c>
       <c r="H158">
-        <f>HYPERLINK("https://sun9-41.userapi.com/c857728/v857728940/810ef/HUQLyyq1jQw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-63.userapi.com/c846524/v846524898/1ece30/2MtXoEe99NA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>43739.8625</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Игра в песочнице была местом общения детей!</t>
-        </is>
-      </c>
+        <v>43577.92847222222</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Сейчас дети тоже неплохо в песочницах общаются. Тем более достаточно песочных принадлежностей</t>
+          <t>Разница в том, что справа сырая?😂</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>jjp0KAt1A3o.jpg</t>
+          <t>Ee3DYxTdGgM.jpg</t>
         </is>
       </c>
       <c r="H159">
-        <f>HYPERLINK("https://sun9-12.userapi.com/c853620/v853620940/10e0d7/jjp0KAt1A3o.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-60.userapi.com/c846524/v846524898/1ece14/Ee3DYxTdGgM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>43739.77916666667</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>А вы помните свои дни рождения?</t>
-        </is>
-      </c>
+        <v>43577.76180555556</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Да. Разнообразные мамины торты. Штук по пять разных и домашний компот. А у подруг магазинные торты полянка и газировка. Вдобавок у меня добрейшая мама и можно было хоть на головах стоять. Поэтому подруги любили ко мне ходить 😄</t>
+          <t>Жиза🍌</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>5qjDQJUiC7A.jpg</t>
+          <t>Ar88qMQbh_E.jpg</t>
         </is>
       </c>
       <c r="H160">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c855332/v855332940/10f354/5qjDQJUiC7A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-2.userapi.com/c846524/v846524898/1ece06/Ar88qMQbh_E.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>43739.7375</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Усатый шмель, ой...- мохнатый шмель на душистый хмель - цапля серая в камыши...!
-Узнали?!!</t>
-        </is>
-      </c>
+        <v>43577.59513888889</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Никита Ммхалков</t>
+          <t>Попу мыть, попу мыть нужно каждый день</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>we2IF1hEDO0.jpg</t>
+          <t>kn5pMJK6qeI.jpg</t>
         </is>
       </c>
       <c r="H161">
-        <f>HYPERLINK("https://sun9-29.userapi.com/c854524/v854524940/10d4fe/we2IF1hEDO0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-68.userapi.com/c846524/v846524898/1ecdf8/kn5pMJK6qeI.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>43739.69583333333</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Помните этот детский ужас- пееенкаааа?!!!😨</t>
-        </is>
-      </c>
+        <v>43577.51180555556</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>А я любила пенку и сейчас если кипячу молоко, то пенку съедаю.</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>y5rem82splg.jpg</t>
+          <t>2hIcPG4_Kbw.jpg</t>
         </is>
       </c>
       <c r="H162">
-        <f>HYPERLINK("https://sun9-31.userapi.com/c858220/v858220940/8b03a/y5rem82splg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-49.userapi.com/c852024/v852024735/106329/2hIcPG4_Kbw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>43739.65416666667</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Вот это петушок! За 5 копеек! Вкусняшка детства.У вас какая цена была?</t>
-        </is>
-      </c>
+        <v>43577.42847222222</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>А мы не покупали , мы сами делали.</t>
+          <t>Когда написал комент про политику</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>jgNWCWQwbcM.jpg</t>
+          <t>PDJnISBbOQA.jpg</t>
         </is>
       </c>
       <c r="H163">
-        <f>HYPERLINK("https://sun9-37.userapi.com/c855420/v855420940/105560/jgNWCWQwbcM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-47.userapi.com/c852024/v852024735/106322/PDJnISBbOQA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>43739.6125</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Вот так и учились! Как-то по- домашнему, без официоза. А какие парты! Специальный наклон рабочей поверхности формирует правильную осанку у детей!</t>
-        </is>
-      </c>
+        <v>43577.34513888889</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Я училась начальные классы,мне было удобно.</t>
+          <t>Однажды я гулял по лесу, вижу колодец. Подхожу к нему, захожу в лифт, сажусь на велосипед, завожу мотоцикл, тут бац, ко мне кондуктор подходит и говорит: Дядя, уступи место. А я говорю что не курю. Так этот ребенок как начнет плакать! Но я не растерялся, и как дал ему по роже, а он хватается за коленку и кричит: ''Моя спина! Моя спина!. Выхожу я из этой электрички, смотрю, маршрутка стоит. Ну подхожу и говорю:'Винстон синий и водки 0,5. Ну она мне и дает Bond и пиво. Я беру эту приму и самогон, и убегаю от этих мусоров! Так эти пожарники меня на скорой догнали! Догнали и говорят: ''Вы сдачу забыли!. Ну я беру килограмм яблок, и иду на базар торговать. Приношу, не успел выложить эти бананы, тут же бабка подбегает и скупает у меня все персики, и говорит чтобы все сложил в кулечек! А я думаю, что она совсем больная, как я ей 20 арбузов в сумку положу?! Взял я деньги и пошел домой! Больше я в лес не ходил... и грибы не трогал... даже курить бросил.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>WQtpwawaZtw.jpg</t>
+          <t>ywbRcBnisq0.jpg</t>
         </is>
       </c>
       <c r="H164">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c855428/v855428940/107dc3/WQtpwawaZtw.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c852024/v852024735/10631b/ywbRcBnisq0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>43739.44583333333</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Помните такую бумагу для поделок?</t>
-        </is>
-      </c>
+        <v>43577.30347222222</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Делали на майские праздники яблоневые и вишнёвые цветущие веточки из тополя и этой бумаги
- С ними ходили на демонстрацию.</t>
+          <t>Потом открываешь дверь и видишь это:</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>G6kDJrXJbm0.jpg</t>
+          <t>ZR0HJ4nR3kA.jpg</t>
         </is>
       </c>
       <c r="H165">
-        <f>HYPERLINK("https://sun9-53.userapi.com/c855332/v855332148/10f6a8/G6kDJrXJbm0.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-17.userapi.com/c846524/v846524898/1ece61/ZR0HJ4nR3kA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>43739.31527777778</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Молочные коктейли! Вкуснятина! Были и со сливовым соком и с яблочным и с апельсиновым. Всякие! какие вы любили?</t>
-        </is>
-      </c>
+        <v>43576.59513888889</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Молочный просто Супер, самый мой любимый😍💕</t>
+          <t>Ну там ведь есть 2 дефки , у рейнджеров!</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>CO-TTjm1Bmg.jpg</t>
+          <t>ejbyGys2J78.jpg</t>
         </is>
       </c>
       <c r="H166">
-        <f>HYPERLINK("https://sun9-40.userapi.com/c855332/v855332148/10f67d/CO-TTjm1Bmg.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-10.userapi.com/c852024/v852024735/1062dc/ejbyGys2J78.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>43739.27152777778</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Доброе утро, Москва! 70-е!</t>
-        </is>
-      </c>
+        <v>43584.60069444445</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Это время, когда на улицах многолюдно и мало автомобилей на дорогах</t>
+          <t>Высадка в нормандии?</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>x4QRPwJC3vA.jpg</t>
+          <t>RpeIArT4cw0.jpg</t>
         </is>
       </c>
       <c r="H167">
-        <f>HYPERLINK("https://sun9-62.userapi.com/c857528/v857528148/8e751/x4QRPwJC3vA.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-4.userapi.com/c851216/v851216432/10ba2d/RpeIArT4cw0.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>43740.85217592592</v>
+        <v>43583.95834490741</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>На счёт лягушки не помню,но точно помню что этот анахронизм называли инвалидкой...</t>
+          <t>Эх жаль что в реале хашишины это просто кучка головорезов</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>DyocKMiMZl8.jpg</t>
+          <t>IUUW1UAsuvE.jpg</t>
         </is>
       </c>
       <c r="H168">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c858432/v858432007/8aff8/DyocKMiMZl8.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-44.userapi.com/c850636/v850636395/10373e/IUUW1UAsuvE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>43740.72716435185</v>
+        <v>43583.87502314815</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>А что сейчас мешает? Вон какие дворы площадки спортивные, мы о таких и мечтать не могли. В советском дворе все было разломано и раздолбано! А любимым развлечением детей было кидать спички в потолок в подъезде и портить лифты!</t>
+          <t>*Остальные поклонники человека-паука*</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>DzdTR2keMWM.jpg</t>
+          <t>uD6DPsiD2fY.jpg</t>
         </is>
       </c>
       <c r="H169">
-        <f>HYPERLINK("https://sun9-67.userapi.com/c850724/v850724462/1c78ff/DzdTR2keMWM.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-26.userapi.com/c850020/v850020395/173074/uD6DPsiD2fY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>43740.43549768518</v>
+        <v>43583.79170138889</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Ну извините, костюмы - вполне себе на уровне. Все крайне презентабельно и не выглядит дёшево.</t>
+          <t>Опять СССР развалился</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>JUspVxdFVAE.jpg</t>
+          <t>J6xjhMJgvJo.jpg</t>
         </is>
       </c>
       <c r="H170">
-        <f>HYPERLINK("https://sun9-7.userapi.com/c851020/v851020497/1ccd1d/JUspVxdFVAE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-39.userapi.com/c856024/v856024395/2f06c/J6xjhMJgvJo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>43739.7271875</v>
+        <v>43583.70836805556</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>"Эх, зря только крылья давал!.."</t>
+          <t>Кто сказал коммунизм?</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>ZuoWl-YQaZs.jpg</t>
+          <t>lklYWnynfBU.jpg</t>
         </is>
       </c>
       <c r="H171">
-        <f>HYPERLINK("https://sun9-41.userapi.com/c855728/v855728858/110edb/ZuoWl-YQaZs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-37.userapi.com/c854320/v854320395/3127b/lklYWnynfBU.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>43739.56050925926</v>
+        <v>43583.62506944445</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2020 )))</t>
+          <t>А при чем здесь Ян Гус на второй картинке?</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>WOI5Td3XxYc.jpg</t>
+          <t>2qOo7uasgJw.jpg</t>
         </is>
       </c>
       <c r="H172">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c858132/v858132594/8a586/WOI5Td3XxYc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-36.userapi.com/c850132/v850132395/132a78/2qOo7uasgJw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>43740.96180555555</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Доставка прошлого</t>
-        </is>
-      </c>
+        <v>43583.45839120371</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Продавец надёжный. Дошло быстро. Трек отслеживался. Упаковка повреждена.
-В подарок зачем то положили плоскогубцы.</t>
+          <t>Я сильно тупой и не могу это прокомментировать.
+Накидайте лайков просто так.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>l_pKTgCZwyk.jpg</t>
+          <t>fb7DDouqbFM.jpg</t>
         </is>
       </c>
       <c r="H173">
-        <f>HYPERLINK("https://sun9-23.userapi.com/c858228/v858228570/8aaed/l_pKTgCZwyk.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-15.userapi.com/c849420/v849420395/183ae0/fb7DDouqbFM.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>43740.92013888889</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Такой одеколон был у многих</t>
-        </is>
-      </c>
+        <v>43582.87502314815</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
+        <v>19</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>🐷 а вот это по нашему, по славянски</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
         <v>7</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>он и сейчас есть</t>
-        </is>
-      </c>
-      <c r="F174" t="n">
-        <v>3</v>
-      </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>X8SYoEzOVKQ.jpg</t>
+          <t>e7Lc5TnGHf4.jpg</t>
         </is>
       </c>
       <c r="H174">
-        <f>HYPERLINK("https://sun9-20.userapi.com/c850536/v850536179/1cb6b0/X8SYoEzOVKQ.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-1.userapi.com/c855320/v855320267/2b8d0/e7Lc5TnGHf4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>43740.17013888889</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Учебное пособие</t>
-        </is>
-      </c>
+        <v>43582.72569444445</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Нет больше завода. Эти артифакты свидетельствуют о том, что на этой территории не так давно была более высокоразвитая цивилизация.</t>
+          <t>Не все поймут</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>smFbW8dOE1M.jpg</t>
+          <t>hmiquurKsKE.jpg</t>
         </is>
       </c>
       <c r="H175">
-        <f>HYPERLINK("https://sun9-8.userapi.com/c853524/v853524469/1050a9/smFbW8dOE1M.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-20.userapi.com/c846324/v846324917/1d8b7d/hmiquurKsKE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>43739.83680555555</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Все из нас съедали горбушку?</t>
-        </is>
-      </c>
+        <v>43582.66670138889</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Это был хлеб ! а не то говно чем кормят народ сейчас...</t>
+          <t>На болоте 👍</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>DhpChQqtkrc.jpg</t>
+          <t>CDZ-trK2OsY.jpg</t>
         </is>
       </c>
       <c r="H176">
-        <f>HYPERLINK("https://sun9-13.userapi.com/c855220/v855220581/100f81/DhpChQqtkrc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-28.userapi.com/c850732/v850732532/10677a/CDZ-trK2OsY.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>43739.79513888889</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>У вас была такая?</t>
-        </is>
-      </c>
+        <v>43581.86577546296</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Козырёк ломался</t>
+          <t>Кто нибудь смотрел Дюнкерк?</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>pS327eWl8WY.jpg</t>
+          <t>q3Esi4WPyD4.jpg</t>
         </is>
       </c>
       <c r="H177">
-        <f>HYPERLINK("https://sun9-5.userapi.com/c858324/v858324755/82de1/pS327eWl8WY.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-28.userapi.com/c851324/v851324532/103a78/q3Esi4WPyD4.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>43739.50347222222</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Валентина Леонтьева. Любили ее программу?</t>
-        </is>
-      </c>
+        <v>43581.79171296296</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>"Здравствуйте, дорогие ребята и уважаемые товарищи взрослые" ... Эх, тётя Валя ...
-Конечно, любили ... Ещё была передача "В гостях у сказки".</t>
+          <t>И пришел Олег на могилу коня, и наступил на череп его и сказал "Ебать... Я такой классный , мне сказали, что я умру от коня, а он сдах. Я обманул смерть."
+В это время из черепа коня выползает змея и кусает Олега за ляшку, и Олег немножко умирает</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>47Hv_WUHl2Q.jpg</t>
+          <t>nUPzxwbEEeA.jpg</t>
         </is>
       </c>
       <c r="H178">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c851028/v851028737/1c541f/47Hv_WUHl2Q.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-40.userapi.com/c854028/v854028532/2d380/nUPzxwbEEeA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>43739.29513888889</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Дорожный утюг. Занимал мала места и всегда можно было выглядит, как говориться с иголочки.</t>
-        </is>
-      </c>
+        <v>43581.70837962963</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>что не так с админом ?
-ему 5 лет ?</t>
+          <t>Эм Сталин реально ужасный человек</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Cn-QZB8p16c.jpg</t>
+          <t>OKDgL733R_o.jpg</t>
         </is>
       </c>
       <c r="H179">
-        <f>HYPERLINK("https://sun9-32.userapi.com/c855124/v855124378/102219/Cn-QZB8p16c.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-45.userapi.com/c844417/v844417532/1ebedd/OKDgL733R_o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>43740.87502314815</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Пионерские костры... В них мы жили до поры. Как давно всё это было. 
-Сердце трепетно забилось: Но ведь это было, было, не угасло, не забылось. 
-Память бережно хранит....</t>
-        </is>
-      </c>
+        <v>43581.6250462963</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Было классно, романтично !!!</t>
+          <t>БЫТЬ КОМУНИСТОВ ВО-О-ЖДЁМ</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>yYIFDivFIZE.jpg</t>
+          <t>ARVXvjA-kDw.jpg</t>
         </is>
       </c>
       <c r="H180">
-        <f>HYPERLINK("https://sun9-59.userapi.com/c851016/v851016473/1bfe70/yYIFDivFIZE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-58.userapi.com/c855120/v855120532/2db43/ARVXvjA-kDw.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>43740.66675925926</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Дядя Володя в передаче "Спокойной ночи, малыши!" стал её первым ведущим, проработал в передаче 31 год.</t>
-        </is>
-      </c>
+        <v>43581.55208333334</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Т. Валя,д. Володя ,с их участием в любой передаче,вспоминаю с теплотой и любовью.</t>
+          <t>Опа па</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>GMTYhG-WXRo.jpg</t>
+          <t>N6jRLPu4FRo.jpg</t>
         </is>
       </c>
       <c r="H181">
-        <f>HYPERLINK("https://sun9-47.userapi.com/c851016/v851016473/1bfe47/GMTYhG-WXRo.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-11.userapi.com/c856120/v856120532/2d47f/N6jRLPu4FRo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>43740.54172453703</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Сегодня таких добрых детских картин уже не снимают! Показывайте детям больше хороших фильмов!</t>
-        </is>
-      </c>
+        <v>43581.42013888889</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Сегодня вообще детских картин не снимают.</t>
+          <t>Путин до того, как стал президентом.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>IjUABdji7Hs.jpg</t>
+          <t>hbdXVfu03k8.jpg</t>
         </is>
       </c>
       <c r="H182">
-        <f>HYPERLINK("https://sun9-14.userapi.com/c851016/v851016473/1bfe3e/IjUABdji7Hs.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-3.userapi.com/c844724/v844724532/1f2351/hbdXVfu03k8.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>43740.41674768519</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Вот они Советские спорсмены! Как это возможно?😊</t>
-        </is>
-      </c>
+        <v>43581.33680555555</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Потому Европа и бесится,что наши всегда лучшие!!! И от злобы не знают какую ещё бы пакость сделать....</t>
+          <t>Чет я Red Alert вспомнил)</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>iTQ9Po52row.jpg</t>
+          <t>r4tpn2ZhiHE.jpg</t>
         </is>
       </c>
       <c r="H183">
-        <f>HYPERLINK("https://sun9-35.userapi.com/c851016/v851016473/1bfe34/iTQ9Po52row.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-35.userapi.com/c845524/v845524532/1f8df4/r4tpn2ZhiHE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>43740.29170138889</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Великолепная комедия! Знаешь наизусть, а смотришь с удовольствием! Ну разве не шедевр! 
-А ведь никого из этих прекрасных актеров в живых нет. Грустно.</t>
-        </is>
-      </c>
+        <v>43580.82291666666</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Качество и отношение к людям в то время было хорошее, кино было для людей и про людей и на вечно, как тот знак "Сделано в СССР" , а не для коммерции.</t>
+          <t>как такое можно постить тупой админ</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>fz7IV9tql2A.jpg</t>
+          <t>PwAMaCTDH1s.jpg</t>
         </is>
       </c>
       <c r="H184">
-        <f>HYPERLINK("https://sun9-72.userapi.com/c851016/v851016473/1bfe21/fz7IV9tql2A.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-54.userapi.com/c852020/v852020612/107479/PwAMaCTDH1s.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>43739.87501157408</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Да, это был наш, Союз Советских социалистических Республик</t>
-        </is>
-      </c>
+        <v>43580.61111111111</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Каждое лето,из Иркутска в Калининскую область,мы ездили к бабуле😊,самое счастливое детство у меня было!👍</t>
+          <t>✨дает сам себе сотку и пристреливается</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>qInJdMzpZqE.jpg</t>
+          <t>D4Vuq5LBopE.jpg</t>
         </is>
       </c>
       <c r="H185">
-        <f>HYPERLINK("https://sun9-19.userapi.com/c851016/v851016473/1bfe1a/qInJdMzpZqE.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-11.userapi.com/c850736/v850736612/10cef7/D4Vuq5LBopE.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>43739.79168981482</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Прости нас товарищ Сталин ... просрали мы великую страну. Капля вины почти на каждом висит... где то струсили где - то промолчали... 😔😞😥</t>
-        </is>
-      </c>
+        <v>43580.52430555555</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Да ГАД пятнистый обманул всех</t>
+          <t>🍭лайкнете, типа что-то охуенное написал.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>gXhYJdJ2lVc.jpg</t>
+          <t>m0aLpWxvQrc.jpg</t>
         </is>
       </c>
       <c r="H186">
-        <f>HYPERLINK("https://sun9-55.userapi.com/c851016/v851016473/1bfe13/gXhYJdJ2lVc.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-32.userapi.com/c849136/v849136612/17f7dc/m0aLpWxvQrc.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>43739.66668981482</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>А классам, сдавшим наибольшее количество макулатуры, на торжественной линейке вручали грамоты. И все были несказанно счастливы!</t>
-        </is>
-      </c>
+        <v>43579.95834490741</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Очень нужное дело делали.Ск.лесов было сохранено благодаря тому что в школах собирали мускулатуру.</t>
+          <t>Коммунизм сила</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>M7xO6sad3_U.jpg</t>
+          <t>Tw-0kVQsTrs.jpg</t>
         </is>
       </c>
       <c r="H187">
-        <f>HYPERLINK("https://sun9-43.userapi.com/c851016/v851016473/1bfe0c/M7xO6sad3_U.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-7.userapi.com/c845417/v845417300/1f63dc/Tw-0kVQsTrs.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>43739.54168981482</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Показательно, что несмотря на то, что каждую осень почти половину первого семестра студенты проводили на картофельных полях, высокий уровень высшего образования той поры был и есть вне сомнения. 
-А вы ездили на уборку картошки ?</t>
-        </is>
-      </c>
+        <v>43579.87502314815</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Конечно , очень хорошое было время !!!!</t>
+          <t>А Николай 2 против ленина</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>lkc8jOTDb7Q.jpg</t>
+          <t>sS7VjtrfTOA.jpg</t>
         </is>
       </c>
       <c r="H188">
-        <f>HYPERLINK("https://sun9-58.userapi.com/c851016/v851016473/1bfe04/lkc8jOTDb7Q.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-41.userapi.com/c845523/v845523300/1f2444/sS7VjtrfTOA.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>43739.41668981482</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>В прославленной семье Меньшовых все личности яркие и харизматичные.😎</t>
-        </is>
-      </c>
+        <v>43579.54172453703</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Восхительные люди!!! Наши!!! Советские!!!!</t>
+          <t>В США есть коммунистическая партия?</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>A_djhuK-fME.jpg</t>
+          <t>EU3css_Ft_o.jpg</t>
         </is>
       </c>
       <c r="H189">
-        <f>HYPERLINK("https://sun9-52.userapi.com/c851016/v851016473/1bfdfd/A_djhuK-fME.jpg", "Ссылка на Объект")</f>
+        <f>HYPERLINK("https://sun9-5.userapi.com/c847217/v847217300/1e03a8/EU3css_Ft_o.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>43739.29167824074</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Как ни удивительно, но основателем "Зарницы" стала девушка - пионервожатая сельской школы Краснокамского района Пермской области Зоя Кротова. Интересно, что у самой популярной в СССР игры не было единых правил. Играли в зарницу?</t>
-        </is>
-      </c>
+        <v>43579.50694444445</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
+        <v>9</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Я один как "з" прочитал?</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>12</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>EEToJLmNXDs.jpg</t>
+        </is>
+      </c>
+      <c r="H190">
+        <f>HYPERLINK("https://sun9-32.userapi.com/c855736/v855736267/2b5f8/EEToJLmNXDs.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>43578.30690972223</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>20</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>тут ты не прав</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>7</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>6DrVFv0SmrA.jpg</t>
+        </is>
+      </c>
+      <c r="H191">
+        <f>HYPERLINK("https://sun9-49.userapi.com/c846323/v846323552/1ed06a/6DrVFv0SmrA.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>43577.79173611111</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>14</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Вообще-то это Николай 2, а восстание было во времена Николая 1-го</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
         <v>10</v>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Ещё как! Даже те, кого теперь ботанами считают. Нехотя, ни шатко, ни валко поначалу, а как в азарт войдут - держите бабушку семеро!</t>
-        </is>
-      </c>
-      <c r="F190" t="n">
-        <v>5</v>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>6r0BHY87Rds.jpg</t>
-        </is>
-      </c>
-      <c r="H190">
-        <f>HYPERLINK("https://sun9-57.userapi.com/c851016/v851016473/1bfde1/6r0BHY87Rds.jpg", "Ссылка на Объект")</f>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>A42s_HhoSsU.jpg</t>
+        </is>
+      </c>
+      <c r="H192">
+        <f>HYPERLINK("https://sun9-19.userapi.com/c851436/v851436309/fd3ad/A42s_HhoSsU.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>43577.67708333334</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>96</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>То чувство когда можешь отличить ВМВ от ВОВ,но не можешь отличить коммунизм от либерализма👌🏻</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>8</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>oVFMTDCD9_0.jpg</t>
+        </is>
+      </c>
+      <c r="H193">
+        <f>HYPERLINK("https://sun9-48.userapi.com/c845019/v845019158/1ec457/oVFMTDCD9_0.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>43577.62505787037</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>3 рейх в 45-ом
+UPD: Эх, популярность...</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>19</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>4tT5WFvHn00.jpg</t>
+        </is>
+      </c>
+      <c r="H194">
+        <f>HYPERLINK("https://sun9-54.userapi.com/c855220/v855220889/2a7bd/4tT5WFvHn00.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>43577.37505787037</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>42</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Это не повод для шутки
+И флаг другой</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>19</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>95XKSVLG-LI.jpg</t>
+        </is>
+      </c>
+      <c r="H195">
+        <f>HYPERLINK("https://sun9-35.userapi.com/c850728/v850728889/107703/95XKSVLG-LI.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>43576.92708333334</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>81</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Вы чё псы. За СССР и КПСС расстреляю</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>17</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>7Garzmenuc4.jpg</t>
+        </is>
+      </c>
+      <c r="H196">
+        <f>HYPERLINK("https://sun9-66.userapi.com/c846124/v846124614/1eb3a0/7Garzmenuc4.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>43576.54168981482</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>40</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Погодь ты можешь по звуку определить чей это танк?</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>7</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>WX7hqNSavAY.jpg</t>
+        </is>
+      </c>
+      <c r="H197">
+        <f>HYPERLINK("https://sun9-33.userapi.com/c852136/v852136812/fb6ef/WX7hqNSavAY.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>43581.22369212963</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>8</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Сколько не тряси,последняя капля всегда в трусах</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>6</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Y4IgXCttUzM.jpg</t>
+        </is>
+      </c>
+      <c r="H198">
+        <f>HYPERLINK("https://sun9-69.userapi.com/c635100/v635100224/33899/Y4IgXCttUzM.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>43581.18201388889</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Может совсем хищная?</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>13</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>SniVpuDqp8o.jpg</t>
+        </is>
+      </c>
+      <c r="H199">
+        <f>HYPERLINK("https://sun9-42.userapi.com/c635100/v635100474/43029/SniVpuDqp8o.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>43577.76528935185</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Это сыну стыдно за маман?🤣</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>6</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2RhMjTSvDnM.jpg</t>
+        </is>
+      </c>
+      <c r="H200">
+        <f>HYPERLINK("https://sun9-52.userapi.com/c635100/v635100009/76604/2RhMjTSvDnM.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>43584.70972222222</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Просто жён никто возвращать не хочет </t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>14</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Просто ни один муж ещё не обращался)))</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>7</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>QGgum4aDWvs.jpg</t>
+        </is>
+      </c>
+      <c r="H201">
+        <f>HYPERLINK("https://sun9-56.userapi.com/c543104/v543104752/44a05/QGgum4aDWvs.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>43584.59167824074</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Ага, мне тоже нравятся.</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Кто прочитал данный комментарий, желаю тебе много денег😊</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>9</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>tkMAnK846xM.jpg</t>
+        </is>
+      </c>
+      <c r="H202">
+        <f>HYPERLINK("https://sun9-62.userapi.com/c543104/v543104752/449db/tkMAnK846xM.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>43584.40347222222</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Потерянное поколение растёт...</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>а еще были рогатки луки арбалеты пугачи поджиги взрывпакеты дымовухи и много чего еще</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>7</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>sVp_awzY2ZA.jpg</t>
+        </is>
+      </c>
+      <c r="H203">
+        <f>HYPERLINK("https://sun9-9.userapi.com/c543104/v543104185/6f674/sVp_awzY2ZA.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>43583.56805555556</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Люди, не будьте такими жестокими! </t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>25</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Миру давно пи5да , ничего удивительного. К сожалению</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>11</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Hr0dYFvL71w.jpg</t>
+        </is>
+      </c>
+      <c r="H204">
+        <f>HYPERLINK("https://sun9-47.userapi.com/c543104/v543104041/4dfc4/Hr0dYFvL71w.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>43583.54444444444</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бесполезное изобретение. </t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>24</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Быстро рецепт напитка!!!</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>8</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>9gtpvGf4f_s.jpg</t>
+        </is>
+      </c>
+      <c r="H205">
+        <f>HYPERLINK("https://sun9-66.userapi.com/c543104/v543104041/4dfbd/9gtpvGf4f_s.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>43583.47361111111</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Раз деньги не приносят ему счастья - пусть отдаст их мне. </t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>28</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>когда не клюёт, даже феррари не в радость .</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>9</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>ESJkze4fYQ8.jpg</t>
+        </is>
+      </c>
+      <c r="H206">
+        <f>HYPERLINK("https://sun9-16.userapi.com/c543104/v543104041/4dfa8/ESJkze4fYQ8.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>43582.42638888889</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ещё одно доказательство, что звери лучше людей </t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>13</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Такого убогого Фотошопа я ещё не видел</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>23</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>ygI2-R91Jr0.jpg</t>
+        </is>
+      </c>
+      <c r="H207">
+        <f>HYPERLINK("https://sun9-44.userapi.com/c543104/v543104248/54550/ygI2-R91Jr0.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>43581.85138888889</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОАЭ как параллельная вселенная </t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>27</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Пусть он нашему правительству расскажет систему. А то наши не понимают что делать</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>6</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>3f50gRRxKTk.jpg</t>
+        </is>
+      </c>
+      <c r="H208">
+        <f>HYPERLINK("https://sun9-41.userapi.com/c543104/v543104504/4087a/3f50gRRxKTk.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>43581.61527777778</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Зато честно</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Никогда не заводите девушек до армии, в большинстве случаев измена и предательство со стороны дам. Да и служить проще и время быстрее летит,когда никто не ждёт.</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>6</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>29Ebf_RDANo.jpg</t>
+        </is>
+      </c>
+      <c r="H209">
+        <f>HYPERLINK("https://sun9-1.userapi.com/c543104/v543104834/51232/29Ebf_RDANo.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>43581.42638888889</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Как такие люди вообще живут</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>14</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Очень крутая куртка, жаль померла уже</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>9</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>w1i2rEgsj2Q.jpg</t>
+        </is>
+      </c>
+      <c r="H210">
+        <f>HYPERLINK("https://sun9-48.userapi.com/c543104/v543104071/50703/w1i2rEgsj2Q.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>43581.19027777778</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Многим бы поучиться у неё! </t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>8</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Суть все же другая, доброе сердце оно не с детства, а именно в детстве, дальше привыкаем ко всем реалиям и черствеем, кто в большей, кто в меньшей степени</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>6</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>WEQgLntSYLc.jpg</t>
+        </is>
+      </c>
+      <c r="H211">
+        <f>HYPERLINK("https://sun9-13.userapi.com/c543104/v543104484/5b20c/WEQgLntSYLc.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>43579.61527777778</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>И больше никаких капель на кафеле😂</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>24</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Я в раковину ссу,  никаких капель,  жена довольна!  😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>8</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Ccp1Vxy4GWs.jpg</t>
+        </is>
+      </c>
+      <c r="H212">
+        <f>HYPERLINK("https://sun9-18.userapi.com/c543104/v543104224/539c5/Ccp1Vxy4GWs.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>43579.45</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вот, что значит не повезло </t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>16</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>мне одной интересно, где они взяли столько дополнительной информации?))))) ах да... наверно когда это все происходило в Твиттере по-любому высветилось: "Ясно. Хорошо, что я выжил. О май гад, на меня летит каменная глыба. P.S. Фак, посуду забыл помыть".</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>6</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>qjbTcHDGqX8.jpg</t>
+        </is>
+      </c>
+      <c r="H213">
+        <f>HYPERLINK("https://sun9-18.userapi.com/c543104/v543104564/64ac4/qjbTcHDGqX8.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>43578.19027777778</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">На заметку девушкам! </t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>13</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Кто придумал эту фразу - автоматом в рай!!!</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>6</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>FrN9csjYNwE.jpg</t>
+        </is>
+      </c>
+      <c r="H214">
+        <f>HYPERLINK("https://sun9-49.userapi.com/c543104/v543104679/619bd/FrN9csjYNwE.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>43578.00138888889</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жизнь в России происходит </t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Стоп стоп, всм можно убивать с 18 лет???
+А типо до 18 лет это не законно а после можно? 🤣😑</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>7</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>V8DI83IPOfM.jpg</t>
+        </is>
+      </c>
+      <c r="H215">
+        <f>HYPERLINK("https://sun9-2.userapi.com/c543104/v543104600/49158/V8DI83IPOfM.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>43577.89861111111</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Было бы смешно, если бы не было так печально...</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Да я уж у себя сделал. 
+- И че? 
+- Экономят… Приходят в понедельник, а уходят в пятницу…</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>16</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>gTmwYZDzy0w.jpg</t>
+        </is>
+      </c>
+      <c r="H216">
+        <f>HYPERLINK("https://sun9-69.userapi.com/c543104/v543104600/49135/gTmwYZDzy0w.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>43577.82777777778</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">На заметочку девченкам! </t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>14</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Многие не влезут в неё)))</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>12</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>7KQleSfFZgs.jpg</t>
+        </is>
+      </c>
+      <c r="H217">
+        <f>HYPERLINK("https://sun9-20.userapi.com/c543104/v543104600/49120/7KQleSfFZgs.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>43577.42638888889</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Современные технологии в Россию не скоро дойдут </t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Сказки писать не надо, уже давно все в курсе этих технологий, особенно в магазинах</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>6</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>aNG25uFvObU.jpg</t>
+        </is>
+      </c>
+      <c r="H218">
+        <f>HYPERLINK("https://sun9-14.userapi.com/c543104/v543104194/46000/aNG25uFvObU.jpg", "Ссылка на Объект")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>43576.40277777778</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Метод дал сбой </t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>16</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>А у меня вопрос, что было бы, если бы отец застукал Сашу с девушкой...🤔</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>6</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>81EvZjBwvRo.jpg</t>
+        </is>
+      </c>
+      <c r="H219">
+        <f>HYPERLINK("https://sun9-39.userapi.com/c543104/v543104130/8c0f1/81EvZjBwvRo.jpg", "Ссылка на Объект")</f>
         <v/>
       </c>
     </row>
